--- a/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>BSAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,87 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2872700</v>
+        <v>2878400</v>
       </c>
       <c r="E8" s="3">
-        <v>2634800</v>
+        <v>2783000</v>
       </c>
       <c r="F8" s="3">
-        <v>2735400</v>
+        <v>2552500</v>
       </c>
       <c r="G8" s="3">
-        <v>2670100</v>
+        <v>2649900</v>
       </c>
       <c r="H8" s="3">
-        <v>2850600</v>
+        <v>2586600</v>
       </c>
       <c r="I8" s="3">
-        <v>2395100</v>
+        <v>2761500</v>
       </c>
       <c r="J8" s="3">
+        <v>2320300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2420400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2600000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,9 +773,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,9 +806,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,39 +920,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-101500</v>
+        <v>-131600</v>
       </c>
       <c r="E15" s="3">
-        <v>-99600</v>
+        <v>-98300</v>
       </c>
       <c r="F15" s="3">
-        <v>-83700</v>
+        <v>-96500</v>
       </c>
       <c r="G15" s="3">
-        <v>-68600</v>
+        <v>-81000</v>
       </c>
       <c r="H15" s="3">
-        <v>-56500</v>
+        <v>-66500</v>
       </c>
       <c r="I15" s="3">
-        <v>-78200</v>
+        <v>-54800</v>
       </c>
       <c r="J15" s="3">
+        <v>-75700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-72200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-78600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1478400</v>
+        <v>1642800</v>
       </c>
       <c r="E17" s="3">
-        <v>1319600</v>
+        <v>1432200</v>
       </c>
       <c r="F17" s="3">
-        <v>1534700</v>
+        <v>1278400</v>
       </c>
       <c r="G17" s="3">
-        <v>1592900</v>
+        <v>1486700</v>
       </c>
       <c r="H17" s="3">
-        <v>1619000</v>
+        <v>1543200</v>
       </c>
       <c r="I17" s="3">
-        <v>1482800</v>
+        <v>1568400</v>
       </c>
       <c r="J17" s="3">
+        <v>1436500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1602400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1635500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1394300</v>
+        <v>1235500</v>
       </c>
       <c r="E18" s="3">
-        <v>1315200</v>
+        <v>1350700</v>
       </c>
       <c r="F18" s="3">
-        <v>1200700</v>
+        <v>1274100</v>
       </c>
       <c r="G18" s="3">
-        <v>1077100</v>
+        <v>1163200</v>
       </c>
       <c r="H18" s="3">
-        <v>1231600</v>
+        <v>1043500</v>
       </c>
       <c r="I18" s="3">
-        <v>912300</v>
+        <v>1193100</v>
       </c>
       <c r="J18" s="3">
+        <v>883800</v>
+      </c>
+      <c r="K18" s="3">
         <v>818000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>964600</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-418700</v>
+        <v>-364300</v>
       </c>
       <c r="E20" s="3">
-        <v>-392500</v>
+        <v>-405600</v>
       </c>
       <c r="F20" s="3">
-        <v>-456000</v>
+        <v>-380200</v>
       </c>
       <c r="G20" s="3">
-        <v>-402000</v>
+        <v>-441700</v>
       </c>
       <c r="H20" s="3">
-        <v>-429100</v>
+        <v>-389400</v>
       </c>
       <c r="I20" s="3">
-        <v>-223000</v>
+        <v>-415700</v>
       </c>
       <c r="J20" s="3">
+        <v>-216000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-298900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-253300</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1077800</v>
+        <v>1000700</v>
       </c>
       <c r="E21" s="3">
-        <v>1023100</v>
+        <v>1041800</v>
       </c>
       <c r="F21" s="3">
-        <v>829100</v>
+        <v>988800</v>
       </c>
       <c r="G21" s="3">
-        <v>744300</v>
+        <v>801200</v>
       </c>
       <c r="H21" s="3">
-        <v>859400</v>
+        <v>719400</v>
       </c>
       <c r="I21" s="3">
-        <v>768100</v>
+        <v>831200</v>
       </c>
       <c r="J21" s="3">
+        <v>742300</v>
+      </c>
+      <c r="K21" s="3">
         <v>591800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>789900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>975600</v>
+        <v>871300</v>
       </c>
       <c r="E23" s="3">
-        <v>922700</v>
+        <v>945100</v>
       </c>
       <c r="F23" s="3">
-        <v>744800</v>
+        <v>893900</v>
       </c>
       <c r="G23" s="3">
-        <v>675100</v>
+        <v>721500</v>
       </c>
       <c r="H23" s="3">
-        <v>802500</v>
+        <v>654000</v>
       </c>
       <c r="I23" s="3">
-        <v>689300</v>
+        <v>777400</v>
       </c>
       <c r="J23" s="3">
+        <v>667800</v>
+      </c>
+      <c r="K23" s="3">
         <v>519100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>711300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>212300</v>
+        <v>186200</v>
       </c>
       <c r="E24" s="3">
-        <v>183800</v>
+        <v>205700</v>
       </c>
       <c r="F24" s="3">
-        <v>137100</v>
+        <v>178100</v>
       </c>
       <c r="G24" s="3">
-        <v>96400</v>
+        <v>132800</v>
       </c>
       <c r="H24" s="3">
-        <v>65300</v>
+        <v>93400</v>
       </c>
       <c r="I24" s="3">
-        <v>120900</v>
+        <v>63300</v>
       </c>
       <c r="J24" s="3">
+        <v>117100</v>
+      </c>
+      <c r="K24" s="3">
         <v>56800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>113500</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>763200</v>
+        <v>685100</v>
       </c>
       <c r="E26" s="3">
-        <v>738900</v>
+        <v>739400</v>
       </c>
       <c r="F26" s="3">
-        <v>607600</v>
+        <v>715800</v>
       </c>
       <c r="G26" s="3">
-        <v>578700</v>
+        <v>588600</v>
       </c>
       <c r="H26" s="3">
-        <v>737100</v>
+        <v>560700</v>
       </c>
       <c r="I26" s="3">
-        <v>568400</v>
+        <v>714100</v>
       </c>
       <c r="J26" s="3">
+        <v>550600</v>
+      </c>
+      <c r="K26" s="3">
         <v>462200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>597800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>757600</v>
+        <v>682500</v>
       </c>
       <c r="E27" s="3">
-        <v>723000</v>
+        <v>734000</v>
       </c>
       <c r="F27" s="3">
-        <v>604600</v>
+        <v>700400</v>
       </c>
       <c r="G27" s="3">
-        <v>574600</v>
+        <v>585700</v>
       </c>
       <c r="H27" s="3">
-        <v>729500</v>
+        <v>556600</v>
       </c>
       <c r="I27" s="3">
-        <v>565700</v>
+        <v>706700</v>
       </c>
       <c r="J27" s="3">
+        <v>548000</v>
+      </c>
+      <c r="K27" s="3">
         <v>456300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>590500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>2100</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>418700</v>
+        <v>364300</v>
       </c>
       <c r="E32" s="3">
-        <v>392500</v>
+        <v>405600</v>
       </c>
       <c r="F32" s="3">
-        <v>456000</v>
+        <v>380200</v>
       </c>
       <c r="G32" s="3">
-        <v>402000</v>
+        <v>441700</v>
       </c>
       <c r="H32" s="3">
-        <v>429100</v>
+        <v>389400</v>
       </c>
       <c r="I32" s="3">
-        <v>223000</v>
+        <v>415700</v>
       </c>
       <c r="J32" s="3">
+        <v>216000</v>
+      </c>
+      <c r="K32" s="3">
         <v>298900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>253300</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>757600</v>
+        <v>684600</v>
       </c>
       <c r="E33" s="3">
-        <v>723000</v>
+        <v>734000</v>
       </c>
       <c r="F33" s="3">
-        <v>604600</v>
+        <v>700400</v>
       </c>
       <c r="G33" s="3">
-        <v>574600</v>
+        <v>585700</v>
       </c>
       <c r="H33" s="3">
-        <v>729500</v>
+        <v>556600</v>
       </c>
       <c r="I33" s="3">
-        <v>565700</v>
+        <v>706700</v>
       </c>
       <c r="J33" s="3">
+        <v>548000</v>
+      </c>
+      <c r="K33" s="3">
         <v>456300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>590500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>757600</v>
+        <v>684600</v>
       </c>
       <c r="E35" s="3">
-        <v>723000</v>
+        <v>734000</v>
       </c>
       <c r="F35" s="3">
-        <v>604600</v>
+        <v>700400</v>
       </c>
       <c r="G35" s="3">
-        <v>574600</v>
+        <v>585700</v>
       </c>
       <c r="H35" s="3">
-        <v>729500</v>
+        <v>556600</v>
       </c>
       <c r="I35" s="3">
-        <v>565700</v>
+        <v>706700</v>
       </c>
       <c r="J35" s="3">
+        <v>548000</v>
+      </c>
+      <c r="K35" s="3">
         <v>456300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>590500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,68 +1645,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2747800</v>
+        <v>3702700</v>
       </c>
       <c r="E41" s="3">
-        <v>2413800</v>
+        <v>2683400</v>
       </c>
       <c r="F41" s="3">
-        <v>2362300</v>
+        <v>2357200</v>
       </c>
       <c r="G41" s="3">
-        <v>1987000</v>
+        <v>2306900</v>
       </c>
       <c r="H41" s="3">
-        <v>2754800</v>
+        <v>1940400</v>
       </c>
       <c r="I41" s="3">
-        <v>2945600</v>
+        <v>2690200</v>
       </c>
       <c r="J41" s="3">
+        <v>2876600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2382200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4642000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4436200</v>
+        <v>11727200</v>
       </c>
       <c r="E42" s="3">
-        <v>3997100</v>
+        <v>4332200</v>
       </c>
       <c r="F42" s="3">
-        <v>5256600</v>
+        <v>3903400</v>
       </c>
       <c r="G42" s="3">
-        <v>6119600</v>
+        <v>5133400</v>
       </c>
       <c r="H42" s="3">
-        <v>4483600</v>
+        <v>5976200</v>
       </c>
       <c r="I42" s="3">
-        <v>2303300</v>
+        <v>4378500</v>
       </c>
       <c r="J42" s="3">
+        <v>2249300</v>
+      </c>
+      <c r="K42" s="3">
         <v>442000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>621400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1649,9 +1741,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,99 +1840,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41300</v>
+        <v>13100</v>
       </c>
       <c r="E47" s="3">
-        <v>35300</v>
+        <v>40400</v>
       </c>
       <c r="F47" s="3">
-        <v>30400</v>
+        <v>34500</v>
       </c>
       <c r="G47" s="3">
-        <v>26000</v>
+        <v>29700</v>
       </c>
       <c r="H47" s="3">
-        <v>22900</v>
+        <v>25400</v>
       </c>
       <c r="I47" s="3">
-        <v>12400</v>
+        <v>22400</v>
       </c>
       <c r="J47" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K47" s="3">
         <v>9700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12800</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>324600</v>
+        <v>510400</v>
       </c>
       <c r="E48" s="3">
-        <v>310500</v>
+        <v>317000</v>
       </c>
       <c r="F48" s="3">
-        <v>329400</v>
+        <v>303200</v>
       </c>
       <c r="G48" s="3">
-        <v>308000</v>
+        <v>321700</v>
       </c>
       <c r="H48" s="3">
-        <v>270800</v>
+        <v>300800</v>
       </c>
       <c r="I48" s="3">
-        <v>230700</v>
+        <v>264500</v>
       </c>
       <c r="J48" s="3">
+        <v>225300</v>
+      </c>
+      <c r="K48" s="3">
         <v>207600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>225000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>85700</v>
+        <v>91700</v>
       </c>
       <c r="E49" s="3">
-        <v>80900</v>
+        <v>83700</v>
       </c>
       <c r="F49" s="3">
-        <v>74300</v>
+        <v>79000</v>
       </c>
       <c r="G49" s="3">
-        <v>65500</v>
+        <v>72600</v>
       </c>
       <c r="H49" s="3">
-        <v>52500</v>
+        <v>63900</v>
       </c>
       <c r="I49" s="3">
-        <v>85400</v>
+        <v>51200</v>
       </c>
       <c r="J49" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K49" s="3">
         <v>111800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>118700</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>491200</v>
+        <v>579400</v>
       </c>
       <c r="E52" s="3">
-        <v>494800</v>
+        <v>479700</v>
       </c>
       <c r="F52" s="3">
-        <v>479200</v>
+        <v>483200</v>
       </c>
       <c r="G52" s="3">
-        <v>427000</v>
+        <v>467900</v>
       </c>
       <c r="H52" s="3">
-        <v>363600</v>
+        <v>417000</v>
       </c>
       <c r="I52" s="3">
-        <v>297000</v>
+        <v>355100</v>
       </c>
       <c r="J52" s="3">
+        <v>290000</v>
+      </c>
+      <c r="K52" s="3">
         <v>232500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>50172600</v>
+        <v>63222800</v>
       </c>
       <c r="E54" s="3">
-        <v>45829500</v>
+        <v>48996700</v>
       </c>
       <c r="F54" s="3">
-        <v>47368500</v>
+        <v>44755300</v>
       </c>
       <c r="G54" s="3">
-        <v>44357300</v>
+        <v>46258300</v>
       </c>
       <c r="H54" s="3">
-        <v>39083700</v>
+        <v>43317600</v>
       </c>
       <c r="I54" s="3">
-        <v>34581500</v>
+        <v>38167700</v>
       </c>
       <c r="J54" s="3">
+        <v>33771000</v>
+      </c>
+      <c r="K54" s="3">
         <v>31692700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36263400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,38 +2137,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>208700</v>
+        <v>247800</v>
       </c>
       <c r="E57" s="3">
-        <v>623000</v>
+        <v>203800</v>
       </c>
       <c r="F57" s="3">
-        <v>369200</v>
+        <v>608400</v>
       </c>
       <c r="G57" s="3">
-        <v>591600</v>
+        <v>360600</v>
       </c>
       <c r="H57" s="3">
-        <v>360000</v>
+        <v>577700</v>
       </c>
       <c r="I57" s="3">
-        <v>353800</v>
+        <v>351600</v>
       </c>
       <c r="J57" s="3">
+        <v>345500</v>
+      </c>
+      <c r="K57" s="3">
         <v>364700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>131500</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,39 +2200,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12900</v>
+        <v>10200</v>
       </c>
       <c r="E59" s="3">
-        <v>10700</v>
+        <v>12600</v>
       </c>
       <c r="F59" s="3">
-        <v>40000</v>
+        <v>10400</v>
       </c>
       <c r="G59" s="3">
-        <v>24900</v>
+        <v>39100</v>
       </c>
       <c r="H59" s="3">
-        <v>3600</v>
+        <v>24300</v>
       </c>
       <c r="I59" s="3">
-        <v>65800</v>
+        <v>3500</v>
       </c>
       <c r="J59" s="3">
+        <v>64300</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,69 +2266,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13883800</v>
+        <v>18735900</v>
       </c>
       <c r="E61" s="3">
-        <v>12262300</v>
+        <v>13558400</v>
       </c>
       <c r="F61" s="3">
-        <v>12137900</v>
+        <v>11974900</v>
       </c>
       <c r="G61" s="3">
-        <v>9581100</v>
+        <v>11853400</v>
       </c>
       <c r="H61" s="3">
-        <v>9244000</v>
+        <v>9356500</v>
       </c>
       <c r="I61" s="3">
-        <v>9050600</v>
+        <v>9027300</v>
       </c>
       <c r="J61" s="3">
+        <v>8838500</v>
+      </c>
+      <c r="K61" s="3">
         <v>9159000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11518500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>442000</v>
+        <v>546300</v>
       </c>
       <c r="E62" s="3">
-        <v>427500</v>
+        <v>431700</v>
       </c>
       <c r="F62" s="3">
-        <v>405300</v>
+        <v>417500</v>
       </c>
       <c r="G62" s="3">
-        <v>426300</v>
+        <v>395800</v>
       </c>
       <c r="H62" s="3">
-        <v>407300</v>
+        <v>416300</v>
       </c>
       <c r="I62" s="3">
-        <v>334500</v>
+        <v>397800</v>
       </c>
       <c r="J62" s="3">
+        <v>326700</v>
+      </c>
+      <c r="K62" s="3">
         <v>257700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>283500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>46026000</v>
+        <v>58984300</v>
       </c>
       <c r="E66" s="3">
-        <v>41904800</v>
+        <v>44947300</v>
       </c>
       <c r="F66" s="3">
-        <v>43696600</v>
+        <v>40922600</v>
       </c>
       <c r="G66" s="3">
-        <v>40856800</v>
+        <v>42672400</v>
       </c>
       <c r="H66" s="3">
-        <v>35743100</v>
+        <v>39899300</v>
       </c>
       <c r="I66" s="3">
-        <v>31604700</v>
+        <v>34905300</v>
       </c>
       <c r="J66" s="3">
+        <v>30863900</v>
+      </c>
+      <c r="K66" s="3">
         <v>28923900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33234200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2991800</v>
+        <v>3134500</v>
       </c>
       <c r="E72" s="3">
-        <v>2786800</v>
+        <v>2921700</v>
       </c>
       <c r="F72" s="3">
-        <v>2522600</v>
+        <v>2721500</v>
       </c>
       <c r="G72" s="3">
-        <v>2357900</v>
+        <v>2463500</v>
       </c>
       <c r="H72" s="3">
-        <v>2167000</v>
+        <v>2302600</v>
       </c>
       <c r="I72" s="3">
-        <v>1843600</v>
+        <v>2116200</v>
       </c>
       <c r="J72" s="3">
+        <v>1800400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1632800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1714900</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4146600</v>
+        <v>4238500</v>
       </c>
       <c r="E76" s="3">
-        <v>3924700</v>
+        <v>4049400</v>
       </c>
       <c r="F76" s="3">
-        <v>3671900</v>
+        <v>3832700</v>
       </c>
       <c r="G76" s="3">
-        <v>3500400</v>
+        <v>3585900</v>
       </c>
       <c r="H76" s="3">
-        <v>3340700</v>
+        <v>3418400</v>
       </c>
       <c r="I76" s="3">
-        <v>2976900</v>
+        <v>3262400</v>
       </c>
       <c r="J76" s="3">
+        <v>2907100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2768800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3029300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>757600</v>
+        <v>684600</v>
       </c>
       <c r="E81" s="3">
-        <v>723000</v>
+        <v>734000</v>
       </c>
       <c r="F81" s="3">
-        <v>604600</v>
+        <v>700400</v>
       </c>
       <c r="G81" s="3">
-        <v>574600</v>
+        <v>585700</v>
       </c>
       <c r="H81" s="3">
-        <v>729500</v>
+        <v>556600</v>
       </c>
       <c r="I81" s="3">
-        <v>565700</v>
+        <v>706700</v>
       </c>
       <c r="J81" s="3">
+        <v>548000</v>
+      </c>
+      <c r="K81" s="3">
         <v>456300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>590500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>101500</v>
+        <v>131600</v>
       </c>
       <c r="E83" s="3">
-        <v>99600</v>
+        <v>98300</v>
       </c>
       <c r="F83" s="3">
-        <v>83700</v>
+        <v>96500</v>
       </c>
       <c r="G83" s="3">
-        <v>68600</v>
+        <v>81000</v>
       </c>
       <c r="H83" s="3">
-        <v>56500</v>
+        <v>66500</v>
       </c>
       <c r="I83" s="3">
-        <v>78200</v>
+        <v>54700</v>
       </c>
       <c r="J83" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K83" s="3">
         <v>72200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>78600</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1308800</v>
+        <v>2258100</v>
       </c>
       <c r="E89" s="3">
-        <v>-513600</v>
+        <v>1267900</v>
       </c>
       <c r="F89" s="3">
-        <v>962900</v>
+        <v>-497500</v>
       </c>
       <c r="G89" s="3">
-        <v>893700</v>
+        <v>932800</v>
       </c>
       <c r="H89" s="3">
-        <v>372900</v>
+        <v>865800</v>
       </c>
       <c r="I89" s="3">
-        <v>685300</v>
+        <v>361200</v>
       </c>
       <c r="J89" s="3">
+        <v>663900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1477000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2288600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-87500</v>
+        <v>-62500</v>
       </c>
       <c r="E91" s="3">
-        <v>-75200</v>
+        <v>-84700</v>
       </c>
       <c r="F91" s="3">
-        <v>-79800</v>
+        <v>-72900</v>
       </c>
       <c r="G91" s="3">
-        <v>-83300</v>
+        <v>-77300</v>
       </c>
       <c r="H91" s="3">
-        <v>-75600</v>
+        <v>-80700</v>
       </c>
       <c r="I91" s="3">
-        <v>-52200</v>
+        <v>-73300</v>
       </c>
       <c r="J91" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-47000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-117200</v>
+        <v>-170400</v>
       </c>
       <c r="E94" s="3">
-        <v>-94000</v>
+        <v>-113600</v>
       </c>
       <c r="F94" s="3">
-        <v>-115500</v>
+        <v>-91100</v>
       </c>
       <c r="G94" s="3">
-        <v>-118900</v>
+        <v>-111800</v>
       </c>
       <c r="H94" s="3">
-        <v>-118600</v>
+        <v>-115200</v>
       </c>
       <c r="I94" s="3">
-        <v>38400</v>
+        <v>-114900</v>
       </c>
       <c r="J94" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-92300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-76600</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-542200</v>
+        <v>-440400</v>
       </c>
       <c r="E96" s="3">
-        <v>-423200</v>
+        <v>-525300</v>
       </c>
       <c r="F96" s="3">
-        <v>-430900</v>
+        <v>-410000</v>
       </c>
       <c r="G96" s="3">
-        <v>-422700</v>
+        <v>-417500</v>
       </c>
       <c r="H96" s="3">
-        <v>-339400</v>
+        <v>-409400</v>
       </c>
       <c r="I96" s="3">
-        <v>-298000</v>
+        <v>-328800</v>
       </c>
       <c r="J96" s="3">
+        <v>-288600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-334100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-420900</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-542200</v>
+        <v>-440400</v>
       </c>
       <c r="E100" s="3">
-        <v>-442600</v>
+        <v>-525300</v>
       </c>
       <c r="F100" s="3">
-        <v>-451600</v>
+        <v>-428800</v>
       </c>
       <c r="G100" s="3">
-        <v>-436000</v>
+        <v>-437500</v>
       </c>
       <c r="H100" s="3">
-        <v>-350800</v>
+        <v>-422300</v>
       </c>
       <c r="I100" s="3">
-        <v>-167600</v>
+        <v>-339800</v>
       </c>
       <c r="J100" s="3">
+        <v>-162400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-339500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-425400</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>146600</v>
+        <v>157100</v>
       </c>
       <c r="E101" s="3">
-        <v>-40200</v>
+        <v>142000</v>
       </c>
       <c r="F101" s="3">
-        <v>-192300</v>
+        <v>-38900</v>
       </c>
       <c r="G101" s="3">
-        <v>260400</v>
+        <v>-186300</v>
       </c>
       <c r="H101" s="3">
-        <v>44700</v>
+        <v>252300</v>
       </c>
       <c r="I101" s="3">
-        <v>-26500</v>
+        <v>43300</v>
       </c>
       <c r="J101" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-104600</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>795900</v>
+        <v>1804400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1090400</v>
+        <v>771000</v>
       </c>
       <c r="F102" s="3">
-        <v>203600</v>
+        <v>-1056300</v>
       </c>
       <c r="G102" s="3">
-        <v>599300</v>
+        <v>197200</v>
       </c>
       <c r="H102" s="3">
-        <v>-51800</v>
+        <v>580500</v>
       </c>
       <c r="I102" s="3">
-        <v>529600</v>
+        <v>-50200</v>
       </c>
       <c r="J102" s="3">
+        <v>513100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1913500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1682000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2878400</v>
+        <v>2948000</v>
       </c>
       <c r="E8" s="3">
-        <v>2783000</v>
+        <v>2850300</v>
       </c>
       <c r="F8" s="3">
-        <v>2552500</v>
+        <v>2614200</v>
       </c>
       <c r="G8" s="3">
-        <v>2649900</v>
+        <v>2714000</v>
       </c>
       <c r="H8" s="3">
-        <v>2586600</v>
+        <v>2649200</v>
       </c>
       <c r="I8" s="3">
-        <v>2761500</v>
+        <v>2828300</v>
       </c>
       <c r="J8" s="3">
-        <v>2320300</v>
+        <v>2376400</v>
       </c>
       <c r="K8" s="3">
         <v>2420400</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-131600</v>
+        <v>-134700</v>
       </c>
       <c r="E15" s="3">
-        <v>-98300</v>
+        <v>-100700</v>
       </c>
       <c r="F15" s="3">
-        <v>-96500</v>
+        <v>-98800</v>
       </c>
       <c r="G15" s="3">
-        <v>-81000</v>
+        <v>-83000</v>
       </c>
       <c r="H15" s="3">
-        <v>-66500</v>
+        <v>-68100</v>
       </c>
       <c r="I15" s="3">
-        <v>-54800</v>
+        <v>-56100</v>
       </c>
       <c r="J15" s="3">
-        <v>-75700</v>
+        <v>-77600</v>
       </c>
       <c r="K15" s="3">
         <v>-72200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1642800</v>
+        <v>1682600</v>
       </c>
       <c r="E17" s="3">
-        <v>1432200</v>
+        <v>1466900</v>
       </c>
       <c r="F17" s="3">
-        <v>1278400</v>
+        <v>1309300</v>
       </c>
       <c r="G17" s="3">
-        <v>1486700</v>
+        <v>1522700</v>
       </c>
       <c r="H17" s="3">
-        <v>1543200</v>
+        <v>1580500</v>
       </c>
       <c r="I17" s="3">
-        <v>1568400</v>
+        <v>1606300</v>
       </c>
       <c r="J17" s="3">
-        <v>1436500</v>
+        <v>1471300</v>
       </c>
       <c r="K17" s="3">
         <v>1602400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1235500</v>
+        <v>1265400</v>
       </c>
       <c r="E18" s="3">
-        <v>1350700</v>
+        <v>1383400</v>
       </c>
       <c r="F18" s="3">
-        <v>1274100</v>
+        <v>1304900</v>
       </c>
       <c r="G18" s="3">
-        <v>1163200</v>
+        <v>1191400</v>
       </c>
       <c r="H18" s="3">
-        <v>1043500</v>
+        <v>1068700</v>
       </c>
       <c r="I18" s="3">
-        <v>1193100</v>
+        <v>1222000</v>
       </c>
       <c r="J18" s="3">
-        <v>883800</v>
+        <v>905200</v>
       </c>
       <c r="K18" s="3">
         <v>818000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-364300</v>
+        <v>-373100</v>
       </c>
       <c r="E20" s="3">
-        <v>-405600</v>
+        <v>-415400</v>
       </c>
       <c r="F20" s="3">
-        <v>-380200</v>
+        <v>-389400</v>
       </c>
       <c r="G20" s="3">
-        <v>-441700</v>
+        <v>-452400</v>
       </c>
       <c r="H20" s="3">
-        <v>-389400</v>
+        <v>-398900</v>
       </c>
       <c r="I20" s="3">
-        <v>-415700</v>
+        <v>-425800</v>
       </c>
       <c r="J20" s="3">
-        <v>-216000</v>
+        <v>-221200</v>
       </c>
       <c r="K20" s="3">
         <v>-298900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1000700</v>
+        <v>1027100</v>
       </c>
       <c r="E21" s="3">
-        <v>1041800</v>
+        <v>1068600</v>
       </c>
       <c r="F21" s="3">
-        <v>988800</v>
+        <v>1014300</v>
       </c>
       <c r="G21" s="3">
-        <v>801200</v>
+        <v>821900</v>
       </c>
       <c r="H21" s="3">
-        <v>719400</v>
+        <v>737900</v>
       </c>
       <c r="I21" s="3">
-        <v>831200</v>
+        <v>852300</v>
       </c>
       <c r="J21" s="3">
-        <v>742300</v>
+        <v>761500</v>
       </c>
       <c r="K21" s="3">
         <v>591800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>871300</v>
+        <v>892400</v>
       </c>
       <c r="E23" s="3">
-        <v>945100</v>
+        <v>967900</v>
       </c>
       <c r="F23" s="3">
-        <v>893900</v>
+        <v>915500</v>
       </c>
       <c r="G23" s="3">
-        <v>721500</v>
+        <v>738900</v>
       </c>
       <c r="H23" s="3">
-        <v>654000</v>
+        <v>669900</v>
       </c>
       <c r="I23" s="3">
-        <v>777400</v>
+        <v>796200</v>
       </c>
       <c r="J23" s="3">
-        <v>667800</v>
+        <v>683900</v>
       </c>
       <c r="K23" s="3">
         <v>519100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>186200</v>
+        <v>190700</v>
       </c>
       <c r="E24" s="3">
-        <v>205700</v>
+        <v>210700</v>
       </c>
       <c r="F24" s="3">
-        <v>178100</v>
+        <v>182400</v>
       </c>
       <c r="G24" s="3">
-        <v>132800</v>
+        <v>136000</v>
       </c>
       <c r="H24" s="3">
-        <v>93400</v>
+        <v>95600</v>
       </c>
       <c r="I24" s="3">
-        <v>63300</v>
+        <v>64800</v>
       </c>
       <c r="J24" s="3">
-        <v>117100</v>
+        <v>120000</v>
       </c>
       <c r="K24" s="3">
         <v>56800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>685100</v>
+        <v>701600</v>
       </c>
       <c r="E26" s="3">
-        <v>739400</v>
+        <v>757300</v>
       </c>
       <c r="F26" s="3">
-        <v>715800</v>
+        <v>733100</v>
       </c>
       <c r="G26" s="3">
-        <v>588600</v>
+        <v>602900</v>
       </c>
       <c r="H26" s="3">
-        <v>560700</v>
+        <v>574200</v>
       </c>
       <c r="I26" s="3">
-        <v>714100</v>
+        <v>731400</v>
       </c>
       <c r="J26" s="3">
-        <v>550600</v>
+        <v>564000</v>
       </c>
       <c r="K26" s="3">
         <v>462200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>682500</v>
+        <v>699000</v>
       </c>
       <c r="E27" s="3">
-        <v>734000</v>
+        <v>751700</v>
       </c>
       <c r="F27" s="3">
-        <v>700400</v>
+        <v>717300</v>
       </c>
       <c r="G27" s="3">
-        <v>585700</v>
+        <v>599900</v>
       </c>
       <c r="H27" s="3">
-        <v>556600</v>
+        <v>570100</v>
       </c>
       <c r="I27" s="3">
-        <v>706700</v>
+        <v>723800</v>
       </c>
       <c r="J27" s="3">
-        <v>548000</v>
+        <v>561200</v>
       </c>
       <c r="K27" s="3">
         <v>456300</v>
@@ -1353,7 +1353,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>364300</v>
+        <v>373100</v>
       </c>
       <c r="E32" s="3">
-        <v>405600</v>
+        <v>415400</v>
       </c>
       <c r="F32" s="3">
-        <v>380200</v>
+        <v>389400</v>
       </c>
       <c r="G32" s="3">
-        <v>441700</v>
+        <v>452400</v>
       </c>
       <c r="H32" s="3">
-        <v>389400</v>
+        <v>398900</v>
       </c>
       <c r="I32" s="3">
-        <v>415700</v>
+        <v>425800</v>
       </c>
       <c r="J32" s="3">
-        <v>216000</v>
+        <v>221200</v>
       </c>
       <c r="K32" s="3">
         <v>298900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>684600</v>
+        <v>701200</v>
       </c>
       <c r="E33" s="3">
-        <v>734000</v>
+        <v>751700</v>
       </c>
       <c r="F33" s="3">
-        <v>700400</v>
+        <v>717300</v>
       </c>
       <c r="G33" s="3">
-        <v>585700</v>
+        <v>599900</v>
       </c>
       <c r="H33" s="3">
-        <v>556600</v>
+        <v>570100</v>
       </c>
       <c r="I33" s="3">
-        <v>706700</v>
+        <v>723800</v>
       </c>
       <c r="J33" s="3">
-        <v>548000</v>
+        <v>561200</v>
       </c>
       <c r="K33" s="3">
         <v>456300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>684600</v>
+        <v>701200</v>
       </c>
       <c r="E35" s="3">
-        <v>734000</v>
+        <v>751700</v>
       </c>
       <c r="F35" s="3">
-        <v>700400</v>
+        <v>717300</v>
       </c>
       <c r="G35" s="3">
-        <v>585700</v>
+        <v>599900</v>
       </c>
       <c r="H35" s="3">
-        <v>556600</v>
+        <v>570100</v>
       </c>
       <c r="I35" s="3">
-        <v>706700</v>
+        <v>723800</v>
       </c>
       <c r="J35" s="3">
-        <v>548000</v>
+        <v>561200</v>
       </c>
       <c r="K35" s="3">
         <v>456300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3702700</v>
+        <v>3761900</v>
       </c>
       <c r="E41" s="3">
-        <v>2683400</v>
+        <v>2726300</v>
       </c>
       <c r="F41" s="3">
-        <v>2357200</v>
+        <v>2395000</v>
       </c>
       <c r="G41" s="3">
-        <v>2306900</v>
+        <v>2343800</v>
       </c>
       <c r="H41" s="3">
-        <v>1940400</v>
+        <v>1971500</v>
       </c>
       <c r="I41" s="3">
-        <v>2690200</v>
+        <v>2733300</v>
       </c>
       <c r="J41" s="3">
-        <v>2876600</v>
+        <v>2922600</v>
       </c>
       <c r="K41" s="3">
         <v>2382200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11727200</v>
+        <v>11914800</v>
       </c>
       <c r="E42" s="3">
-        <v>4332200</v>
+        <v>4401500</v>
       </c>
       <c r="F42" s="3">
-        <v>3903400</v>
+        <v>3965900</v>
       </c>
       <c r="G42" s="3">
-        <v>5133400</v>
+        <v>5215600</v>
       </c>
       <c r="H42" s="3">
-        <v>5976200</v>
+        <v>6071800</v>
       </c>
       <c r="I42" s="3">
-        <v>4378500</v>
+        <v>4448600</v>
       </c>
       <c r="J42" s="3">
-        <v>2249300</v>
+        <v>2285300</v>
       </c>
       <c r="K42" s="3">
         <v>442000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13100</v>
+        <v>13300</v>
       </c>
       <c r="E47" s="3">
-        <v>40400</v>
+        <v>41000</v>
       </c>
       <c r="F47" s="3">
-        <v>34500</v>
+        <v>35000</v>
       </c>
       <c r="G47" s="3">
-        <v>29700</v>
+        <v>30200</v>
       </c>
       <c r="H47" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="I47" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="J47" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="K47" s="3">
         <v>9700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>510400</v>
+        <v>518600</v>
       </c>
       <c r="E48" s="3">
-        <v>317000</v>
+        <v>322100</v>
       </c>
       <c r="F48" s="3">
-        <v>303200</v>
+        <v>308000</v>
       </c>
       <c r="G48" s="3">
-        <v>321700</v>
+        <v>326900</v>
       </c>
       <c r="H48" s="3">
-        <v>300800</v>
+        <v>305600</v>
       </c>
       <c r="I48" s="3">
-        <v>264500</v>
+        <v>268700</v>
       </c>
       <c r="J48" s="3">
-        <v>225300</v>
+        <v>228900</v>
       </c>
       <c r="K48" s="3">
         <v>207600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>91700</v>
+        <v>93200</v>
       </c>
       <c r="E49" s="3">
-        <v>83700</v>
+        <v>85000</v>
       </c>
       <c r="F49" s="3">
-        <v>79000</v>
+        <v>80300</v>
       </c>
       <c r="G49" s="3">
-        <v>72600</v>
+        <v>73800</v>
       </c>
       <c r="H49" s="3">
-        <v>63900</v>
+        <v>64900</v>
       </c>
       <c r="I49" s="3">
-        <v>51200</v>
+        <v>52000</v>
       </c>
       <c r="J49" s="3">
-        <v>83400</v>
+        <v>84700</v>
       </c>
       <c r="K49" s="3">
         <v>111800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>579400</v>
+        <v>588700</v>
       </c>
       <c r="E52" s="3">
-        <v>479700</v>
+        <v>487400</v>
       </c>
       <c r="F52" s="3">
-        <v>483200</v>
+        <v>490900</v>
       </c>
       <c r="G52" s="3">
-        <v>467900</v>
+        <v>475400</v>
       </c>
       <c r="H52" s="3">
-        <v>417000</v>
+        <v>423700</v>
       </c>
       <c r="I52" s="3">
-        <v>355100</v>
+        <v>360800</v>
       </c>
       <c r="J52" s="3">
-        <v>290000</v>
+        <v>294700</v>
       </c>
       <c r="K52" s="3">
         <v>232500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63222800</v>
+        <v>64234400</v>
       </c>
       <c r="E54" s="3">
-        <v>48996700</v>
+        <v>49780600</v>
       </c>
       <c r="F54" s="3">
-        <v>44755300</v>
+        <v>45471400</v>
       </c>
       <c r="G54" s="3">
-        <v>46258300</v>
+        <v>46998400</v>
       </c>
       <c r="H54" s="3">
-        <v>43317600</v>
+        <v>44010700</v>
       </c>
       <c r="I54" s="3">
-        <v>38167700</v>
+        <v>38778400</v>
       </c>
       <c r="J54" s="3">
-        <v>33771000</v>
+        <v>34311400</v>
       </c>
       <c r="K54" s="3">
         <v>31692700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>247800</v>
+        <v>251800</v>
       </c>
       <c r="E57" s="3">
-        <v>203800</v>
+        <v>207100</v>
       </c>
       <c r="F57" s="3">
-        <v>608400</v>
+        <v>618100</v>
       </c>
       <c r="G57" s="3">
-        <v>360600</v>
+        <v>366400</v>
       </c>
       <c r="H57" s="3">
-        <v>577700</v>
+        <v>586900</v>
       </c>
       <c r="I57" s="3">
-        <v>351600</v>
+        <v>357200</v>
       </c>
       <c r="J57" s="3">
-        <v>345500</v>
+        <v>351000</v>
       </c>
       <c r="K57" s="3">
         <v>364700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="E59" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="F59" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="G59" s="3">
-        <v>39100</v>
+        <v>39700</v>
       </c>
       <c r="H59" s="3">
-        <v>24300</v>
+        <v>24700</v>
       </c>
       <c r="I59" s="3">
         <v>3500</v>
       </c>
       <c r="J59" s="3">
-        <v>64300</v>
+        <v>65300</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18735900</v>
+        <v>19035700</v>
       </c>
       <c r="E61" s="3">
-        <v>13558400</v>
+        <v>13775400</v>
       </c>
       <c r="F61" s="3">
-        <v>11974900</v>
+        <v>12166500</v>
       </c>
       <c r="G61" s="3">
-        <v>11853400</v>
+        <v>12043100</v>
       </c>
       <c r="H61" s="3">
-        <v>9356500</v>
+        <v>9506200</v>
       </c>
       <c r="I61" s="3">
-        <v>9027300</v>
+        <v>9171700</v>
       </c>
       <c r="J61" s="3">
-        <v>8838500</v>
+        <v>8979900</v>
       </c>
       <c r="K61" s="3">
         <v>9159000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>546300</v>
+        <v>555000</v>
       </c>
       <c r="E62" s="3">
-        <v>431700</v>
+        <v>438600</v>
       </c>
       <c r="F62" s="3">
-        <v>417500</v>
+        <v>424200</v>
       </c>
       <c r="G62" s="3">
-        <v>395800</v>
+        <v>402200</v>
       </c>
       <c r="H62" s="3">
-        <v>416300</v>
+        <v>422900</v>
       </c>
       <c r="I62" s="3">
-        <v>397800</v>
+        <v>404100</v>
       </c>
       <c r="J62" s="3">
-        <v>326700</v>
+        <v>331900</v>
       </c>
       <c r="K62" s="3">
         <v>257700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58984300</v>
+        <v>59928000</v>
       </c>
       <c r="E66" s="3">
-        <v>44947300</v>
+        <v>45666400</v>
       </c>
       <c r="F66" s="3">
-        <v>40922600</v>
+        <v>41577400</v>
       </c>
       <c r="G66" s="3">
-        <v>42672400</v>
+        <v>43355200</v>
       </c>
       <c r="H66" s="3">
-        <v>39899300</v>
+        <v>40537600</v>
       </c>
       <c r="I66" s="3">
-        <v>34905300</v>
+        <v>35463800</v>
       </c>
       <c r="J66" s="3">
-        <v>30863900</v>
+        <v>31357800</v>
       </c>
       <c r="K66" s="3">
         <v>28923900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3134500</v>
+        <v>3184700</v>
       </c>
       <c r="E72" s="3">
-        <v>2921700</v>
+        <v>2968400</v>
       </c>
       <c r="F72" s="3">
-        <v>2721500</v>
+        <v>2765000</v>
       </c>
       <c r="G72" s="3">
-        <v>2463500</v>
+        <v>2502900</v>
       </c>
       <c r="H72" s="3">
-        <v>2302600</v>
+        <v>2339500</v>
       </c>
       <c r="I72" s="3">
-        <v>2116200</v>
+        <v>2150100</v>
       </c>
       <c r="J72" s="3">
-        <v>1800400</v>
+        <v>1829200</v>
       </c>
       <c r="K72" s="3">
         <v>1632800</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4238500</v>
+        <v>4306300</v>
       </c>
       <c r="E76" s="3">
-        <v>4049400</v>
+        <v>4114200</v>
       </c>
       <c r="F76" s="3">
-        <v>3832700</v>
+        <v>3894000</v>
       </c>
       <c r="G76" s="3">
-        <v>3585900</v>
+        <v>3643300</v>
       </c>
       <c r="H76" s="3">
-        <v>3418400</v>
+        <v>3473100</v>
       </c>
       <c r="I76" s="3">
-        <v>3262400</v>
+        <v>3314600</v>
       </c>
       <c r="J76" s="3">
-        <v>2907100</v>
+        <v>2953600</v>
       </c>
       <c r="K76" s="3">
         <v>2768800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>684600</v>
+        <v>701200</v>
       </c>
       <c r="E81" s="3">
-        <v>734000</v>
+        <v>751700</v>
       </c>
       <c r="F81" s="3">
-        <v>700400</v>
+        <v>717300</v>
       </c>
       <c r="G81" s="3">
-        <v>585700</v>
+        <v>599900</v>
       </c>
       <c r="H81" s="3">
-        <v>556600</v>
+        <v>570100</v>
       </c>
       <c r="I81" s="3">
-        <v>706700</v>
+        <v>723800</v>
       </c>
       <c r="J81" s="3">
-        <v>548000</v>
+        <v>561200</v>
       </c>
       <c r="K81" s="3">
         <v>456300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>131600</v>
+        <v>134700</v>
       </c>
       <c r="E83" s="3">
-        <v>98300</v>
+        <v>100700</v>
       </c>
       <c r="F83" s="3">
-        <v>96500</v>
+        <v>98800</v>
       </c>
       <c r="G83" s="3">
-        <v>81000</v>
+        <v>83000</v>
       </c>
       <c r="H83" s="3">
-        <v>66500</v>
+        <v>68100</v>
       </c>
       <c r="I83" s="3">
-        <v>54700</v>
+        <v>56000</v>
       </c>
       <c r="J83" s="3">
-        <v>75700</v>
+        <v>77600</v>
       </c>
       <c r="K83" s="3">
         <v>72200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2258100</v>
+        <v>2312800</v>
       </c>
       <c r="E89" s="3">
-        <v>1267900</v>
+        <v>1298600</v>
       </c>
       <c r="F89" s="3">
-        <v>-497500</v>
+        <v>-509500</v>
       </c>
       <c r="G89" s="3">
-        <v>932800</v>
+        <v>955400</v>
       </c>
       <c r="H89" s="3">
-        <v>865800</v>
+        <v>886700</v>
       </c>
       <c r="I89" s="3">
-        <v>361200</v>
+        <v>370000</v>
       </c>
       <c r="J89" s="3">
-        <v>663900</v>
+        <v>680000</v>
       </c>
       <c r="K89" s="3">
         <v>-1477000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-62500</v>
+        <v>-64000</v>
       </c>
       <c r="E91" s="3">
-        <v>-84700</v>
+        <v>-86800</v>
       </c>
       <c r="F91" s="3">
-        <v>-72900</v>
+        <v>-74600</v>
       </c>
       <c r="G91" s="3">
-        <v>-77300</v>
+        <v>-79200</v>
       </c>
       <c r="H91" s="3">
-        <v>-80700</v>
+        <v>-82700</v>
       </c>
       <c r="I91" s="3">
-        <v>-73300</v>
+        <v>-75000</v>
       </c>
       <c r="J91" s="3">
-        <v>-50600</v>
+        <v>-51800</v>
       </c>
       <c r="K91" s="3">
         <v>-47000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-170400</v>
+        <v>-174500</v>
       </c>
       <c r="E94" s="3">
-        <v>-113600</v>
+        <v>-116300</v>
       </c>
       <c r="F94" s="3">
-        <v>-91100</v>
+        <v>-93300</v>
       </c>
       <c r="G94" s="3">
-        <v>-111800</v>
+        <v>-114600</v>
       </c>
       <c r="H94" s="3">
-        <v>-115200</v>
+        <v>-117900</v>
       </c>
       <c r="I94" s="3">
-        <v>-114900</v>
+        <v>-117700</v>
       </c>
       <c r="J94" s="3">
-        <v>37200</v>
+        <v>38100</v>
       </c>
       <c r="K94" s="3">
         <v>-92300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-440400</v>
+        <v>-451000</v>
       </c>
       <c r="E96" s="3">
-        <v>-525300</v>
+        <v>-538000</v>
       </c>
       <c r="F96" s="3">
-        <v>-410000</v>
+        <v>-419900</v>
       </c>
       <c r="G96" s="3">
-        <v>-417500</v>
+        <v>-427600</v>
       </c>
       <c r="H96" s="3">
-        <v>-409400</v>
+        <v>-419400</v>
       </c>
       <c r="I96" s="3">
-        <v>-328800</v>
+        <v>-336700</v>
       </c>
       <c r="J96" s="3">
-        <v>-288600</v>
+        <v>-295600</v>
       </c>
       <c r="K96" s="3">
         <v>-334100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-440400</v>
+        <v>-451000</v>
       </c>
       <c r="E100" s="3">
-        <v>-525300</v>
+        <v>-538000</v>
       </c>
       <c r="F100" s="3">
-        <v>-428800</v>
+        <v>-439100</v>
       </c>
       <c r="G100" s="3">
-        <v>-437500</v>
+        <v>-448000</v>
       </c>
       <c r="H100" s="3">
-        <v>-422300</v>
+        <v>-432600</v>
       </c>
       <c r="I100" s="3">
-        <v>-339800</v>
+        <v>-348000</v>
       </c>
       <c r="J100" s="3">
-        <v>-162400</v>
+        <v>-166300</v>
       </c>
       <c r="K100" s="3">
         <v>-339500</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>157100</v>
+        <v>160900</v>
       </c>
       <c r="E101" s="3">
-        <v>142000</v>
+        <v>145400</v>
       </c>
       <c r="F101" s="3">
-        <v>-38900</v>
+        <v>-39900</v>
       </c>
       <c r="G101" s="3">
-        <v>-186300</v>
+        <v>-190800</v>
       </c>
       <c r="H101" s="3">
-        <v>252300</v>
+        <v>258400</v>
       </c>
       <c r="I101" s="3">
-        <v>43300</v>
+        <v>44300</v>
       </c>
       <c r="J101" s="3">
-        <v>-25700</v>
+        <v>-26300</v>
       </c>
       <c r="K101" s="3">
         <v>-4700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1804400</v>
+        <v>1848100</v>
       </c>
       <c r="E102" s="3">
-        <v>771000</v>
+        <v>789700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1056300</v>
+        <v>-1081900</v>
       </c>
       <c r="G102" s="3">
-        <v>197200</v>
+        <v>202000</v>
       </c>
       <c r="H102" s="3">
-        <v>580500</v>
+        <v>594600</v>
       </c>
       <c r="I102" s="3">
-        <v>-50200</v>
+        <v>-51400</v>
       </c>
       <c r="J102" s="3">
-        <v>513100</v>
+        <v>525500</v>
       </c>
       <c r="K102" s="3">
         <v>-1913500</v>

--- a/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2948000</v>
+        <v>3017600</v>
       </c>
       <c r="E8" s="3">
-        <v>2850300</v>
+        <v>2917600</v>
       </c>
       <c r="F8" s="3">
-        <v>2614200</v>
+        <v>2676000</v>
       </c>
       <c r="G8" s="3">
-        <v>2714000</v>
+        <v>2778200</v>
       </c>
       <c r="H8" s="3">
-        <v>2649200</v>
+        <v>2711800</v>
       </c>
       <c r="I8" s="3">
-        <v>2828300</v>
+        <v>2895100</v>
       </c>
       <c r="J8" s="3">
-        <v>2376400</v>
+        <v>2432600</v>
       </c>
       <c r="K8" s="3">
         <v>2420400</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-134700</v>
+        <v>-137900</v>
       </c>
       <c r="E15" s="3">
-        <v>-100700</v>
+        <v>-103100</v>
       </c>
       <c r="F15" s="3">
-        <v>-98800</v>
+        <v>-101200</v>
       </c>
       <c r="G15" s="3">
-        <v>-83000</v>
+        <v>-85000</v>
       </c>
       <c r="H15" s="3">
-        <v>-68100</v>
+        <v>-69700</v>
       </c>
       <c r="I15" s="3">
-        <v>-56100</v>
+        <v>-57400</v>
       </c>
       <c r="J15" s="3">
-        <v>-77600</v>
+        <v>-79400</v>
       </c>
       <c r="K15" s="3">
         <v>-72200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1682600</v>
+        <v>1722300</v>
       </c>
       <c r="E17" s="3">
-        <v>1466900</v>
+        <v>1501500</v>
       </c>
       <c r="F17" s="3">
-        <v>1309300</v>
+        <v>1340200</v>
       </c>
       <c r="G17" s="3">
-        <v>1522700</v>
+        <v>1558700</v>
       </c>
       <c r="H17" s="3">
-        <v>1580500</v>
+        <v>1617800</v>
       </c>
       <c r="I17" s="3">
-        <v>1606300</v>
+        <v>1644300</v>
       </c>
       <c r="J17" s="3">
-        <v>1471300</v>
+        <v>1506000</v>
       </c>
       <c r="K17" s="3">
         <v>1602400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1265400</v>
+        <v>1295300</v>
       </c>
       <c r="E18" s="3">
-        <v>1383400</v>
+        <v>1416100</v>
       </c>
       <c r="F18" s="3">
-        <v>1304900</v>
+        <v>1335700</v>
       </c>
       <c r="G18" s="3">
-        <v>1191400</v>
+        <v>1219500</v>
       </c>
       <c r="H18" s="3">
-        <v>1068700</v>
+        <v>1094000</v>
       </c>
       <c r="I18" s="3">
-        <v>1222000</v>
+        <v>1250900</v>
       </c>
       <c r="J18" s="3">
-        <v>905200</v>
+        <v>926600</v>
       </c>
       <c r="K18" s="3">
         <v>818000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-373100</v>
+        <v>-381900</v>
       </c>
       <c r="E20" s="3">
-        <v>-415400</v>
+        <v>-425300</v>
       </c>
       <c r="F20" s="3">
-        <v>-389400</v>
+        <v>-398600</v>
       </c>
       <c r="G20" s="3">
-        <v>-452400</v>
+        <v>-463100</v>
       </c>
       <c r="H20" s="3">
-        <v>-398900</v>
+        <v>-408300</v>
       </c>
       <c r="I20" s="3">
-        <v>-425800</v>
+        <v>-435800</v>
       </c>
       <c r="J20" s="3">
-        <v>-221200</v>
+        <v>-226500</v>
       </c>
       <c r="K20" s="3">
         <v>-298900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1027100</v>
+        <v>1052400</v>
       </c>
       <c r="E21" s="3">
-        <v>1068600</v>
+        <v>1094700</v>
       </c>
       <c r="F21" s="3">
-        <v>1014300</v>
+        <v>1039100</v>
       </c>
       <c r="G21" s="3">
-        <v>821900</v>
+        <v>842000</v>
       </c>
       <c r="H21" s="3">
-        <v>737900</v>
+        <v>755900</v>
       </c>
       <c r="I21" s="3">
-        <v>852300</v>
+        <v>872800</v>
       </c>
       <c r="J21" s="3">
-        <v>761500</v>
+        <v>780100</v>
       </c>
       <c r="K21" s="3">
         <v>591800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>892400</v>
+        <v>913400</v>
       </c>
       <c r="E23" s="3">
-        <v>967900</v>
+        <v>990800</v>
       </c>
       <c r="F23" s="3">
-        <v>915500</v>
+        <v>937100</v>
       </c>
       <c r="G23" s="3">
-        <v>738900</v>
+        <v>756400</v>
       </c>
       <c r="H23" s="3">
-        <v>669900</v>
+        <v>685700</v>
       </c>
       <c r="I23" s="3">
-        <v>796200</v>
+        <v>815000</v>
       </c>
       <c r="J23" s="3">
-        <v>683900</v>
+        <v>700100</v>
       </c>
       <c r="K23" s="3">
         <v>519100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>190700</v>
+        <v>195200</v>
       </c>
       <c r="E24" s="3">
-        <v>210700</v>
+        <v>215700</v>
       </c>
       <c r="F24" s="3">
-        <v>182400</v>
+        <v>186700</v>
       </c>
       <c r="G24" s="3">
-        <v>136000</v>
+        <v>139300</v>
       </c>
       <c r="H24" s="3">
-        <v>95600</v>
+        <v>97900</v>
       </c>
       <c r="I24" s="3">
-        <v>64800</v>
+        <v>66400</v>
       </c>
       <c r="J24" s="3">
-        <v>120000</v>
+        <v>122800</v>
       </c>
       <c r="K24" s="3">
         <v>56800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>701600</v>
+        <v>718200</v>
       </c>
       <c r="E26" s="3">
-        <v>757300</v>
+        <v>775100</v>
       </c>
       <c r="F26" s="3">
-        <v>733100</v>
+        <v>750400</v>
       </c>
       <c r="G26" s="3">
-        <v>602900</v>
+        <v>617100</v>
       </c>
       <c r="H26" s="3">
-        <v>574200</v>
+        <v>587800</v>
       </c>
       <c r="I26" s="3">
-        <v>731400</v>
+        <v>748700</v>
       </c>
       <c r="J26" s="3">
-        <v>564000</v>
+        <v>577300</v>
       </c>
       <c r="K26" s="3">
         <v>462200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>699000</v>
+        <v>715500</v>
       </c>
       <c r="E27" s="3">
-        <v>751700</v>
+        <v>769500</v>
       </c>
       <c r="F27" s="3">
-        <v>717300</v>
+        <v>734300</v>
       </c>
       <c r="G27" s="3">
-        <v>599900</v>
+        <v>614100</v>
       </c>
       <c r="H27" s="3">
-        <v>570100</v>
+        <v>583500</v>
       </c>
       <c r="I27" s="3">
-        <v>723800</v>
+        <v>740900</v>
       </c>
       <c r="J27" s="3">
-        <v>561200</v>
+        <v>574500</v>
       </c>
       <c r="K27" s="3">
         <v>456300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>373100</v>
+        <v>381900</v>
       </c>
       <c r="E32" s="3">
-        <v>415400</v>
+        <v>425300</v>
       </c>
       <c r="F32" s="3">
-        <v>389400</v>
+        <v>398600</v>
       </c>
       <c r="G32" s="3">
-        <v>452400</v>
+        <v>463100</v>
       </c>
       <c r="H32" s="3">
-        <v>398900</v>
+        <v>408300</v>
       </c>
       <c r="I32" s="3">
-        <v>425800</v>
+        <v>435800</v>
       </c>
       <c r="J32" s="3">
-        <v>221200</v>
+        <v>226500</v>
       </c>
       <c r="K32" s="3">
         <v>298900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>701200</v>
+        <v>717700</v>
       </c>
       <c r="E33" s="3">
-        <v>751700</v>
+        <v>769500</v>
       </c>
       <c r="F33" s="3">
-        <v>717300</v>
+        <v>734300</v>
       </c>
       <c r="G33" s="3">
-        <v>599900</v>
+        <v>614100</v>
       </c>
       <c r="H33" s="3">
-        <v>570100</v>
+        <v>583500</v>
       </c>
       <c r="I33" s="3">
-        <v>723800</v>
+        <v>740900</v>
       </c>
       <c r="J33" s="3">
-        <v>561200</v>
+        <v>574500</v>
       </c>
       <c r="K33" s="3">
         <v>456300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>701200</v>
+        <v>717700</v>
       </c>
       <c r="E35" s="3">
-        <v>751700</v>
+        <v>769500</v>
       </c>
       <c r="F35" s="3">
-        <v>717300</v>
+        <v>734300</v>
       </c>
       <c r="G35" s="3">
-        <v>599900</v>
+        <v>614100</v>
       </c>
       <c r="H35" s="3">
-        <v>570100</v>
+        <v>583500</v>
       </c>
       <c r="I35" s="3">
-        <v>723800</v>
+        <v>740900</v>
       </c>
       <c r="J35" s="3">
-        <v>561200</v>
+        <v>574500</v>
       </c>
       <c r="K35" s="3">
         <v>456300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3761900</v>
+        <v>3850800</v>
       </c>
       <c r="E41" s="3">
-        <v>2726300</v>
+        <v>2790700</v>
       </c>
       <c r="F41" s="3">
-        <v>2395000</v>
+        <v>2451500</v>
       </c>
       <c r="G41" s="3">
-        <v>2343800</v>
+        <v>2399200</v>
       </c>
       <c r="H41" s="3">
-        <v>1971500</v>
+        <v>2018000</v>
       </c>
       <c r="I41" s="3">
-        <v>2733300</v>
+        <v>2797800</v>
       </c>
       <c r="J41" s="3">
-        <v>2922600</v>
+        <v>2991700</v>
       </c>
       <c r="K41" s="3">
         <v>2382200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11914800</v>
+        <v>12196300</v>
       </c>
       <c r="E42" s="3">
-        <v>4401500</v>
+        <v>4505500</v>
       </c>
       <c r="F42" s="3">
-        <v>3965900</v>
+        <v>4059600</v>
       </c>
       <c r="G42" s="3">
-        <v>5215600</v>
+        <v>5338800</v>
       </c>
       <c r="H42" s="3">
-        <v>6071800</v>
+        <v>6215300</v>
       </c>
       <c r="I42" s="3">
-        <v>4448600</v>
+        <v>4553600</v>
       </c>
       <c r="J42" s="3">
-        <v>2285300</v>
+        <v>2339300</v>
       </c>
       <c r="K42" s="3">
         <v>442000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="E47" s="3">
-        <v>41000</v>
+        <v>42000</v>
       </c>
       <c r="F47" s="3">
-        <v>35000</v>
+        <v>35900</v>
       </c>
       <c r="G47" s="3">
-        <v>30200</v>
+        <v>30900</v>
       </c>
       <c r="H47" s="3">
-        <v>25800</v>
+        <v>26400</v>
       </c>
       <c r="I47" s="3">
-        <v>22800</v>
+        <v>23300</v>
       </c>
       <c r="J47" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="K47" s="3">
         <v>9700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>518600</v>
+        <v>530800</v>
       </c>
       <c r="E48" s="3">
-        <v>322100</v>
+        <v>329700</v>
       </c>
       <c r="F48" s="3">
-        <v>308000</v>
+        <v>315300</v>
       </c>
       <c r="G48" s="3">
-        <v>326900</v>
+        <v>334600</v>
       </c>
       <c r="H48" s="3">
-        <v>305600</v>
+        <v>312900</v>
       </c>
       <c r="I48" s="3">
-        <v>268700</v>
+        <v>275000</v>
       </c>
       <c r="J48" s="3">
-        <v>228900</v>
+        <v>234300</v>
       </c>
       <c r="K48" s="3">
         <v>207600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>93200</v>
+        <v>95400</v>
       </c>
       <c r="E49" s="3">
-        <v>85000</v>
+        <v>87000</v>
       </c>
       <c r="F49" s="3">
-        <v>80300</v>
+        <v>82200</v>
       </c>
       <c r="G49" s="3">
-        <v>73800</v>
+        <v>75500</v>
       </c>
       <c r="H49" s="3">
-        <v>64900</v>
+        <v>66500</v>
       </c>
       <c r="I49" s="3">
-        <v>52000</v>
+        <v>53300</v>
       </c>
       <c r="J49" s="3">
-        <v>84700</v>
+        <v>86700</v>
       </c>
       <c r="K49" s="3">
         <v>111800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>588700</v>
+        <v>602600</v>
       </c>
       <c r="E52" s="3">
-        <v>487400</v>
+        <v>498900</v>
       </c>
       <c r="F52" s="3">
-        <v>490900</v>
+        <v>502500</v>
       </c>
       <c r="G52" s="3">
-        <v>475400</v>
+        <v>486600</v>
       </c>
       <c r="H52" s="3">
-        <v>423700</v>
+        <v>433700</v>
       </c>
       <c r="I52" s="3">
-        <v>360800</v>
+        <v>369300</v>
       </c>
       <c r="J52" s="3">
-        <v>294700</v>
+        <v>301600</v>
       </c>
       <c r="K52" s="3">
         <v>232500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64234400</v>
+        <v>65751700</v>
       </c>
       <c r="E54" s="3">
-        <v>49780600</v>
+        <v>50956600</v>
       </c>
       <c r="F54" s="3">
-        <v>45471400</v>
+        <v>46545600</v>
       </c>
       <c r="G54" s="3">
-        <v>46998400</v>
+        <v>48108600</v>
       </c>
       <c r="H54" s="3">
-        <v>44010700</v>
+        <v>45050300</v>
       </c>
       <c r="I54" s="3">
-        <v>38778400</v>
+        <v>39694400</v>
       </c>
       <c r="J54" s="3">
-        <v>34311400</v>
+        <v>35121900</v>
       </c>
       <c r="K54" s="3">
         <v>31692700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>251800</v>
+        <v>257700</v>
       </c>
       <c r="E57" s="3">
-        <v>207100</v>
+        <v>212000</v>
       </c>
       <c r="F57" s="3">
-        <v>618100</v>
+        <v>632700</v>
       </c>
       <c r="G57" s="3">
-        <v>366400</v>
+        <v>375000</v>
       </c>
       <c r="H57" s="3">
-        <v>586900</v>
+        <v>600800</v>
       </c>
       <c r="I57" s="3">
-        <v>357200</v>
+        <v>365600</v>
       </c>
       <c r="J57" s="3">
-        <v>351000</v>
+        <v>359300</v>
       </c>
       <c r="K57" s="3">
         <v>364700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="E59" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="F59" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="G59" s="3">
-        <v>39700</v>
+        <v>40600</v>
       </c>
       <c r="H59" s="3">
-        <v>24700</v>
+        <v>25300</v>
       </c>
       <c r="I59" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J59" s="3">
-        <v>65300</v>
+        <v>66800</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19035700</v>
+        <v>16127000</v>
       </c>
       <c r="E61" s="3">
-        <v>13775400</v>
+        <v>13155000</v>
       </c>
       <c r="F61" s="3">
-        <v>12166500</v>
+        <v>11744300</v>
       </c>
       <c r="G61" s="3">
-        <v>12043100</v>
+        <v>12327600</v>
       </c>
       <c r="H61" s="3">
-        <v>9506200</v>
+        <v>9730800</v>
       </c>
       <c r="I61" s="3">
-        <v>9171700</v>
+        <v>9388400</v>
       </c>
       <c r="J61" s="3">
-        <v>8979900</v>
+        <v>9192100</v>
       </c>
       <c r="K61" s="3">
         <v>9159000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>555000</v>
+        <v>568100</v>
       </c>
       <c r="E62" s="3">
-        <v>438600</v>
+        <v>448900</v>
       </c>
       <c r="F62" s="3">
-        <v>424200</v>
+        <v>434200</v>
       </c>
       <c r="G62" s="3">
-        <v>402200</v>
+        <v>411700</v>
       </c>
       <c r="H62" s="3">
-        <v>422900</v>
+        <v>432900</v>
       </c>
       <c r="I62" s="3">
-        <v>404100</v>
+        <v>413700</v>
       </c>
       <c r="J62" s="3">
-        <v>331900</v>
+        <v>339700</v>
       </c>
       <c r="K62" s="3">
         <v>257700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59928000</v>
+        <v>61343600</v>
       </c>
       <c r="E66" s="3">
-        <v>45666400</v>
+        <v>46745200</v>
       </c>
       <c r="F66" s="3">
-        <v>41577400</v>
+        <v>42559500</v>
       </c>
       <c r="G66" s="3">
-        <v>43355200</v>
+        <v>44379300</v>
       </c>
       <c r="H66" s="3">
-        <v>40537600</v>
+        <v>41495200</v>
       </c>
       <c r="I66" s="3">
-        <v>35463800</v>
+        <v>36301600</v>
       </c>
       <c r="J66" s="3">
-        <v>31357800</v>
+        <v>32098500</v>
       </c>
       <c r="K66" s="3">
         <v>28923900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3184700</v>
+        <v>3259900</v>
       </c>
       <c r="E72" s="3">
-        <v>2968400</v>
+        <v>3038600</v>
       </c>
       <c r="F72" s="3">
-        <v>2765000</v>
+        <v>2830300</v>
       </c>
       <c r="G72" s="3">
-        <v>2502900</v>
+        <v>2562000</v>
       </c>
       <c r="H72" s="3">
-        <v>2339500</v>
+        <v>2394700</v>
       </c>
       <c r="I72" s="3">
-        <v>2150100</v>
+        <v>2200900</v>
       </c>
       <c r="J72" s="3">
-        <v>1829200</v>
+        <v>1872400</v>
       </c>
       <c r="K72" s="3">
         <v>1632800</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4306300</v>
+        <v>4408100</v>
       </c>
       <c r="E76" s="3">
-        <v>4114200</v>
+        <v>4211400</v>
       </c>
       <c r="F76" s="3">
-        <v>3894000</v>
+        <v>3986000</v>
       </c>
       <c r="G76" s="3">
-        <v>3643300</v>
+        <v>3729300</v>
       </c>
       <c r="H76" s="3">
-        <v>3473100</v>
+        <v>3555100</v>
       </c>
       <c r="I76" s="3">
-        <v>3314600</v>
+        <v>3392900</v>
       </c>
       <c r="J76" s="3">
-        <v>2953600</v>
+        <v>3023400</v>
       </c>
       <c r="K76" s="3">
         <v>2768800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>701200</v>
+        <v>717700</v>
       </c>
       <c r="E81" s="3">
-        <v>751700</v>
+        <v>769500</v>
       </c>
       <c r="F81" s="3">
-        <v>717300</v>
+        <v>734300</v>
       </c>
       <c r="G81" s="3">
-        <v>599900</v>
+        <v>614100</v>
       </c>
       <c r="H81" s="3">
-        <v>570100</v>
+        <v>583500</v>
       </c>
       <c r="I81" s="3">
-        <v>723800</v>
+        <v>740900</v>
       </c>
       <c r="J81" s="3">
-        <v>561200</v>
+        <v>574500</v>
       </c>
       <c r="K81" s="3">
         <v>456300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>134700</v>
+        <v>137900</v>
       </c>
       <c r="E83" s="3">
-        <v>100700</v>
+        <v>103100</v>
       </c>
       <c r="F83" s="3">
-        <v>98800</v>
+        <v>101200</v>
       </c>
       <c r="G83" s="3">
-        <v>83000</v>
+        <v>85000</v>
       </c>
       <c r="H83" s="3">
-        <v>68100</v>
+        <v>69700</v>
       </c>
       <c r="I83" s="3">
-        <v>56000</v>
+        <v>57400</v>
       </c>
       <c r="J83" s="3">
-        <v>77600</v>
+        <v>79400</v>
       </c>
       <c r="K83" s="3">
         <v>72200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2312800</v>
+        <v>2367400</v>
       </c>
       <c r="E89" s="3">
-        <v>1298600</v>
+        <v>1329300</v>
       </c>
       <c r="F89" s="3">
-        <v>-509500</v>
+        <v>-521600</v>
       </c>
       <c r="G89" s="3">
-        <v>955400</v>
+        <v>978000</v>
       </c>
       <c r="H89" s="3">
-        <v>886700</v>
+        <v>907700</v>
       </c>
       <c r="I89" s="3">
-        <v>370000</v>
+        <v>378700</v>
       </c>
       <c r="J89" s="3">
-        <v>680000</v>
+        <v>696000</v>
       </c>
       <c r="K89" s="3">
         <v>-1477000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-64000</v>
+        <v>-65500</v>
       </c>
       <c r="E91" s="3">
-        <v>-86800</v>
+        <v>-88800</v>
       </c>
       <c r="F91" s="3">
-        <v>-74600</v>
+        <v>-76400</v>
       </c>
       <c r="G91" s="3">
-        <v>-79200</v>
+        <v>-81100</v>
       </c>
       <c r="H91" s="3">
-        <v>-82700</v>
+        <v>-84600</v>
       </c>
       <c r="I91" s="3">
-        <v>-75000</v>
+        <v>-76800</v>
       </c>
       <c r="J91" s="3">
-        <v>-51800</v>
+        <v>-53000</v>
       </c>
       <c r="K91" s="3">
         <v>-47000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-174500</v>
+        <v>-178600</v>
       </c>
       <c r="E94" s="3">
-        <v>-116300</v>
+        <v>-119100</v>
       </c>
       <c r="F94" s="3">
-        <v>-93300</v>
+        <v>-95500</v>
       </c>
       <c r="G94" s="3">
-        <v>-114600</v>
+        <v>-117300</v>
       </c>
       <c r="H94" s="3">
-        <v>-117900</v>
+        <v>-120700</v>
       </c>
       <c r="I94" s="3">
-        <v>-117700</v>
+        <v>-120500</v>
       </c>
       <c r="J94" s="3">
-        <v>38100</v>
+        <v>39000</v>
       </c>
       <c r="K94" s="3">
         <v>-92300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-451000</v>
+        <v>-461700</v>
       </c>
       <c r="E96" s="3">
-        <v>-538000</v>
+        <v>-550700</v>
       </c>
       <c r="F96" s="3">
-        <v>-419900</v>
+        <v>-429800</v>
       </c>
       <c r="G96" s="3">
-        <v>-427600</v>
+        <v>-437700</v>
       </c>
       <c r="H96" s="3">
-        <v>-419400</v>
+        <v>-429300</v>
       </c>
       <c r="I96" s="3">
-        <v>-336700</v>
+        <v>-344700</v>
       </c>
       <c r="J96" s="3">
-        <v>-295600</v>
+        <v>-302600</v>
       </c>
       <c r="K96" s="3">
         <v>-334100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-451000</v>
+        <v>-461700</v>
       </c>
       <c r="E100" s="3">
-        <v>-538000</v>
+        <v>-550700</v>
       </c>
       <c r="F100" s="3">
-        <v>-439100</v>
+        <v>-449500</v>
       </c>
       <c r="G100" s="3">
-        <v>-448000</v>
+        <v>-458600</v>
       </c>
       <c r="H100" s="3">
-        <v>-432600</v>
+        <v>-442800</v>
       </c>
       <c r="I100" s="3">
-        <v>-348000</v>
+        <v>-356300</v>
       </c>
       <c r="J100" s="3">
-        <v>-166300</v>
+        <v>-170200</v>
       </c>
       <c r="K100" s="3">
         <v>-339500</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>160900</v>
+        <v>164700</v>
       </c>
       <c r="E101" s="3">
-        <v>145400</v>
+        <v>148800</v>
       </c>
       <c r="F101" s="3">
-        <v>-39900</v>
+        <v>-40800</v>
       </c>
       <c r="G101" s="3">
-        <v>-190800</v>
+        <v>-195300</v>
       </c>
       <c r="H101" s="3">
-        <v>258400</v>
+        <v>264500</v>
       </c>
       <c r="I101" s="3">
-        <v>44300</v>
+        <v>45400</v>
       </c>
       <c r="J101" s="3">
-        <v>-26300</v>
+        <v>-26900</v>
       </c>
       <c r="K101" s="3">
         <v>-4700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1848100</v>
+        <v>1891700</v>
       </c>
       <c r="E102" s="3">
-        <v>789700</v>
+        <v>808400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1081900</v>
+        <v>-1107400</v>
       </c>
       <c r="G102" s="3">
-        <v>202000</v>
+        <v>206700</v>
       </c>
       <c r="H102" s="3">
-        <v>594600</v>
+        <v>608600</v>
       </c>
       <c r="I102" s="3">
-        <v>-51400</v>
+        <v>-52700</v>
       </c>
       <c r="J102" s="3">
-        <v>525500</v>
+        <v>537900</v>
       </c>
       <c r="K102" s="3">
         <v>-1913500</v>

--- a/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>BSAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3017600</v>
+        <v>3080600</v>
       </c>
       <c r="E8" s="3">
-        <v>2917600</v>
+        <v>3203300</v>
       </c>
       <c r="F8" s="3">
-        <v>2676000</v>
+        <v>3097200</v>
       </c>
       <c r="G8" s="3">
-        <v>2778200</v>
+        <v>2840700</v>
       </c>
       <c r="H8" s="3">
-        <v>2711800</v>
+        <v>2949100</v>
       </c>
       <c r="I8" s="3">
-        <v>2895100</v>
+        <v>2878700</v>
       </c>
       <c r="J8" s="3">
+        <v>3073300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2432600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2420400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2600000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-137900</v>
+        <v>-151000</v>
       </c>
       <c r="E15" s="3">
-        <v>-103100</v>
+        <v>-146400</v>
       </c>
       <c r="F15" s="3">
-        <v>-101200</v>
+        <v>-109400</v>
       </c>
       <c r="G15" s="3">
-        <v>-85000</v>
+        <v>-107400</v>
       </c>
       <c r="H15" s="3">
-        <v>-69700</v>
+        <v>-90200</v>
       </c>
       <c r="I15" s="3">
-        <v>-57400</v>
+        <v>-74000</v>
       </c>
       <c r="J15" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-79400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-72200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-78600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1722300</v>
+        <v>1586400</v>
       </c>
       <c r="E17" s="3">
-        <v>1501500</v>
+        <v>1828300</v>
       </c>
       <c r="F17" s="3">
-        <v>1340200</v>
+        <v>1593900</v>
       </c>
       <c r="G17" s="3">
-        <v>1558700</v>
+        <v>1422700</v>
       </c>
       <c r="H17" s="3">
-        <v>1617800</v>
+        <v>1654600</v>
       </c>
       <c r="I17" s="3">
-        <v>1644300</v>
+        <v>1717400</v>
       </c>
       <c r="J17" s="3">
+        <v>1745400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1506000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1602400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1635500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1295300</v>
+        <v>1494200</v>
       </c>
       <c r="E18" s="3">
-        <v>1416100</v>
+        <v>1375000</v>
       </c>
       <c r="F18" s="3">
-        <v>1335700</v>
+        <v>1503200</v>
       </c>
       <c r="G18" s="3">
-        <v>1219500</v>
+        <v>1417900</v>
       </c>
       <c r="H18" s="3">
-        <v>1094000</v>
+        <v>1294600</v>
       </c>
       <c r="I18" s="3">
-        <v>1250900</v>
+        <v>1161300</v>
       </c>
       <c r="J18" s="3">
+        <v>1327800</v>
+      </c>
+      <c r="K18" s="3">
         <v>926600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>818000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>964600</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-381900</v>
+        <v>-592100</v>
       </c>
       <c r="E20" s="3">
-        <v>-425300</v>
+        <v>-405400</v>
       </c>
       <c r="F20" s="3">
-        <v>-398600</v>
+        <v>-451400</v>
       </c>
       <c r="G20" s="3">
-        <v>-463100</v>
+        <v>-423100</v>
       </c>
       <c r="H20" s="3">
-        <v>-408300</v>
+        <v>-491600</v>
       </c>
       <c r="I20" s="3">
-        <v>-435800</v>
+        <v>-433400</v>
       </c>
       <c r="J20" s="3">
+        <v>-462700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-226500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-298900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-253300</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1052400</v>
+        <v>1052000</v>
       </c>
       <c r="E21" s="3">
-        <v>1094700</v>
+        <v>1115000</v>
       </c>
       <c r="F21" s="3">
-        <v>1039100</v>
+        <v>1160400</v>
       </c>
       <c r="G21" s="3">
-        <v>842000</v>
+        <v>1101400</v>
       </c>
       <c r="H21" s="3">
-        <v>755900</v>
+        <v>892500</v>
       </c>
       <c r="I21" s="3">
-        <v>872800</v>
+        <v>801300</v>
       </c>
       <c r="J21" s="3">
+        <v>925600</v>
+      </c>
+      <c r="K21" s="3">
         <v>780100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>591800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>789900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>913400</v>
+        <v>902100</v>
       </c>
       <c r="E23" s="3">
-        <v>990800</v>
+        <v>969700</v>
       </c>
       <c r="F23" s="3">
-        <v>937100</v>
+        <v>1051800</v>
       </c>
       <c r="G23" s="3">
-        <v>756400</v>
+        <v>994800</v>
       </c>
       <c r="H23" s="3">
-        <v>685700</v>
+        <v>802900</v>
       </c>
       <c r="I23" s="3">
-        <v>815000</v>
+        <v>727900</v>
       </c>
       <c r="J23" s="3">
+        <v>865200</v>
+      </c>
+      <c r="K23" s="3">
         <v>700100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>519100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>711300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>195200</v>
+        <v>180900</v>
       </c>
       <c r="E24" s="3">
-        <v>215700</v>
+        <v>207200</v>
       </c>
       <c r="F24" s="3">
-        <v>186700</v>
+        <v>228900</v>
       </c>
       <c r="G24" s="3">
-        <v>139300</v>
+        <v>198200</v>
       </c>
       <c r="H24" s="3">
-        <v>97900</v>
+        <v>147800</v>
       </c>
       <c r="I24" s="3">
-        <v>66400</v>
+        <v>103900</v>
       </c>
       <c r="J24" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K24" s="3">
         <v>122800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>56800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>113500</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>718200</v>
+        <v>721100</v>
       </c>
       <c r="E26" s="3">
-        <v>775100</v>
+        <v>762400</v>
       </c>
       <c r="F26" s="3">
-        <v>750400</v>
+        <v>822800</v>
       </c>
       <c r="G26" s="3">
-        <v>617100</v>
+        <v>796600</v>
       </c>
       <c r="H26" s="3">
-        <v>587800</v>
+        <v>655100</v>
       </c>
       <c r="I26" s="3">
-        <v>748700</v>
+        <v>624000</v>
       </c>
       <c r="J26" s="3">
+        <v>794700</v>
+      </c>
+      <c r="K26" s="3">
         <v>577300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>462200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>597800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>715500</v>
+        <v>714100</v>
       </c>
       <c r="E27" s="3">
-        <v>769500</v>
+        <v>759500</v>
       </c>
       <c r="F27" s="3">
-        <v>734300</v>
+        <v>816800</v>
       </c>
       <c r="G27" s="3">
-        <v>614100</v>
+        <v>779400</v>
       </c>
       <c r="H27" s="3">
-        <v>583500</v>
+        <v>651800</v>
       </c>
       <c r="I27" s="3">
-        <v>740900</v>
+        <v>619500</v>
       </c>
       <c r="J27" s="3">
+        <v>786500</v>
+      </c>
+      <c r="K27" s="3">
         <v>574500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>456300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>590500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,17 +1403,20 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>2200</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2300</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1373,15 +1433,18 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>381900</v>
+        <v>592100</v>
       </c>
       <c r="E32" s="3">
-        <v>425300</v>
+        <v>405400</v>
       </c>
       <c r="F32" s="3">
-        <v>398600</v>
+        <v>451400</v>
       </c>
       <c r="G32" s="3">
-        <v>463100</v>
+        <v>423100</v>
       </c>
       <c r="H32" s="3">
-        <v>408300</v>
+        <v>491600</v>
       </c>
       <c r="I32" s="3">
-        <v>435800</v>
+        <v>433400</v>
       </c>
       <c r="J32" s="3">
+        <v>462700</v>
+      </c>
+      <c r="K32" s="3">
         <v>226500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>298900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>253300</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>717700</v>
+        <v>714100</v>
       </c>
       <c r="E33" s="3">
-        <v>769500</v>
+        <v>761900</v>
       </c>
       <c r="F33" s="3">
-        <v>734300</v>
+        <v>816800</v>
       </c>
       <c r="G33" s="3">
-        <v>614100</v>
+        <v>779400</v>
       </c>
       <c r="H33" s="3">
-        <v>583500</v>
+        <v>651800</v>
       </c>
       <c r="I33" s="3">
-        <v>740900</v>
+        <v>619500</v>
       </c>
       <c r="J33" s="3">
+        <v>786500</v>
+      </c>
+      <c r="K33" s="3">
         <v>574500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>456300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>590500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>717700</v>
+        <v>714100</v>
       </c>
       <c r="E35" s="3">
-        <v>769500</v>
+        <v>761900</v>
       </c>
       <c r="F35" s="3">
-        <v>734300</v>
+        <v>816800</v>
       </c>
       <c r="G35" s="3">
-        <v>614100</v>
+        <v>779400</v>
       </c>
       <c r="H35" s="3">
-        <v>583500</v>
+        <v>651800</v>
       </c>
       <c r="I35" s="3">
-        <v>740900</v>
+        <v>619500</v>
       </c>
       <c r="J35" s="3">
+        <v>786500</v>
+      </c>
+      <c r="K35" s="3">
         <v>574500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>456300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>590500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3850800</v>
+        <v>3381900</v>
       </c>
       <c r="E41" s="3">
-        <v>2790700</v>
+        <v>4087800</v>
       </c>
       <c r="F41" s="3">
-        <v>2451500</v>
+        <v>2962400</v>
       </c>
       <c r="G41" s="3">
-        <v>2399200</v>
+        <v>2602400</v>
       </c>
       <c r="H41" s="3">
-        <v>2018000</v>
+        <v>2546800</v>
       </c>
       <c r="I41" s="3">
-        <v>2797800</v>
+        <v>2142200</v>
       </c>
       <c r="J41" s="3">
+        <v>2970000</v>
+      </c>
+      <c r="K41" s="3">
         <v>2991700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2382200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4642000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12196300</v>
+        <v>13787700</v>
       </c>
       <c r="E42" s="3">
-        <v>4505500</v>
+        <v>12946800</v>
       </c>
       <c r="F42" s="3">
-        <v>4059600</v>
+        <v>4782700</v>
       </c>
       <c r="G42" s="3">
-        <v>5338800</v>
+        <v>4309400</v>
       </c>
       <c r="H42" s="3">
-        <v>6215300</v>
+        <v>5667300</v>
       </c>
       <c r="I42" s="3">
-        <v>4553600</v>
+        <v>6597700</v>
       </c>
       <c r="J42" s="3">
+        <v>4833900</v>
+      </c>
+      <c r="K42" s="3">
         <v>2339300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>442000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>621400</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1944,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13600</v>
+        <v>14900</v>
       </c>
       <c r="E47" s="3">
-        <v>42000</v>
+        <v>14400</v>
       </c>
       <c r="F47" s="3">
-        <v>35900</v>
+        <v>44600</v>
       </c>
       <c r="G47" s="3">
-        <v>30900</v>
+        <v>38100</v>
       </c>
       <c r="H47" s="3">
-        <v>26400</v>
+        <v>32800</v>
       </c>
       <c r="I47" s="3">
-        <v>23300</v>
+        <v>28000</v>
       </c>
       <c r="J47" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K47" s="3">
         <v>12600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12800</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>530800</v>
+        <v>536600</v>
       </c>
       <c r="E48" s="3">
-        <v>329700</v>
+        <v>563500</v>
       </c>
       <c r="F48" s="3">
-        <v>315300</v>
+        <v>349900</v>
       </c>
       <c r="G48" s="3">
-        <v>334600</v>
+        <v>334700</v>
       </c>
       <c r="H48" s="3">
-        <v>312900</v>
+        <v>355200</v>
       </c>
       <c r="I48" s="3">
-        <v>275000</v>
+        <v>332100</v>
       </c>
       <c r="J48" s="3">
+        <v>292000</v>
+      </c>
+      <c r="K48" s="3">
         <v>234300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>207600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>225000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>95400</v>
+        <v>113900</v>
       </c>
       <c r="E49" s="3">
-        <v>87000</v>
+        <v>101300</v>
       </c>
       <c r="F49" s="3">
-        <v>82200</v>
+        <v>92400</v>
       </c>
       <c r="G49" s="3">
-        <v>75500</v>
+        <v>87200</v>
       </c>
       <c r="H49" s="3">
-        <v>66500</v>
+        <v>80200</v>
       </c>
       <c r="I49" s="3">
-        <v>53300</v>
+        <v>70600</v>
       </c>
       <c r="J49" s="3">
+        <v>56600</v>
+      </c>
+      <c r="K49" s="3">
         <v>86700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>111800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>118700</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>602600</v>
+        <v>773900</v>
       </c>
       <c r="E52" s="3">
-        <v>498900</v>
+        <v>639700</v>
       </c>
       <c r="F52" s="3">
-        <v>502500</v>
+        <v>529600</v>
       </c>
       <c r="G52" s="3">
-        <v>486600</v>
+        <v>533400</v>
       </c>
       <c r="H52" s="3">
-        <v>433700</v>
+        <v>516600</v>
       </c>
       <c r="I52" s="3">
-        <v>369300</v>
+        <v>460400</v>
       </c>
       <c r="J52" s="3">
+        <v>392000</v>
+      </c>
+      <c r="K52" s="3">
         <v>301600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>232500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>65751700</v>
+        <v>76971000</v>
       </c>
       <c r="E54" s="3">
-        <v>50956600</v>
+        <v>69798000</v>
       </c>
       <c r="F54" s="3">
-        <v>46545600</v>
+        <v>54092400</v>
       </c>
       <c r="G54" s="3">
-        <v>48108600</v>
+        <v>49409900</v>
       </c>
       <c r="H54" s="3">
-        <v>45050300</v>
+        <v>51069200</v>
       </c>
       <c r="I54" s="3">
-        <v>39694400</v>
+        <v>47822700</v>
       </c>
       <c r="J54" s="3">
+        <v>42137200</v>
+      </c>
+      <c r="K54" s="3">
         <v>35121900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31692700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36263400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,41 +2267,45 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>257700</v>
+        <v>499100</v>
       </c>
       <c r="E57" s="3">
-        <v>212000</v>
+        <v>273600</v>
       </c>
       <c r="F57" s="3">
-        <v>632700</v>
+        <v>225000</v>
       </c>
       <c r="G57" s="3">
-        <v>375000</v>
+        <v>671700</v>
       </c>
       <c r="H57" s="3">
-        <v>600800</v>
+        <v>398100</v>
       </c>
       <c r="I57" s="3">
-        <v>365600</v>
+        <v>637800</v>
       </c>
       <c r="J57" s="3">
+        <v>388100</v>
+      </c>
+      <c r="K57" s="3">
         <v>359300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>364700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>131500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2203,42 +2336,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10600</v>
+        <v>37400</v>
       </c>
       <c r="E59" s="3">
-        <v>13100</v>
+        <v>11200</v>
       </c>
       <c r="F59" s="3">
-        <v>10800</v>
+        <v>13900</v>
       </c>
       <c r="G59" s="3">
-        <v>40600</v>
+        <v>11500</v>
       </c>
       <c r="H59" s="3">
-        <v>25300</v>
+        <v>43100</v>
       </c>
       <c r="I59" s="3">
-        <v>3600</v>
+        <v>26800</v>
       </c>
       <c r="J59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K59" s="3">
         <v>66800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16127000</v>
+        <v>20516000</v>
       </c>
       <c r="E61" s="3">
-        <v>13155000</v>
+        <v>17119400</v>
       </c>
       <c r="F61" s="3">
-        <v>11744300</v>
+        <v>13964600</v>
       </c>
       <c r="G61" s="3">
-        <v>12327600</v>
+        <v>12467000</v>
       </c>
       <c r="H61" s="3">
-        <v>9730800</v>
+        <v>13086200</v>
       </c>
       <c r="I61" s="3">
-        <v>9388400</v>
+        <v>10329600</v>
       </c>
       <c r="J61" s="3">
+        <v>9966100</v>
+      </c>
+      <c r="K61" s="3">
         <v>9192100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9159000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11518500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>568100</v>
+        <v>807600</v>
       </c>
       <c r="E62" s="3">
-        <v>448900</v>
+        <v>603100</v>
       </c>
       <c r="F62" s="3">
-        <v>434200</v>
+        <v>476600</v>
       </c>
       <c r="G62" s="3">
-        <v>411700</v>
+        <v>460900</v>
       </c>
       <c r="H62" s="3">
-        <v>432900</v>
+        <v>437000</v>
       </c>
       <c r="I62" s="3">
-        <v>413700</v>
+        <v>459600</v>
       </c>
       <c r="J62" s="3">
+        <v>439100</v>
+      </c>
+      <c r="K62" s="3">
         <v>339700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>257700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>283500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>61343600</v>
+        <v>72047300</v>
       </c>
       <c r="E66" s="3">
-        <v>46745200</v>
+        <v>65118600</v>
       </c>
       <c r="F66" s="3">
-        <v>42559500</v>
+        <v>49621800</v>
       </c>
       <c r="G66" s="3">
-        <v>44379300</v>
+        <v>45178600</v>
       </c>
       <c r="H66" s="3">
-        <v>41495200</v>
+        <v>47110400</v>
       </c>
       <c r="I66" s="3">
-        <v>36301600</v>
+        <v>44048800</v>
       </c>
       <c r="J66" s="3">
+        <v>38535500</v>
+      </c>
+      <c r="K66" s="3">
         <v>32098500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28923900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33234200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3259900</v>
+        <v>3731800</v>
       </c>
       <c r="E72" s="3">
-        <v>3038600</v>
+        <v>3460500</v>
       </c>
       <c r="F72" s="3">
-        <v>2830300</v>
+        <v>3225500</v>
       </c>
       <c r="G72" s="3">
-        <v>2562000</v>
+        <v>3004500</v>
       </c>
       <c r="H72" s="3">
-        <v>2394700</v>
+        <v>2719700</v>
       </c>
       <c r="I72" s="3">
-        <v>2200900</v>
+        <v>2542100</v>
       </c>
       <c r="J72" s="3">
+        <v>2336300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1872400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1632800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1714900</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4408100</v>
+        <v>4923700</v>
       </c>
       <c r="E76" s="3">
-        <v>4211400</v>
+        <v>4679300</v>
       </c>
       <c r="F76" s="3">
-        <v>3986000</v>
+        <v>4470600</v>
       </c>
       <c r="G76" s="3">
-        <v>3729300</v>
+        <v>4231300</v>
       </c>
       <c r="H76" s="3">
-        <v>3555100</v>
+        <v>3958800</v>
       </c>
       <c r="I76" s="3">
-        <v>3392900</v>
+        <v>3773900</v>
       </c>
       <c r="J76" s="3">
+        <v>3601700</v>
+      </c>
+      <c r="K76" s="3">
         <v>3023400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2768800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3029300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>717700</v>
+        <v>714100</v>
       </c>
       <c r="E81" s="3">
-        <v>769500</v>
+        <v>761900</v>
       </c>
       <c r="F81" s="3">
-        <v>734300</v>
+        <v>816800</v>
       </c>
       <c r="G81" s="3">
-        <v>614100</v>
+        <v>779400</v>
       </c>
       <c r="H81" s="3">
-        <v>583500</v>
+        <v>651800</v>
       </c>
       <c r="I81" s="3">
-        <v>740900</v>
+        <v>619500</v>
       </c>
       <c r="J81" s="3">
+        <v>786500</v>
+      </c>
+      <c r="K81" s="3">
         <v>574500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>456300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>590500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>137900</v>
+        <v>151000</v>
       </c>
       <c r="E83" s="3">
-        <v>103100</v>
+        <v>146400</v>
       </c>
       <c r="F83" s="3">
-        <v>101200</v>
+        <v>109400</v>
       </c>
       <c r="G83" s="3">
-        <v>85000</v>
+        <v>107400</v>
       </c>
       <c r="H83" s="3">
-        <v>69700</v>
+        <v>90200</v>
       </c>
       <c r="I83" s="3">
-        <v>57400</v>
+        <v>74000</v>
       </c>
       <c r="J83" s="3">
+        <v>60900</v>
+      </c>
+      <c r="K83" s="3">
         <v>79400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>72200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>78600</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2367400</v>
+        <v>-1142900</v>
       </c>
       <c r="E89" s="3">
-        <v>1329300</v>
+        <v>2513100</v>
       </c>
       <c r="F89" s="3">
-        <v>-521600</v>
+        <v>1411100</v>
       </c>
       <c r="G89" s="3">
-        <v>978000</v>
+        <v>-553700</v>
       </c>
       <c r="H89" s="3">
-        <v>907700</v>
+        <v>1038200</v>
       </c>
       <c r="I89" s="3">
-        <v>378700</v>
+        <v>963500</v>
       </c>
       <c r="J89" s="3">
+        <v>402000</v>
+      </c>
+      <c r="K89" s="3">
         <v>696000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1477000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2288600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65500</v>
+        <v>-47300</v>
       </c>
       <c r="E91" s="3">
-        <v>-88800</v>
+        <v>-69500</v>
       </c>
       <c r="F91" s="3">
-        <v>-76400</v>
+        <v>-94300</v>
       </c>
       <c r="G91" s="3">
         <v>-81100</v>
       </c>
       <c r="H91" s="3">
-        <v>-84600</v>
+        <v>-86100</v>
       </c>
       <c r="I91" s="3">
-        <v>-76800</v>
+        <v>-89900</v>
       </c>
       <c r="J91" s="3">
+        <v>-81500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-53000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-39200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-178600</v>
+        <v>-85400</v>
       </c>
       <c r="E94" s="3">
-        <v>-119100</v>
+        <v>-189600</v>
       </c>
       <c r="F94" s="3">
-        <v>-95500</v>
+        <v>-126400</v>
       </c>
       <c r="G94" s="3">
-        <v>-117300</v>
+        <v>-101400</v>
       </c>
       <c r="H94" s="3">
-        <v>-120700</v>
+        <v>-124500</v>
       </c>
       <c r="I94" s="3">
-        <v>-120500</v>
+        <v>-128200</v>
       </c>
       <c r="J94" s="3">
+        <v>-127900</v>
+      </c>
+      <c r="K94" s="3">
         <v>39000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-92300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-76600</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-461700</v>
+        <v>-457100</v>
       </c>
       <c r="E96" s="3">
-        <v>-550700</v>
+        <v>-490100</v>
       </c>
       <c r="F96" s="3">
-        <v>-429800</v>
+        <v>-584600</v>
       </c>
       <c r="G96" s="3">
-        <v>-437700</v>
+        <v>-456300</v>
       </c>
       <c r="H96" s="3">
-        <v>-429300</v>
+        <v>-464600</v>
       </c>
       <c r="I96" s="3">
-        <v>-344700</v>
+        <v>-455700</v>
       </c>
       <c r="J96" s="3">
+        <v>-365900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-302600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-334100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-420900</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-461700</v>
+        <v>140900</v>
       </c>
       <c r="E100" s="3">
-        <v>-550700</v>
+        <v>-490100</v>
       </c>
       <c r="F100" s="3">
-        <v>-449500</v>
+        <v>-584600</v>
       </c>
       <c r="G100" s="3">
-        <v>-458600</v>
+        <v>-477200</v>
       </c>
       <c r="H100" s="3">
-        <v>-442800</v>
+        <v>-486900</v>
       </c>
       <c r="I100" s="3">
-        <v>-356300</v>
+        <v>-470000</v>
       </c>
       <c r="J100" s="3">
+        <v>-378200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-170200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-339500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-425400</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>164700</v>
+        <v>-39600</v>
       </c>
       <c r="E101" s="3">
-        <v>148800</v>
+        <v>174800</v>
       </c>
       <c r="F101" s="3">
-        <v>-40800</v>
+        <v>158000</v>
       </c>
       <c r="G101" s="3">
-        <v>-195300</v>
+        <v>-43300</v>
       </c>
       <c r="H101" s="3">
-        <v>264500</v>
+        <v>-207400</v>
       </c>
       <c r="I101" s="3">
-        <v>45400</v>
+        <v>280700</v>
       </c>
       <c r="J101" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-26900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-104600</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1891700</v>
+        <v>-1127100</v>
       </c>
       <c r="E102" s="3">
-        <v>808400</v>
+        <v>2008100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1107400</v>
+        <v>858100</v>
       </c>
       <c r="G102" s="3">
-        <v>206700</v>
+        <v>-1175600</v>
       </c>
       <c r="H102" s="3">
-        <v>608600</v>
+        <v>219500</v>
       </c>
       <c r="I102" s="3">
-        <v>-52700</v>
+        <v>646100</v>
       </c>
       <c r="J102" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="K102" s="3">
         <v>537900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1913500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1682000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3080600</v>
+        <v>3036000</v>
       </c>
       <c r="E8" s="3">
-        <v>3203300</v>
+        <v>3156900</v>
       </c>
       <c r="F8" s="3">
-        <v>3097200</v>
+        <v>3052300</v>
       </c>
       <c r="G8" s="3">
-        <v>2840700</v>
+        <v>2799500</v>
       </c>
       <c r="H8" s="3">
-        <v>2949100</v>
+        <v>2906400</v>
       </c>
       <c r="I8" s="3">
-        <v>2878700</v>
+        <v>2836900</v>
       </c>
       <c r="J8" s="3">
-        <v>3073300</v>
+        <v>3028700</v>
       </c>
       <c r="K8" s="3">
         <v>2432600</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-151000</v>
+        <v>-148800</v>
       </c>
       <c r="E15" s="3">
-        <v>-146400</v>
+        <v>-144300</v>
       </c>
       <c r="F15" s="3">
-        <v>-109400</v>
+        <v>-107800</v>
       </c>
       <c r="G15" s="3">
-        <v>-107400</v>
+        <v>-105800</v>
       </c>
       <c r="H15" s="3">
-        <v>-90200</v>
+        <v>-88900</v>
       </c>
       <c r="I15" s="3">
-        <v>-74000</v>
+        <v>-72900</v>
       </c>
       <c r="J15" s="3">
-        <v>-61000</v>
+        <v>-60100</v>
       </c>
       <c r="K15" s="3">
         <v>-79400</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1586400</v>
+        <v>1563400</v>
       </c>
       <c r="E17" s="3">
-        <v>1828300</v>
+        <v>1801800</v>
       </c>
       <c r="F17" s="3">
-        <v>1593900</v>
+        <v>1570800</v>
       </c>
       <c r="G17" s="3">
-        <v>1422700</v>
+        <v>1402100</v>
       </c>
       <c r="H17" s="3">
-        <v>1654600</v>
+        <v>1630600</v>
       </c>
       <c r="I17" s="3">
-        <v>1717400</v>
+        <v>1692500</v>
       </c>
       <c r="J17" s="3">
-        <v>1745400</v>
+        <v>1720200</v>
       </c>
       <c r="K17" s="3">
         <v>1506000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1494200</v>
+        <v>1472600</v>
       </c>
       <c r="E18" s="3">
-        <v>1375000</v>
+        <v>1355100</v>
       </c>
       <c r="F18" s="3">
-        <v>1503200</v>
+        <v>1481400</v>
       </c>
       <c r="G18" s="3">
-        <v>1417900</v>
+        <v>1397400</v>
       </c>
       <c r="H18" s="3">
-        <v>1294600</v>
+        <v>1275800</v>
       </c>
       <c r="I18" s="3">
-        <v>1161300</v>
+        <v>1144500</v>
       </c>
       <c r="J18" s="3">
-        <v>1327800</v>
+        <v>1308600</v>
       </c>
       <c r="K18" s="3">
         <v>926600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-592100</v>
+        <v>-583600</v>
       </c>
       <c r="E20" s="3">
-        <v>-405400</v>
+        <v>-399500</v>
       </c>
       <c r="F20" s="3">
-        <v>-451400</v>
+        <v>-444900</v>
       </c>
       <c r="G20" s="3">
-        <v>-423100</v>
+        <v>-417000</v>
       </c>
       <c r="H20" s="3">
-        <v>-491600</v>
+        <v>-484500</v>
       </c>
       <c r="I20" s="3">
-        <v>-433400</v>
+        <v>-427100</v>
       </c>
       <c r="J20" s="3">
-        <v>-462700</v>
+        <v>-456000</v>
       </c>
       <c r="K20" s="3">
         <v>-226500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1052000</v>
+        <v>1038900</v>
       </c>
       <c r="E21" s="3">
-        <v>1115000</v>
+        <v>1100900</v>
       </c>
       <c r="F21" s="3">
-        <v>1160400</v>
+        <v>1145100</v>
       </c>
       <c r="G21" s="3">
-        <v>1101400</v>
+        <v>1087000</v>
       </c>
       <c r="H21" s="3">
-        <v>892500</v>
+        <v>880800</v>
       </c>
       <c r="I21" s="3">
-        <v>801300</v>
+        <v>790800</v>
       </c>
       <c r="J21" s="3">
-        <v>925600</v>
+        <v>913100</v>
       </c>
       <c r="K21" s="3">
         <v>780100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>902100</v>
+        <v>889000</v>
       </c>
       <c r="E23" s="3">
-        <v>969700</v>
+        <v>955600</v>
       </c>
       <c r="F23" s="3">
-        <v>1051800</v>
+        <v>1036500</v>
       </c>
       <c r="G23" s="3">
-        <v>994800</v>
+        <v>980400</v>
       </c>
       <c r="H23" s="3">
-        <v>802900</v>
+        <v>791300</v>
       </c>
       <c r="I23" s="3">
-        <v>727900</v>
+        <v>717300</v>
       </c>
       <c r="J23" s="3">
-        <v>865200</v>
+        <v>852600</v>
       </c>
       <c r="K23" s="3">
         <v>700100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>180900</v>
+        <v>178300</v>
       </c>
       <c r="E24" s="3">
-        <v>207200</v>
+        <v>204200</v>
       </c>
       <c r="F24" s="3">
-        <v>228900</v>
+        <v>225600</v>
       </c>
       <c r="G24" s="3">
-        <v>198200</v>
+        <v>195300</v>
       </c>
       <c r="H24" s="3">
-        <v>147800</v>
+        <v>145700</v>
       </c>
       <c r="I24" s="3">
-        <v>103900</v>
+        <v>102400</v>
       </c>
       <c r="J24" s="3">
-        <v>70400</v>
+        <v>69400</v>
       </c>
       <c r="K24" s="3">
         <v>122800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>721100</v>
+        <v>710700</v>
       </c>
       <c r="E26" s="3">
-        <v>762400</v>
+        <v>751400</v>
       </c>
       <c r="F26" s="3">
-        <v>822800</v>
+        <v>810900</v>
       </c>
       <c r="G26" s="3">
-        <v>796600</v>
+        <v>785100</v>
       </c>
       <c r="H26" s="3">
-        <v>655100</v>
+        <v>645600</v>
       </c>
       <c r="I26" s="3">
-        <v>624000</v>
+        <v>614900</v>
       </c>
       <c r="J26" s="3">
-        <v>794700</v>
+        <v>783200</v>
       </c>
       <c r="K26" s="3">
         <v>577300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>714100</v>
+        <v>703700</v>
       </c>
       <c r="E27" s="3">
-        <v>759500</v>
+        <v>748500</v>
       </c>
       <c r="F27" s="3">
-        <v>816800</v>
+        <v>805000</v>
       </c>
       <c r="G27" s="3">
-        <v>779400</v>
+        <v>768100</v>
       </c>
       <c r="H27" s="3">
-        <v>651800</v>
+        <v>642400</v>
       </c>
       <c r="I27" s="3">
-        <v>619500</v>
+        <v>610500</v>
       </c>
       <c r="J27" s="3">
-        <v>786500</v>
+        <v>775100</v>
       </c>
       <c r="K27" s="3">
         <v>574500</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>592100</v>
+        <v>583600</v>
       </c>
       <c r="E32" s="3">
-        <v>405400</v>
+        <v>399500</v>
       </c>
       <c r="F32" s="3">
-        <v>451400</v>
+        <v>444900</v>
       </c>
       <c r="G32" s="3">
-        <v>423100</v>
+        <v>417000</v>
       </c>
       <c r="H32" s="3">
-        <v>491600</v>
+        <v>484500</v>
       </c>
       <c r="I32" s="3">
-        <v>433400</v>
+        <v>427100</v>
       </c>
       <c r="J32" s="3">
-        <v>462700</v>
+        <v>456000</v>
       </c>
       <c r="K32" s="3">
         <v>226500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>714100</v>
+        <v>703700</v>
       </c>
       <c r="E33" s="3">
-        <v>761900</v>
+        <v>750800</v>
       </c>
       <c r="F33" s="3">
-        <v>816800</v>
+        <v>805000</v>
       </c>
       <c r="G33" s="3">
-        <v>779400</v>
+        <v>768100</v>
       </c>
       <c r="H33" s="3">
-        <v>651800</v>
+        <v>642400</v>
       </c>
       <c r="I33" s="3">
-        <v>619500</v>
+        <v>610500</v>
       </c>
       <c r="J33" s="3">
-        <v>786500</v>
+        <v>775100</v>
       </c>
       <c r="K33" s="3">
         <v>574500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>714100</v>
+        <v>703700</v>
       </c>
       <c r="E35" s="3">
-        <v>761900</v>
+        <v>750800</v>
       </c>
       <c r="F35" s="3">
-        <v>816800</v>
+        <v>805000</v>
       </c>
       <c r="G35" s="3">
-        <v>779400</v>
+        <v>768100</v>
       </c>
       <c r="H35" s="3">
-        <v>651800</v>
+        <v>642400</v>
       </c>
       <c r="I35" s="3">
-        <v>619500</v>
+        <v>610500</v>
       </c>
       <c r="J35" s="3">
-        <v>786500</v>
+        <v>775100</v>
       </c>
       <c r="K35" s="3">
         <v>574500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3381900</v>
+        <v>3332900</v>
       </c>
       <c r="E41" s="3">
-        <v>4087800</v>
+        <v>4028500</v>
       </c>
       <c r="F41" s="3">
-        <v>2962400</v>
+        <v>2919500</v>
       </c>
       <c r="G41" s="3">
-        <v>2602400</v>
+        <v>2564700</v>
       </c>
       <c r="H41" s="3">
-        <v>2546800</v>
+        <v>2509900</v>
       </c>
       <c r="I41" s="3">
-        <v>2142200</v>
+        <v>2111200</v>
       </c>
       <c r="J41" s="3">
-        <v>2970000</v>
+        <v>2927000</v>
       </c>
       <c r="K41" s="3">
         <v>2991700</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13787700</v>
+        <v>13587800</v>
       </c>
       <c r="E42" s="3">
-        <v>12946800</v>
+        <v>12759200</v>
       </c>
       <c r="F42" s="3">
-        <v>4782700</v>
+        <v>4713400</v>
       </c>
       <c r="G42" s="3">
-        <v>4309400</v>
+        <v>4246900</v>
       </c>
       <c r="H42" s="3">
-        <v>5667300</v>
+        <v>5585200</v>
       </c>
       <c r="I42" s="3">
-        <v>6597700</v>
+        <v>6502100</v>
       </c>
       <c r="J42" s="3">
-        <v>4833900</v>
+        <v>4763800</v>
       </c>
       <c r="K42" s="3">
         <v>2339300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14900</v>
+        <v>14600</v>
       </c>
       <c r="E47" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="F47" s="3">
-        <v>44600</v>
+        <v>43900</v>
       </c>
       <c r="G47" s="3">
-        <v>38100</v>
+        <v>37500</v>
       </c>
       <c r="H47" s="3">
-        <v>32800</v>
+        <v>32300</v>
       </c>
       <c r="I47" s="3">
-        <v>28000</v>
+        <v>27600</v>
       </c>
       <c r="J47" s="3">
-        <v>24700</v>
+        <v>24400</v>
       </c>
       <c r="K47" s="3">
         <v>12600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>536600</v>
+        <v>528800</v>
       </c>
       <c r="E48" s="3">
-        <v>563500</v>
+        <v>555300</v>
       </c>
       <c r="F48" s="3">
-        <v>349900</v>
+        <v>344900</v>
       </c>
       <c r="G48" s="3">
-        <v>334700</v>
+        <v>329900</v>
       </c>
       <c r="H48" s="3">
-        <v>355200</v>
+        <v>350000</v>
       </c>
       <c r="I48" s="3">
-        <v>332100</v>
+        <v>327300</v>
       </c>
       <c r="J48" s="3">
-        <v>292000</v>
+        <v>287700</v>
       </c>
       <c r="K48" s="3">
         <v>234300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>113900</v>
+        <v>112300</v>
       </c>
       <c r="E49" s="3">
-        <v>101300</v>
+        <v>99800</v>
       </c>
       <c r="F49" s="3">
-        <v>92400</v>
+        <v>91000</v>
       </c>
       <c r="G49" s="3">
-        <v>87200</v>
+        <v>86000</v>
       </c>
       <c r="H49" s="3">
-        <v>80200</v>
+        <v>79000</v>
       </c>
       <c r="I49" s="3">
-        <v>70600</v>
+        <v>69500</v>
       </c>
       <c r="J49" s="3">
-        <v>56600</v>
+        <v>55700</v>
       </c>
       <c r="K49" s="3">
         <v>86700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>773900</v>
+        <v>762700</v>
       </c>
       <c r="E52" s="3">
-        <v>639700</v>
+        <v>630400</v>
       </c>
       <c r="F52" s="3">
-        <v>529600</v>
+        <v>521900</v>
       </c>
       <c r="G52" s="3">
-        <v>533400</v>
+        <v>525700</v>
       </c>
       <c r="H52" s="3">
-        <v>516600</v>
+        <v>509100</v>
       </c>
       <c r="I52" s="3">
-        <v>460400</v>
+        <v>453700</v>
       </c>
       <c r="J52" s="3">
-        <v>392000</v>
+        <v>386300</v>
       </c>
       <c r="K52" s="3">
         <v>301600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>76971000</v>
+        <v>75855500</v>
       </c>
       <c r="E54" s="3">
-        <v>69798000</v>
+        <v>68786400</v>
       </c>
       <c r="F54" s="3">
-        <v>54092400</v>
+        <v>53308400</v>
       </c>
       <c r="G54" s="3">
-        <v>49409900</v>
+        <v>48693800</v>
       </c>
       <c r="H54" s="3">
-        <v>51069200</v>
+        <v>50329000</v>
       </c>
       <c r="I54" s="3">
-        <v>47822700</v>
+        <v>47129600</v>
       </c>
       <c r="J54" s="3">
-        <v>42137200</v>
+        <v>41526500</v>
       </c>
       <c r="K54" s="3">
         <v>35121900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>499100</v>
+        <v>491800</v>
       </c>
       <c r="E57" s="3">
-        <v>273600</v>
+        <v>269600</v>
       </c>
       <c r="F57" s="3">
-        <v>225000</v>
+        <v>221700</v>
       </c>
       <c r="G57" s="3">
-        <v>671700</v>
+        <v>661900</v>
       </c>
       <c r="H57" s="3">
-        <v>398100</v>
+        <v>392300</v>
       </c>
       <c r="I57" s="3">
-        <v>637800</v>
+        <v>628500</v>
       </c>
       <c r="J57" s="3">
-        <v>388100</v>
+        <v>382500</v>
       </c>
       <c r="K57" s="3">
         <v>359300</v>
@@ -2346,22 +2346,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>37400</v>
+        <v>36900</v>
       </c>
       <c r="E59" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="F59" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="G59" s="3">
-        <v>11500</v>
+        <v>11300</v>
       </c>
       <c r="H59" s="3">
-        <v>43100</v>
+        <v>42500</v>
       </c>
       <c r="I59" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="J59" s="3">
         <v>3800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20516000</v>
+        <v>20218700</v>
       </c>
       <c r="E61" s="3">
-        <v>17119400</v>
+        <v>16871300</v>
       </c>
       <c r="F61" s="3">
-        <v>13964600</v>
+        <v>13762200</v>
       </c>
       <c r="G61" s="3">
-        <v>12467000</v>
+        <v>12286300</v>
       </c>
       <c r="H61" s="3">
-        <v>13086200</v>
+        <v>12896500</v>
       </c>
       <c r="I61" s="3">
-        <v>10329600</v>
+        <v>10179900</v>
       </c>
       <c r="J61" s="3">
-        <v>9966100</v>
+        <v>9821700</v>
       </c>
       <c r="K61" s="3">
         <v>9192100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>807600</v>
+        <v>795900</v>
       </c>
       <c r="E62" s="3">
-        <v>603100</v>
+        <v>594300</v>
       </c>
       <c r="F62" s="3">
-        <v>476600</v>
+        <v>469700</v>
       </c>
       <c r="G62" s="3">
-        <v>460900</v>
+        <v>454200</v>
       </c>
       <c r="H62" s="3">
-        <v>437000</v>
+        <v>430700</v>
       </c>
       <c r="I62" s="3">
-        <v>459600</v>
+        <v>452900</v>
       </c>
       <c r="J62" s="3">
-        <v>439100</v>
+        <v>432800</v>
       </c>
       <c r="K62" s="3">
         <v>339700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>72047300</v>
+        <v>71003100</v>
       </c>
       <c r="E66" s="3">
-        <v>65118600</v>
+        <v>64174900</v>
       </c>
       <c r="F66" s="3">
-        <v>49621800</v>
+        <v>48902600</v>
       </c>
       <c r="G66" s="3">
-        <v>45178600</v>
+        <v>44523800</v>
       </c>
       <c r="H66" s="3">
-        <v>47110400</v>
+        <v>46427600</v>
       </c>
       <c r="I66" s="3">
-        <v>44048800</v>
+        <v>43410400</v>
       </c>
       <c r="J66" s="3">
-        <v>38535500</v>
+        <v>37977000</v>
       </c>
       <c r="K66" s="3">
         <v>32098500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3731800</v>
+        <v>3677700</v>
       </c>
       <c r="E72" s="3">
-        <v>3460500</v>
+        <v>3410400</v>
       </c>
       <c r="F72" s="3">
-        <v>3225500</v>
+        <v>3178800</v>
       </c>
       <c r="G72" s="3">
-        <v>3004500</v>
+        <v>2961000</v>
       </c>
       <c r="H72" s="3">
-        <v>2719700</v>
+        <v>2680200</v>
       </c>
       <c r="I72" s="3">
-        <v>2542100</v>
+        <v>2505300</v>
       </c>
       <c r="J72" s="3">
-        <v>2336300</v>
+        <v>2302500</v>
       </c>
       <c r="K72" s="3">
         <v>1872400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4923700</v>
+        <v>4852400</v>
       </c>
       <c r="E76" s="3">
-        <v>4679300</v>
+        <v>4611500</v>
       </c>
       <c r="F76" s="3">
-        <v>4470600</v>
+        <v>4405800</v>
       </c>
       <c r="G76" s="3">
-        <v>4231300</v>
+        <v>4170000</v>
       </c>
       <c r="H76" s="3">
-        <v>3958800</v>
+        <v>3901400</v>
       </c>
       <c r="I76" s="3">
-        <v>3773900</v>
+        <v>3719200</v>
       </c>
       <c r="J76" s="3">
-        <v>3601700</v>
+        <v>3549500</v>
       </c>
       <c r="K76" s="3">
         <v>3023400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>714100</v>
+        <v>703700</v>
       </c>
       <c r="E81" s="3">
-        <v>761900</v>
+        <v>750800</v>
       </c>
       <c r="F81" s="3">
-        <v>816800</v>
+        <v>805000</v>
       </c>
       <c r="G81" s="3">
-        <v>779400</v>
+        <v>768100</v>
       </c>
       <c r="H81" s="3">
-        <v>651800</v>
+        <v>642400</v>
       </c>
       <c r="I81" s="3">
-        <v>619500</v>
+        <v>610500</v>
       </c>
       <c r="J81" s="3">
-        <v>786500</v>
+        <v>775100</v>
       </c>
       <c r="K81" s="3">
         <v>574500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>151000</v>
+        <v>148800</v>
       </c>
       <c r="E83" s="3">
-        <v>146400</v>
+        <v>144300</v>
       </c>
       <c r="F83" s="3">
-        <v>109400</v>
+        <v>107800</v>
       </c>
       <c r="G83" s="3">
-        <v>107400</v>
+        <v>105800</v>
       </c>
       <c r="H83" s="3">
-        <v>90200</v>
+        <v>88900</v>
       </c>
       <c r="I83" s="3">
-        <v>74000</v>
+        <v>72900</v>
       </c>
       <c r="J83" s="3">
-        <v>60900</v>
+        <v>60000</v>
       </c>
       <c r="K83" s="3">
         <v>79400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1142900</v>
+        <v>-1126400</v>
       </c>
       <c r="E89" s="3">
-        <v>2513100</v>
+        <v>2476600</v>
       </c>
       <c r="F89" s="3">
-        <v>1411100</v>
+        <v>1390600</v>
       </c>
       <c r="G89" s="3">
-        <v>-553700</v>
+        <v>-545700</v>
       </c>
       <c r="H89" s="3">
-        <v>1038200</v>
+        <v>1023100</v>
       </c>
       <c r="I89" s="3">
-        <v>963500</v>
+        <v>949500</v>
       </c>
       <c r="J89" s="3">
-        <v>402000</v>
+        <v>396200</v>
       </c>
       <c r="K89" s="3">
         <v>696000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-47300</v>
+        <v>-46600</v>
       </c>
       <c r="E91" s="3">
-        <v>-69500</v>
+        <v>-68500</v>
       </c>
       <c r="F91" s="3">
-        <v>-94300</v>
+        <v>-92900</v>
       </c>
       <c r="G91" s="3">
-        <v>-81100</v>
+        <v>-79900</v>
       </c>
       <c r="H91" s="3">
-        <v>-86100</v>
+        <v>-84800</v>
       </c>
       <c r="I91" s="3">
-        <v>-89900</v>
+        <v>-88600</v>
       </c>
       <c r="J91" s="3">
-        <v>-81500</v>
+        <v>-80400</v>
       </c>
       <c r="K91" s="3">
         <v>-53000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-85400</v>
+        <v>-84200</v>
       </c>
       <c r="E94" s="3">
-        <v>-189600</v>
+        <v>-186900</v>
       </c>
       <c r="F94" s="3">
-        <v>-126400</v>
+        <v>-124600</v>
       </c>
       <c r="G94" s="3">
-        <v>-101400</v>
+        <v>-99900</v>
       </c>
       <c r="H94" s="3">
-        <v>-124500</v>
+        <v>-122700</v>
       </c>
       <c r="I94" s="3">
-        <v>-128200</v>
+        <v>-126300</v>
       </c>
       <c r="J94" s="3">
-        <v>-127900</v>
+        <v>-126000</v>
       </c>
       <c r="K94" s="3">
         <v>39000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-457100</v>
+        <v>-450500</v>
       </c>
       <c r="E96" s="3">
-        <v>-490100</v>
+        <v>-483000</v>
       </c>
       <c r="F96" s="3">
-        <v>-584600</v>
+        <v>-576100</v>
       </c>
       <c r="G96" s="3">
-        <v>-456300</v>
+        <v>-449700</v>
       </c>
       <c r="H96" s="3">
-        <v>-464600</v>
+        <v>-457900</v>
       </c>
       <c r="I96" s="3">
-        <v>-455700</v>
+        <v>-449100</v>
       </c>
       <c r="J96" s="3">
-        <v>-365900</v>
+        <v>-360600</v>
       </c>
       <c r="K96" s="3">
         <v>-302600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>140900</v>
+        <v>138800</v>
       </c>
       <c r="E100" s="3">
-        <v>-490100</v>
+        <v>-483000</v>
       </c>
       <c r="F100" s="3">
-        <v>-584600</v>
+        <v>-576100</v>
       </c>
       <c r="G100" s="3">
-        <v>-477200</v>
+        <v>-470300</v>
       </c>
       <c r="H100" s="3">
-        <v>-486900</v>
+        <v>-479800</v>
       </c>
       <c r="I100" s="3">
-        <v>-470000</v>
+        <v>-463200</v>
       </c>
       <c r="J100" s="3">
-        <v>-378200</v>
+        <v>-372700</v>
       </c>
       <c r="K100" s="3">
         <v>-170200</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39600</v>
+        <v>-39000</v>
       </c>
       <c r="E101" s="3">
-        <v>174800</v>
+        <v>172300</v>
       </c>
       <c r="F101" s="3">
-        <v>158000</v>
+        <v>155700</v>
       </c>
       <c r="G101" s="3">
-        <v>-43300</v>
+        <v>-42700</v>
       </c>
       <c r="H101" s="3">
-        <v>-207400</v>
+        <v>-204400</v>
       </c>
       <c r="I101" s="3">
-        <v>280700</v>
+        <v>276700</v>
       </c>
       <c r="J101" s="3">
-        <v>48200</v>
+        <v>47500</v>
       </c>
       <c r="K101" s="3">
         <v>-26900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1127100</v>
+        <v>-1110700</v>
       </c>
       <c r="E102" s="3">
-        <v>2008100</v>
+        <v>1979000</v>
       </c>
       <c r="F102" s="3">
-        <v>858100</v>
+        <v>845700</v>
       </c>
       <c r="G102" s="3">
-        <v>-1175600</v>
+        <v>-1158500</v>
       </c>
       <c r="H102" s="3">
-        <v>219500</v>
+        <v>216300</v>
       </c>
       <c r="I102" s="3">
-        <v>646100</v>
+        <v>636700</v>
       </c>
       <c r="J102" s="3">
-        <v>-55900</v>
+        <v>-55100</v>
       </c>
       <c r="K102" s="3">
         <v>537900</v>

--- a/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>BSAC</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3036000</v>
+        <v>2835100</v>
       </c>
       <c r="E8" s="3">
-        <v>3156900</v>
+        <v>2948000</v>
       </c>
       <c r="F8" s="3">
-        <v>3052300</v>
+        <v>2850300</v>
       </c>
       <c r="G8" s="3">
-        <v>2799500</v>
+        <v>2614200</v>
       </c>
       <c r="H8" s="3">
-        <v>2906400</v>
+        <v>2714000</v>
       </c>
       <c r="I8" s="3">
-        <v>2836900</v>
+        <v>2649200</v>
       </c>
       <c r="J8" s="3">
-        <v>3028700</v>
+        <v>2828300</v>
       </c>
       <c r="K8" s="3">
         <v>2432600</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-148800</v>
+        <v>-139000</v>
       </c>
       <c r="E15" s="3">
-        <v>-144300</v>
+        <v>-134700</v>
       </c>
       <c r="F15" s="3">
-        <v>-107800</v>
+        <v>-100700</v>
       </c>
       <c r="G15" s="3">
-        <v>-105800</v>
+        <v>-98800</v>
       </c>
       <c r="H15" s="3">
-        <v>-88900</v>
+        <v>-83000</v>
       </c>
       <c r="I15" s="3">
-        <v>-72900</v>
+        <v>-68100</v>
       </c>
       <c r="J15" s="3">
-        <v>-60100</v>
+        <v>-56100</v>
       </c>
       <c r="K15" s="3">
         <v>-79400</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1563400</v>
+        <v>1459900</v>
       </c>
       <c r="E17" s="3">
-        <v>1801800</v>
+        <v>1682600</v>
       </c>
       <c r="F17" s="3">
-        <v>1570800</v>
+        <v>1466900</v>
       </c>
       <c r="G17" s="3">
-        <v>1402100</v>
+        <v>1309300</v>
       </c>
       <c r="H17" s="3">
-        <v>1630600</v>
+        <v>1522700</v>
       </c>
       <c r="I17" s="3">
-        <v>1692500</v>
+        <v>1580500</v>
       </c>
       <c r="J17" s="3">
-        <v>1720200</v>
+        <v>1606300</v>
       </c>
       <c r="K17" s="3">
         <v>1506000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1472600</v>
+        <v>1375100</v>
       </c>
       <c r="E18" s="3">
-        <v>1355100</v>
+        <v>1265400</v>
       </c>
       <c r="F18" s="3">
-        <v>1481400</v>
+        <v>1383400</v>
       </c>
       <c r="G18" s="3">
-        <v>1397400</v>
+        <v>1304900</v>
       </c>
       <c r="H18" s="3">
-        <v>1275800</v>
+        <v>1191400</v>
       </c>
       <c r="I18" s="3">
-        <v>1144500</v>
+        <v>1068700</v>
       </c>
       <c r="J18" s="3">
-        <v>1308600</v>
+        <v>1222000</v>
       </c>
       <c r="K18" s="3">
         <v>926600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-583600</v>
+        <v>-544900</v>
       </c>
       <c r="E20" s="3">
-        <v>-399500</v>
+        <v>-373100</v>
       </c>
       <c r="F20" s="3">
-        <v>-444900</v>
+        <v>-415400</v>
       </c>
       <c r="G20" s="3">
-        <v>-417000</v>
+        <v>-389400</v>
       </c>
       <c r="H20" s="3">
-        <v>-484500</v>
+        <v>-452400</v>
       </c>
       <c r="I20" s="3">
-        <v>-427100</v>
+        <v>-398900</v>
       </c>
       <c r="J20" s="3">
-        <v>-456000</v>
+        <v>-425800</v>
       </c>
       <c r="K20" s="3">
         <v>-226500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1038900</v>
+        <v>969200</v>
       </c>
       <c r="E21" s="3">
-        <v>1100900</v>
+        <v>1027100</v>
       </c>
       <c r="F21" s="3">
-        <v>1145100</v>
+        <v>1068600</v>
       </c>
       <c r="G21" s="3">
-        <v>1087000</v>
+        <v>1014300</v>
       </c>
       <c r="H21" s="3">
-        <v>880800</v>
+        <v>821900</v>
       </c>
       <c r="I21" s="3">
-        <v>790800</v>
+        <v>737900</v>
       </c>
       <c r="J21" s="3">
-        <v>913100</v>
+        <v>852300</v>
       </c>
       <c r="K21" s="3">
         <v>780100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>889000</v>
+        <v>830200</v>
       </c>
       <c r="E23" s="3">
-        <v>955600</v>
+        <v>892400</v>
       </c>
       <c r="F23" s="3">
-        <v>1036500</v>
+        <v>967900</v>
       </c>
       <c r="G23" s="3">
-        <v>980400</v>
+        <v>915500</v>
       </c>
       <c r="H23" s="3">
-        <v>791300</v>
+        <v>738900</v>
       </c>
       <c r="I23" s="3">
-        <v>717300</v>
+        <v>669900</v>
       </c>
       <c r="J23" s="3">
-        <v>852600</v>
+        <v>796200</v>
       </c>
       <c r="K23" s="3">
         <v>700100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>178300</v>
+        <v>166500</v>
       </c>
       <c r="E24" s="3">
-        <v>204200</v>
+        <v>190700</v>
       </c>
       <c r="F24" s="3">
-        <v>225600</v>
+        <v>210700</v>
       </c>
       <c r="G24" s="3">
-        <v>195300</v>
+        <v>182400</v>
       </c>
       <c r="H24" s="3">
-        <v>145700</v>
+        <v>136000</v>
       </c>
       <c r="I24" s="3">
-        <v>102400</v>
+        <v>95600</v>
       </c>
       <c r="J24" s="3">
-        <v>69400</v>
+        <v>64800</v>
       </c>
       <c r="K24" s="3">
         <v>122800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>710700</v>
+        <v>663700</v>
       </c>
       <c r="E26" s="3">
-        <v>751400</v>
+        <v>701600</v>
       </c>
       <c r="F26" s="3">
-        <v>810900</v>
+        <v>757300</v>
       </c>
       <c r="G26" s="3">
-        <v>785100</v>
+        <v>733100</v>
       </c>
       <c r="H26" s="3">
-        <v>645600</v>
+        <v>602900</v>
       </c>
       <c r="I26" s="3">
-        <v>614900</v>
+        <v>574200</v>
       </c>
       <c r="J26" s="3">
-        <v>783200</v>
+        <v>731400</v>
       </c>
       <c r="K26" s="3">
         <v>577300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>703700</v>
+        <v>657200</v>
       </c>
       <c r="E27" s="3">
-        <v>748500</v>
+        <v>699000</v>
       </c>
       <c r="F27" s="3">
-        <v>805000</v>
+        <v>751700</v>
       </c>
       <c r="G27" s="3">
-        <v>768100</v>
+        <v>717300</v>
       </c>
       <c r="H27" s="3">
-        <v>642400</v>
+        <v>599900</v>
       </c>
       <c r="I27" s="3">
-        <v>610500</v>
+        <v>570100</v>
       </c>
       <c r="J27" s="3">
-        <v>775100</v>
+        <v>723800</v>
       </c>
       <c r="K27" s="3">
         <v>574500</v>
@@ -1416,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>583600</v>
+        <v>544900</v>
       </c>
       <c r="E32" s="3">
-        <v>399500</v>
+        <v>373100</v>
       </c>
       <c r="F32" s="3">
-        <v>444900</v>
+        <v>415400</v>
       </c>
       <c r="G32" s="3">
-        <v>417000</v>
+        <v>389400</v>
       </c>
       <c r="H32" s="3">
-        <v>484500</v>
+        <v>452400</v>
       </c>
       <c r="I32" s="3">
-        <v>427100</v>
+        <v>398900</v>
       </c>
       <c r="J32" s="3">
-        <v>456000</v>
+        <v>425800</v>
       </c>
       <c r="K32" s="3">
         <v>226500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>703700</v>
+        <v>657200</v>
       </c>
       <c r="E33" s="3">
-        <v>750800</v>
+        <v>701200</v>
       </c>
       <c r="F33" s="3">
-        <v>805000</v>
+        <v>751700</v>
       </c>
       <c r="G33" s="3">
-        <v>768100</v>
+        <v>717300</v>
       </c>
       <c r="H33" s="3">
-        <v>642400</v>
+        <v>599900</v>
       </c>
       <c r="I33" s="3">
-        <v>610500</v>
+        <v>570100</v>
       </c>
       <c r="J33" s="3">
-        <v>775100</v>
+        <v>723800</v>
       </c>
       <c r="K33" s="3">
         <v>574500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>703700</v>
+        <v>657200</v>
       </c>
       <c r="E35" s="3">
-        <v>750800</v>
+        <v>701200</v>
       </c>
       <c r="F35" s="3">
-        <v>805000</v>
+        <v>751700</v>
       </c>
       <c r="G35" s="3">
-        <v>768100</v>
+        <v>717300</v>
       </c>
       <c r="H35" s="3">
-        <v>642400</v>
+        <v>599900</v>
       </c>
       <c r="I35" s="3">
-        <v>610500</v>
+        <v>570100</v>
       </c>
       <c r="J35" s="3">
-        <v>775100</v>
+        <v>723800</v>
       </c>
       <c r="K35" s="3">
         <v>574500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3332900</v>
+        <v>3112400</v>
       </c>
       <c r="E41" s="3">
-        <v>4028500</v>
+        <v>3761900</v>
       </c>
       <c r="F41" s="3">
-        <v>2919500</v>
+        <v>2726300</v>
       </c>
       <c r="G41" s="3">
-        <v>2564700</v>
+        <v>2395000</v>
       </c>
       <c r="H41" s="3">
-        <v>2509900</v>
+        <v>2343800</v>
       </c>
       <c r="I41" s="3">
-        <v>2111200</v>
+        <v>1971500</v>
       </c>
       <c r="J41" s="3">
-        <v>2927000</v>
+        <v>2733300</v>
       </c>
       <c r="K41" s="3">
         <v>2991700</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13587800</v>
+        <v>12688700</v>
       </c>
       <c r="E42" s="3">
-        <v>12759200</v>
+        <v>11914800</v>
       </c>
       <c r="F42" s="3">
-        <v>4713400</v>
+        <v>4401500</v>
       </c>
       <c r="G42" s="3">
-        <v>4246900</v>
+        <v>3965900</v>
       </c>
       <c r="H42" s="3">
-        <v>5585200</v>
+        <v>5215600</v>
       </c>
       <c r="I42" s="3">
-        <v>6502100</v>
+        <v>6071800</v>
       </c>
       <c r="J42" s="3">
-        <v>4763800</v>
+        <v>4448600</v>
       </c>
       <c r="K42" s="3">
         <v>2339300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14600</v>
+        <v>13700</v>
       </c>
       <c r="E47" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="F47" s="3">
-        <v>43900</v>
+        <v>41000</v>
       </c>
       <c r="G47" s="3">
-        <v>37500</v>
+        <v>35000</v>
       </c>
       <c r="H47" s="3">
-        <v>32300</v>
+        <v>30200</v>
       </c>
       <c r="I47" s="3">
-        <v>27600</v>
+        <v>25800</v>
       </c>
       <c r="J47" s="3">
-        <v>24400</v>
+        <v>22800</v>
       </c>
       <c r="K47" s="3">
         <v>12600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>528800</v>
+        <v>493800</v>
       </c>
       <c r="E48" s="3">
-        <v>555300</v>
+        <v>518600</v>
       </c>
       <c r="F48" s="3">
-        <v>344900</v>
+        <v>322100</v>
       </c>
       <c r="G48" s="3">
-        <v>329900</v>
+        <v>308000</v>
       </c>
       <c r="H48" s="3">
-        <v>350000</v>
+        <v>326900</v>
       </c>
       <c r="I48" s="3">
-        <v>327300</v>
+        <v>305600</v>
       </c>
       <c r="J48" s="3">
-        <v>287700</v>
+        <v>268700</v>
       </c>
       <c r="K48" s="3">
         <v>234300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>112300</v>
+        <v>104800</v>
       </c>
       <c r="E49" s="3">
-        <v>99800</v>
+        <v>93200</v>
       </c>
       <c r="F49" s="3">
-        <v>91000</v>
+        <v>85000</v>
       </c>
       <c r="G49" s="3">
-        <v>86000</v>
+        <v>80300</v>
       </c>
       <c r="H49" s="3">
-        <v>79000</v>
+        <v>73800</v>
       </c>
       <c r="I49" s="3">
-        <v>69500</v>
+        <v>64900</v>
       </c>
       <c r="J49" s="3">
-        <v>55700</v>
+        <v>52000</v>
       </c>
       <c r="K49" s="3">
         <v>86700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>762700</v>
+        <v>712300</v>
       </c>
       <c r="E52" s="3">
-        <v>630400</v>
+        <v>588700</v>
       </c>
       <c r="F52" s="3">
-        <v>521900</v>
+        <v>487400</v>
       </c>
       <c r="G52" s="3">
-        <v>525700</v>
+        <v>490900</v>
       </c>
       <c r="H52" s="3">
-        <v>509100</v>
+        <v>475400</v>
       </c>
       <c r="I52" s="3">
-        <v>453700</v>
+        <v>423700</v>
       </c>
       <c r="J52" s="3">
-        <v>386300</v>
+        <v>360800</v>
       </c>
       <c r="K52" s="3">
         <v>301600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75855500</v>
+        <v>70835600</v>
       </c>
       <c r="E54" s="3">
-        <v>68786400</v>
+        <v>64234400</v>
       </c>
       <c r="F54" s="3">
-        <v>53308400</v>
+        <v>49780600</v>
       </c>
       <c r="G54" s="3">
-        <v>48693800</v>
+        <v>45471400</v>
       </c>
       <c r="H54" s="3">
-        <v>50329000</v>
+        <v>46998400</v>
       </c>
       <c r="I54" s="3">
-        <v>47129600</v>
+        <v>44010700</v>
       </c>
       <c r="J54" s="3">
-        <v>41526500</v>
+        <v>38778400</v>
       </c>
       <c r="K54" s="3">
         <v>35121900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>491800</v>
+        <v>459300</v>
       </c>
       <c r="E57" s="3">
-        <v>269600</v>
+        <v>251800</v>
       </c>
       <c r="F57" s="3">
-        <v>221700</v>
+        <v>207100</v>
       </c>
       <c r="G57" s="3">
-        <v>661900</v>
+        <v>618100</v>
       </c>
       <c r="H57" s="3">
-        <v>392300</v>
+        <v>366400</v>
       </c>
       <c r="I57" s="3">
-        <v>628500</v>
+        <v>586900</v>
       </c>
       <c r="J57" s="3">
-        <v>382500</v>
+        <v>357200</v>
       </c>
       <c r="K57" s="3">
         <v>359300</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>4922000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>6433000</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>3712400</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>36900</v>
+        <v>34400</v>
       </c>
       <c r="E59" s="3">
-        <v>11100</v>
+        <v>10300</v>
       </c>
       <c r="F59" s="3">
-        <v>13700</v>
+        <v>12800</v>
       </c>
       <c r="G59" s="3">
-        <v>11300</v>
+        <v>10600</v>
       </c>
       <c r="H59" s="3">
-        <v>42500</v>
+        <v>39700</v>
       </c>
       <c r="I59" s="3">
-        <v>26500</v>
+        <v>24700</v>
       </c>
       <c r="J59" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="K59" s="3">
         <v>66800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20218700</v>
+        <v>15479300</v>
       </c>
       <c r="E61" s="3">
-        <v>16871300</v>
+        <v>10076600</v>
       </c>
       <c r="F61" s="3">
-        <v>13762200</v>
+        <v>9408000</v>
       </c>
       <c r="G61" s="3">
-        <v>12286300</v>
+        <v>11473200</v>
       </c>
       <c r="H61" s="3">
-        <v>12896500</v>
+        <v>12043100</v>
       </c>
       <c r="I61" s="3">
-        <v>10179900</v>
+        <v>9506200</v>
       </c>
       <c r="J61" s="3">
-        <v>9821700</v>
+        <v>9171700</v>
       </c>
       <c r="K61" s="3">
         <v>9192100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>795900</v>
+        <v>743200</v>
       </c>
       <c r="E62" s="3">
-        <v>594300</v>
+        <v>555000</v>
       </c>
       <c r="F62" s="3">
-        <v>469700</v>
+        <v>438600</v>
       </c>
       <c r="G62" s="3">
-        <v>454200</v>
+        <v>424200</v>
       </c>
       <c r="H62" s="3">
-        <v>430700</v>
+        <v>402200</v>
       </c>
       <c r="I62" s="3">
-        <v>452900</v>
+        <v>422900</v>
       </c>
       <c r="J62" s="3">
-        <v>432800</v>
+        <v>404100</v>
       </c>
       <c r="K62" s="3">
         <v>339700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>71003100</v>
+        <v>66304400</v>
       </c>
       <c r="E66" s="3">
-        <v>64174900</v>
+        <v>59928000</v>
       </c>
       <c r="F66" s="3">
-        <v>48902600</v>
+        <v>45666400</v>
       </c>
       <c r="G66" s="3">
-        <v>44523800</v>
+        <v>41577400</v>
       </c>
       <c r="H66" s="3">
-        <v>46427600</v>
+        <v>43355200</v>
       </c>
       <c r="I66" s="3">
-        <v>43410400</v>
+        <v>40537600</v>
       </c>
       <c r="J66" s="3">
-        <v>37977000</v>
+        <v>35463800</v>
       </c>
       <c r="K66" s="3">
         <v>32098500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3677700</v>
+        <v>3434300</v>
       </c>
       <c r="E72" s="3">
-        <v>3410400</v>
+        <v>3184700</v>
       </c>
       <c r="F72" s="3">
-        <v>3178800</v>
+        <v>2968400</v>
       </c>
       <c r="G72" s="3">
-        <v>2961000</v>
+        <v>2765000</v>
       </c>
       <c r="H72" s="3">
-        <v>2680200</v>
+        <v>2502900</v>
       </c>
       <c r="I72" s="3">
-        <v>2505300</v>
+        <v>2339500</v>
       </c>
       <c r="J72" s="3">
-        <v>2302500</v>
+        <v>2150100</v>
       </c>
       <c r="K72" s="3">
         <v>1872400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4852400</v>
+        <v>4531300</v>
       </c>
       <c r="E76" s="3">
-        <v>4611500</v>
+        <v>4306300</v>
       </c>
       <c r="F76" s="3">
-        <v>4405800</v>
+        <v>4114200</v>
       </c>
       <c r="G76" s="3">
-        <v>4170000</v>
+        <v>3894000</v>
       </c>
       <c r="H76" s="3">
-        <v>3901400</v>
+        <v>3643300</v>
       </c>
       <c r="I76" s="3">
-        <v>3719200</v>
+        <v>3473100</v>
       </c>
       <c r="J76" s="3">
-        <v>3549500</v>
+        <v>3314600</v>
       </c>
       <c r="K76" s="3">
         <v>3023400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>703700</v>
+        <v>657200</v>
       </c>
       <c r="E81" s="3">
-        <v>750800</v>
+        <v>701200</v>
       </c>
       <c r="F81" s="3">
-        <v>805000</v>
+        <v>751700</v>
       </c>
       <c r="G81" s="3">
-        <v>768100</v>
+        <v>717300</v>
       </c>
       <c r="H81" s="3">
-        <v>642400</v>
+        <v>599900</v>
       </c>
       <c r="I81" s="3">
-        <v>610500</v>
+        <v>570100</v>
       </c>
       <c r="J81" s="3">
-        <v>775100</v>
+        <v>723800</v>
       </c>
       <c r="K81" s="3">
         <v>574500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>148800</v>
+        <v>139000</v>
       </c>
       <c r="E83" s="3">
-        <v>144300</v>
+        <v>134700</v>
       </c>
       <c r="F83" s="3">
-        <v>107800</v>
+        <v>100700</v>
       </c>
       <c r="G83" s="3">
-        <v>105800</v>
+        <v>98800</v>
       </c>
       <c r="H83" s="3">
-        <v>88900</v>
+        <v>83000</v>
       </c>
       <c r="I83" s="3">
-        <v>72900</v>
+        <v>68100</v>
       </c>
       <c r="J83" s="3">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="K83" s="3">
         <v>79400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1126400</v>
+        <v>-1051800</v>
       </c>
       <c r="E89" s="3">
-        <v>2476600</v>
+        <v>2312800</v>
       </c>
       <c r="F89" s="3">
-        <v>1390600</v>
+        <v>1298600</v>
       </c>
       <c r="G89" s="3">
-        <v>-545700</v>
+        <v>-509500</v>
       </c>
       <c r="H89" s="3">
-        <v>1023100</v>
+        <v>955400</v>
       </c>
       <c r="I89" s="3">
-        <v>949500</v>
+        <v>886700</v>
       </c>
       <c r="J89" s="3">
-        <v>396200</v>
+        <v>370000</v>
       </c>
       <c r="K89" s="3">
         <v>696000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-46600</v>
+        <v>-43500</v>
       </c>
       <c r="E91" s="3">
-        <v>-68500</v>
+        <v>-64000</v>
       </c>
       <c r="F91" s="3">
-        <v>-92900</v>
+        <v>-86800</v>
       </c>
       <c r="G91" s="3">
-        <v>-79900</v>
+        <v>-74600</v>
       </c>
       <c r="H91" s="3">
-        <v>-84800</v>
+        <v>-79200</v>
       </c>
       <c r="I91" s="3">
-        <v>-88600</v>
+        <v>-82700</v>
       </c>
       <c r="J91" s="3">
-        <v>-80400</v>
+        <v>-75000</v>
       </c>
       <c r="K91" s="3">
         <v>-53000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-84200</v>
+        <v>-78600</v>
       </c>
       <c r="E94" s="3">
-        <v>-186900</v>
+        <v>-174500</v>
       </c>
       <c r="F94" s="3">
-        <v>-124600</v>
+        <v>-116300</v>
       </c>
       <c r="G94" s="3">
-        <v>-99900</v>
+        <v>-93300</v>
       </c>
       <c r="H94" s="3">
-        <v>-122700</v>
+        <v>-114600</v>
       </c>
       <c r="I94" s="3">
-        <v>-126300</v>
+        <v>-117900</v>
       </c>
       <c r="J94" s="3">
-        <v>-126000</v>
+        <v>-117700</v>
       </c>
       <c r="K94" s="3">
         <v>39000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-450500</v>
+        <v>-420700</v>
       </c>
       <c r="E96" s="3">
-        <v>-483000</v>
+        <v>-451000</v>
       </c>
       <c r="F96" s="3">
-        <v>-576100</v>
+        <v>-538000</v>
       </c>
       <c r="G96" s="3">
-        <v>-449700</v>
+        <v>-419900</v>
       </c>
       <c r="H96" s="3">
-        <v>-457900</v>
+        <v>-427600</v>
       </c>
       <c r="I96" s="3">
-        <v>-449100</v>
+        <v>-419400</v>
       </c>
       <c r="J96" s="3">
-        <v>-360600</v>
+        <v>-336700</v>
       </c>
       <c r="K96" s="3">
         <v>-302600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>138800</v>
+        <v>129700</v>
       </c>
       <c r="E100" s="3">
-        <v>-483000</v>
+        <v>-451000</v>
       </c>
       <c r="F100" s="3">
-        <v>-576100</v>
+        <v>-538000</v>
       </c>
       <c r="G100" s="3">
-        <v>-470300</v>
+        <v>-439100</v>
       </c>
       <c r="H100" s="3">
-        <v>-479800</v>
+        <v>-448000</v>
       </c>
       <c r="I100" s="3">
-        <v>-463200</v>
+        <v>-432600</v>
       </c>
       <c r="J100" s="3">
-        <v>-372700</v>
+        <v>-348000</v>
       </c>
       <c r="K100" s="3">
         <v>-170200</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39000</v>
+        <v>-36500</v>
       </c>
       <c r="E101" s="3">
-        <v>172300</v>
+        <v>160900</v>
       </c>
       <c r="F101" s="3">
-        <v>155700</v>
+        <v>145400</v>
       </c>
       <c r="G101" s="3">
-        <v>-42700</v>
+        <v>-39900</v>
       </c>
       <c r="H101" s="3">
-        <v>-204400</v>
+        <v>-190800</v>
       </c>
       <c r="I101" s="3">
-        <v>276700</v>
+        <v>258400</v>
       </c>
       <c r="J101" s="3">
-        <v>47500</v>
+        <v>44300</v>
       </c>
       <c r="K101" s="3">
         <v>-26900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1110700</v>
+        <v>-1037200</v>
       </c>
       <c r="E102" s="3">
-        <v>1979000</v>
+        <v>1848100</v>
       </c>
       <c r="F102" s="3">
-        <v>845700</v>
+        <v>789700</v>
       </c>
       <c r="G102" s="3">
-        <v>-1158500</v>
+        <v>-1081900</v>
       </c>
       <c r="H102" s="3">
-        <v>216300</v>
+        <v>202000</v>
       </c>
       <c r="I102" s="3">
-        <v>636700</v>
+        <v>594600</v>
       </c>
       <c r="J102" s="3">
-        <v>-55100</v>
+        <v>-51400</v>
       </c>
       <c r="K102" s="3">
         <v>537900</v>

--- a/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>BSAC</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2835100</v>
+        <v>2656500</v>
       </c>
       <c r="E8" s="3">
-        <v>2948000</v>
+        <v>2762300</v>
       </c>
       <c r="F8" s="3">
-        <v>2850300</v>
+        <v>2670700</v>
       </c>
       <c r="G8" s="3">
-        <v>2614200</v>
+        <v>2449600</v>
       </c>
       <c r="H8" s="3">
-        <v>2714000</v>
+        <v>2543100</v>
       </c>
       <c r="I8" s="3">
-        <v>2649200</v>
+        <v>2482300</v>
       </c>
       <c r="J8" s="3">
-        <v>2828300</v>
+        <v>2650200</v>
       </c>
       <c r="K8" s="3">
         <v>2432600</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-139000</v>
+        <v>-130200</v>
       </c>
       <c r="E15" s="3">
-        <v>-134700</v>
+        <v>-126200</v>
       </c>
       <c r="F15" s="3">
-        <v>-100700</v>
+        <v>-94300</v>
       </c>
       <c r="G15" s="3">
-        <v>-98800</v>
+        <v>-92600</v>
       </c>
       <c r="H15" s="3">
-        <v>-83000</v>
+        <v>-77800</v>
       </c>
       <c r="I15" s="3">
-        <v>-68100</v>
+        <v>-63800</v>
       </c>
       <c r="J15" s="3">
-        <v>-56100</v>
+        <v>-52600</v>
       </c>
       <c r="K15" s="3">
         <v>-79400</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1459900</v>
+        <v>1368000</v>
       </c>
       <c r="E17" s="3">
-        <v>1682600</v>
+        <v>1576600</v>
       </c>
       <c r="F17" s="3">
-        <v>1466900</v>
+        <v>1374500</v>
       </c>
       <c r="G17" s="3">
-        <v>1309300</v>
+        <v>1226800</v>
       </c>
       <c r="H17" s="3">
-        <v>1522700</v>
+        <v>1426800</v>
       </c>
       <c r="I17" s="3">
-        <v>1580500</v>
+        <v>1480900</v>
       </c>
       <c r="J17" s="3">
-        <v>1606300</v>
+        <v>1505100</v>
       </c>
       <c r="K17" s="3">
         <v>1506000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1375100</v>
+        <v>1288500</v>
       </c>
       <c r="E18" s="3">
-        <v>1265400</v>
+        <v>1185700</v>
       </c>
       <c r="F18" s="3">
-        <v>1383400</v>
+        <v>1296200</v>
       </c>
       <c r="G18" s="3">
-        <v>1304900</v>
+        <v>1222700</v>
       </c>
       <c r="H18" s="3">
-        <v>1191400</v>
+        <v>1116300</v>
       </c>
       <c r="I18" s="3">
-        <v>1068700</v>
+        <v>1001400</v>
       </c>
       <c r="J18" s="3">
-        <v>1222000</v>
+        <v>1145000</v>
       </c>
       <c r="K18" s="3">
         <v>926600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-544900</v>
+        <v>-510600</v>
       </c>
       <c r="E20" s="3">
-        <v>-373100</v>
+        <v>-349600</v>
       </c>
       <c r="F20" s="3">
-        <v>-415400</v>
+        <v>-389300</v>
       </c>
       <c r="G20" s="3">
-        <v>-389400</v>
+        <v>-364900</v>
       </c>
       <c r="H20" s="3">
-        <v>-452400</v>
+        <v>-423900</v>
       </c>
       <c r="I20" s="3">
-        <v>-398900</v>
+        <v>-373700</v>
       </c>
       <c r="J20" s="3">
-        <v>-425800</v>
+        <v>-399000</v>
       </c>
       <c r="K20" s="3">
         <v>-226500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>969200</v>
+        <v>909200</v>
       </c>
       <c r="E21" s="3">
-        <v>1027100</v>
+        <v>963500</v>
       </c>
       <c r="F21" s="3">
-        <v>1068600</v>
+        <v>1002100</v>
       </c>
       <c r="G21" s="3">
-        <v>1014300</v>
+        <v>951200</v>
       </c>
       <c r="H21" s="3">
-        <v>821900</v>
+        <v>770800</v>
       </c>
       <c r="I21" s="3">
-        <v>737900</v>
+        <v>692000</v>
       </c>
       <c r="J21" s="3">
-        <v>852300</v>
+        <v>799000</v>
       </c>
       <c r="K21" s="3">
         <v>780100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>830200</v>
+        <v>777900</v>
       </c>
       <c r="E23" s="3">
-        <v>892400</v>
+        <v>836100</v>
       </c>
       <c r="F23" s="3">
-        <v>967900</v>
+        <v>907000</v>
       </c>
       <c r="G23" s="3">
-        <v>915500</v>
+        <v>857800</v>
       </c>
       <c r="H23" s="3">
-        <v>738900</v>
+        <v>692400</v>
       </c>
       <c r="I23" s="3">
-        <v>669900</v>
+        <v>627700</v>
       </c>
       <c r="J23" s="3">
-        <v>796200</v>
+        <v>746100</v>
       </c>
       <c r="K23" s="3">
         <v>700100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>166500</v>
+        <v>156000</v>
       </c>
       <c r="E24" s="3">
-        <v>190700</v>
+        <v>178700</v>
       </c>
       <c r="F24" s="3">
-        <v>210700</v>
+        <v>197400</v>
       </c>
       <c r="G24" s="3">
-        <v>182400</v>
+        <v>170900</v>
       </c>
       <c r="H24" s="3">
-        <v>136000</v>
+        <v>127500</v>
       </c>
       <c r="I24" s="3">
-        <v>95600</v>
+        <v>89600</v>
       </c>
       <c r="J24" s="3">
-        <v>64800</v>
+        <v>60700</v>
       </c>
       <c r="K24" s="3">
         <v>122800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>663700</v>
+        <v>621800</v>
       </c>
       <c r="E26" s="3">
-        <v>701600</v>
+        <v>657400</v>
       </c>
       <c r="F26" s="3">
-        <v>757300</v>
+        <v>709600</v>
       </c>
       <c r="G26" s="3">
-        <v>733100</v>
+        <v>686900</v>
       </c>
       <c r="H26" s="3">
-        <v>602900</v>
+        <v>564900</v>
       </c>
       <c r="I26" s="3">
-        <v>574200</v>
+        <v>538000</v>
       </c>
       <c r="J26" s="3">
-        <v>731400</v>
+        <v>685300</v>
       </c>
       <c r="K26" s="3">
         <v>577300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>657200</v>
+        <v>615800</v>
       </c>
       <c r="E27" s="3">
-        <v>699000</v>
+        <v>655000</v>
       </c>
       <c r="F27" s="3">
-        <v>751700</v>
+        <v>704400</v>
       </c>
       <c r="G27" s="3">
-        <v>717300</v>
+        <v>672100</v>
       </c>
       <c r="H27" s="3">
-        <v>599900</v>
+        <v>562100</v>
       </c>
       <c r="I27" s="3">
-        <v>570100</v>
+        <v>534200</v>
       </c>
       <c r="J27" s="3">
-        <v>723800</v>
+        <v>678200</v>
       </c>
       <c r="K27" s="3">
         <v>574500</v>
@@ -1416,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>544900</v>
+        <v>510600</v>
       </c>
       <c r="E32" s="3">
-        <v>373100</v>
+        <v>349600</v>
       </c>
       <c r="F32" s="3">
-        <v>415400</v>
+        <v>389300</v>
       </c>
       <c r="G32" s="3">
-        <v>389400</v>
+        <v>364900</v>
       </c>
       <c r="H32" s="3">
-        <v>452400</v>
+        <v>423900</v>
       </c>
       <c r="I32" s="3">
-        <v>398900</v>
+        <v>373700</v>
       </c>
       <c r="J32" s="3">
-        <v>425800</v>
+        <v>399000</v>
       </c>
       <c r="K32" s="3">
         <v>226500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>657200</v>
+        <v>615800</v>
       </c>
       <c r="E33" s="3">
-        <v>701200</v>
+        <v>657000</v>
       </c>
       <c r="F33" s="3">
-        <v>751700</v>
+        <v>704400</v>
       </c>
       <c r="G33" s="3">
-        <v>717300</v>
+        <v>672100</v>
       </c>
       <c r="H33" s="3">
-        <v>599900</v>
+        <v>562100</v>
       </c>
       <c r="I33" s="3">
-        <v>570100</v>
+        <v>534200</v>
       </c>
       <c r="J33" s="3">
-        <v>723800</v>
+        <v>678200</v>
       </c>
       <c r="K33" s="3">
         <v>574500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>657200</v>
+        <v>615800</v>
       </c>
       <c r="E35" s="3">
-        <v>701200</v>
+        <v>657000</v>
       </c>
       <c r="F35" s="3">
-        <v>751700</v>
+        <v>704400</v>
       </c>
       <c r="G35" s="3">
-        <v>717300</v>
+        <v>672100</v>
       </c>
       <c r="H35" s="3">
-        <v>599900</v>
+        <v>562100</v>
       </c>
       <c r="I35" s="3">
-        <v>570100</v>
+        <v>534200</v>
       </c>
       <c r="J35" s="3">
-        <v>723800</v>
+        <v>678200</v>
       </c>
       <c r="K35" s="3">
         <v>574500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3112400</v>
+        <v>2916300</v>
       </c>
       <c r="E41" s="3">
-        <v>3761900</v>
+        <v>3525000</v>
       </c>
       <c r="F41" s="3">
-        <v>2726300</v>
+        <v>2554600</v>
       </c>
       <c r="G41" s="3">
-        <v>2395000</v>
+        <v>2244100</v>
       </c>
       <c r="H41" s="3">
-        <v>2343800</v>
+        <v>2196200</v>
       </c>
       <c r="I41" s="3">
-        <v>1971500</v>
+        <v>1847300</v>
       </c>
       <c r="J41" s="3">
-        <v>2733300</v>
+        <v>2561100</v>
       </c>
       <c r="K41" s="3">
         <v>2991700</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12688700</v>
+        <v>11889400</v>
       </c>
       <c r="E42" s="3">
-        <v>11914800</v>
+        <v>11164300</v>
       </c>
       <c r="F42" s="3">
-        <v>4401500</v>
+        <v>4124300</v>
       </c>
       <c r="G42" s="3">
-        <v>3965900</v>
+        <v>3716100</v>
       </c>
       <c r="H42" s="3">
-        <v>5215600</v>
+        <v>4887000</v>
       </c>
       <c r="I42" s="3">
-        <v>6071800</v>
+        <v>5689300</v>
       </c>
       <c r="J42" s="3">
-        <v>4448600</v>
+        <v>4168300</v>
       </c>
       <c r="K42" s="3">
         <v>2339300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13700</v>
+        <v>12800</v>
       </c>
       <c r="E47" s="3">
-        <v>13300</v>
+        <v>12500</v>
       </c>
       <c r="F47" s="3">
-        <v>41000</v>
+        <v>38400</v>
       </c>
       <c r="G47" s="3">
-        <v>35000</v>
+        <v>32800</v>
       </c>
       <c r="H47" s="3">
-        <v>30200</v>
+        <v>28300</v>
       </c>
       <c r="I47" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="J47" s="3">
-        <v>22800</v>
+        <v>21300</v>
       </c>
       <c r="K47" s="3">
         <v>12600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>493800</v>
+        <v>462700</v>
       </c>
       <c r="E48" s="3">
-        <v>518600</v>
+        <v>485900</v>
       </c>
       <c r="F48" s="3">
-        <v>322100</v>
+        <v>301800</v>
       </c>
       <c r="G48" s="3">
-        <v>308000</v>
+        <v>288600</v>
       </c>
       <c r="H48" s="3">
-        <v>326900</v>
+        <v>306300</v>
       </c>
       <c r="I48" s="3">
-        <v>305600</v>
+        <v>286400</v>
       </c>
       <c r="J48" s="3">
-        <v>268700</v>
+        <v>251800</v>
       </c>
       <c r="K48" s="3">
         <v>234300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>104800</v>
+        <v>98200</v>
       </c>
       <c r="E49" s="3">
-        <v>93200</v>
+        <v>87300</v>
       </c>
       <c r="F49" s="3">
-        <v>85000</v>
+        <v>79600</v>
       </c>
       <c r="G49" s="3">
-        <v>80300</v>
+        <v>75200</v>
       </c>
       <c r="H49" s="3">
-        <v>73800</v>
+        <v>69100</v>
       </c>
       <c r="I49" s="3">
-        <v>64900</v>
+        <v>60900</v>
       </c>
       <c r="J49" s="3">
-        <v>52000</v>
+        <v>48800</v>
       </c>
       <c r="K49" s="3">
         <v>86700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>712300</v>
+        <v>667400</v>
       </c>
       <c r="E52" s="3">
-        <v>588700</v>
+        <v>551600</v>
       </c>
       <c r="F52" s="3">
-        <v>487400</v>
+        <v>456700</v>
       </c>
       <c r="G52" s="3">
-        <v>490900</v>
+        <v>460000</v>
       </c>
       <c r="H52" s="3">
-        <v>475400</v>
+        <v>445500</v>
       </c>
       <c r="I52" s="3">
-        <v>423700</v>
+        <v>397000</v>
       </c>
       <c r="J52" s="3">
-        <v>360800</v>
+        <v>338000</v>
       </c>
       <c r="K52" s="3">
         <v>301600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>70835600</v>
+        <v>66373500</v>
       </c>
       <c r="E54" s="3">
-        <v>64234400</v>
+        <v>60188100</v>
       </c>
       <c r="F54" s="3">
-        <v>49780600</v>
+        <v>46644900</v>
       </c>
       <c r="G54" s="3">
-        <v>45471400</v>
+        <v>42607100</v>
       </c>
       <c r="H54" s="3">
-        <v>46998400</v>
+        <v>44037900</v>
       </c>
       <c r="I54" s="3">
-        <v>44010700</v>
+        <v>41238400</v>
       </c>
       <c r="J54" s="3">
-        <v>38778400</v>
+        <v>36335700</v>
       </c>
       <c r="K54" s="3">
         <v>35121900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>459300</v>
+        <v>430300</v>
       </c>
       <c r="E57" s="3">
-        <v>251800</v>
+        <v>235900</v>
       </c>
       <c r="F57" s="3">
-        <v>207100</v>
+        <v>194000</v>
       </c>
       <c r="G57" s="3">
-        <v>618100</v>
+        <v>579200</v>
       </c>
       <c r="H57" s="3">
-        <v>366400</v>
+        <v>343300</v>
       </c>
       <c r="I57" s="3">
-        <v>586900</v>
+        <v>550000</v>
       </c>
       <c r="J57" s="3">
-        <v>357200</v>
+        <v>334700</v>
       </c>
       <c r="K57" s="3">
         <v>359300</v>
@@ -2310,19 +2310,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4922000</v>
+        <v>4611900</v>
       </c>
       <c r="E58" s="3">
-        <v>6433000</v>
+        <v>6027800</v>
       </c>
       <c r="F58" s="3">
-        <v>3712400</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+        <v>3478500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2982200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3955800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34400</v>
+        <v>32300</v>
       </c>
       <c r="E59" s="3">
-        <v>10300</v>
+        <v>9700</v>
       </c>
       <c r="F59" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="G59" s="3">
-        <v>10600</v>
+        <v>9900</v>
       </c>
       <c r="H59" s="3">
-        <v>39700</v>
+        <v>37200</v>
       </c>
       <c r="I59" s="3">
-        <v>24700</v>
+        <v>23100</v>
       </c>
       <c r="J59" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K59" s="3">
         <v>66800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15479300</v>
+        <v>14504300</v>
       </c>
       <c r="E61" s="3">
-        <v>10076600</v>
+        <v>9441800</v>
       </c>
       <c r="F61" s="3">
-        <v>9408000</v>
+        <v>8815400</v>
       </c>
       <c r="G61" s="3">
-        <v>11473200</v>
+        <v>8321700</v>
       </c>
       <c r="H61" s="3">
-        <v>12043100</v>
+        <v>7765000</v>
       </c>
       <c r="I61" s="3">
-        <v>9506200</v>
+        <v>8907400</v>
       </c>
       <c r="J61" s="3">
-        <v>9171700</v>
+        <v>8594000</v>
       </c>
       <c r="K61" s="3">
         <v>9192100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>743200</v>
+        <v>696400</v>
       </c>
       <c r="E62" s="3">
-        <v>555000</v>
+        <v>520000</v>
       </c>
       <c r="F62" s="3">
-        <v>438600</v>
+        <v>410900</v>
       </c>
       <c r="G62" s="3">
-        <v>424200</v>
+        <v>397500</v>
       </c>
       <c r="H62" s="3">
-        <v>402200</v>
+        <v>376800</v>
       </c>
       <c r="I62" s="3">
-        <v>422900</v>
+        <v>396300</v>
       </c>
       <c r="J62" s="3">
-        <v>404100</v>
+        <v>378700</v>
       </c>
       <c r="K62" s="3">
         <v>339700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>66304400</v>
+        <v>62127700</v>
       </c>
       <c r="E66" s="3">
-        <v>59928000</v>
+        <v>56153000</v>
       </c>
       <c r="F66" s="3">
-        <v>45666400</v>
+        <v>42789800</v>
       </c>
       <c r="G66" s="3">
-        <v>41577400</v>
+        <v>38958300</v>
       </c>
       <c r="H66" s="3">
-        <v>43355200</v>
+        <v>40624100</v>
       </c>
       <c r="I66" s="3">
-        <v>40537600</v>
+        <v>37984100</v>
       </c>
       <c r="J66" s="3">
-        <v>35463800</v>
+        <v>33229900</v>
       </c>
       <c r="K66" s="3">
         <v>32098500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3434300</v>
+        <v>3218000</v>
       </c>
       <c r="E72" s="3">
-        <v>3184700</v>
+        <v>2984100</v>
       </c>
       <c r="F72" s="3">
-        <v>2968400</v>
+        <v>2781500</v>
       </c>
       <c r="G72" s="3">
-        <v>2765000</v>
+        <v>2590900</v>
       </c>
       <c r="H72" s="3">
-        <v>2502900</v>
+        <v>2345200</v>
       </c>
       <c r="I72" s="3">
-        <v>2339500</v>
+        <v>2192100</v>
       </c>
       <c r="J72" s="3">
-        <v>2150100</v>
+        <v>2014700</v>
       </c>
       <c r="K72" s="3">
         <v>1872400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4531300</v>
+        <v>4245800</v>
       </c>
       <c r="E76" s="3">
-        <v>4306300</v>
+        <v>4035100</v>
       </c>
       <c r="F76" s="3">
-        <v>4114200</v>
+        <v>3855100</v>
       </c>
       <c r="G76" s="3">
-        <v>3894000</v>
+        <v>3648800</v>
       </c>
       <c r="H76" s="3">
-        <v>3643300</v>
+        <v>3413800</v>
       </c>
       <c r="I76" s="3">
-        <v>3473100</v>
+        <v>3254300</v>
       </c>
       <c r="J76" s="3">
-        <v>3314600</v>
+        <v>3105800</v>
       </c>
       <c r="K76" s="3">
         <v>3023400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>657200</v>
+        <v>615800</v>
       </c>
       <c r="E81" s="3">
-        <v>701200</v>
+        <v>657000</v>
       </c>
       <c r="F81" s="3">
-        <v>751700</v>
+        <v>704400</v>
       </c>
       <c r="G81" s="3">
-        <v>717300</v>
+        <v>672100</v>
       </c>
       <c r="H81" s="3">
-        <v>599900</v>
+        <v>562100</v>
       </c>
       <c r="I81" s="3">
-        <v>570100</v>
+        <v>534200</v>
       </c>
       <c r="J81" s="3">
-        <v>723800</v>
+        <v>678200</v>
       </c>
       <c r="K81" s="3">
         <v>574500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>139000</v>
+        <v>130200</v>
       </c>
       <c r="E83" s="3">
-        <v>134700</v>
+        <v>126200</v>
       </c>
       <c r="F83" s="3">
-        <v>100700</v>
+        <v>94300</v>
       </c>
       <c r="G83" s="3">
-        <v>98800</v>
+        <v>92600</v>
       </c>
       <c r="H83" s="3">
-        <v>83000</v>
+        <v>77800</v>
       </c>
       <c r="I83" s="3">
-        <v>68100</v>
+        <v>63800</v>
       </c>
       <c r="J83" s="3">
-        <v>56000</v>
+        <v>52500</v>
       </c>
       <c r="K83" s="3">
         <v>79400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1051800</v>
+        <v>-985600</v>
       </c>
       <c r="E89" s="3">
-        <v>2312800</v>
+        <v>2167100</v>
       </c>
       <c r="F89" s="3">
-        <v>1298600</v>
+        <v>1216800</v>
       </c>
       <c r="G89" s="3">
-        <v>-509500</v>
+        <v>-477400</v>
       </c>
       <c r="H89" s="3">
-        <v>955400</v>
+        <v>895200</v>
       </c>
       <c r="I89" s="3">
-        <v>886700</v>
+        <v>830800</v>
       </c>
       <c r="J89" s="3">
-        <v>370000</v>
+        <v>346700</v>
       </c>
       <c r="K89" s="3">
         <v>696000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-43500</v>
+        <v>-40800</v>
       </c>
       <c r="E91" s="3">
-        <v>-64000</v>
+        <v>-59900</v>
       </c>
       <c r="F91" s="3">
-        <v>-86800</v>
+        <v>-81300</v>
       </c>
       <c r="G91" s="3">
-        <v>-74600</v>
+        <v>-69900</v>
       </c>
       <c r="H91" s="3">
-        <v>-79200</v>
+        <v>-74200</v>
       </c>
       <c r="I91" s="3">
-        <v>-82700</v>
+        <v>-77500</v>
       </c>
       <c r="J91" s="3">
-        <v>-75000</v>
+        <v>-70300</v>
       </c>
       <c r="K91" s="3">
         <v>-53000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-78600</v>
+        <v>-73700</v>
       </c>
       <c r="E94" s="3">
-        <v>-174500</v>
+        <v>-163500</v>
       </c>
       <c r="F94" s="3">
-        <v>-116300</v>
+        <v>-109000</v>
       </c>
       <c r="G94" s="3">
-        <v>-93300</v>
+        <v>-87400</v>
       </c>
       <c r="H94" s="3">
-        <v>-114600</v>
+        <v>-107300</v>
       </c>
       <c r="I94" s="3">
-        <v>-117900</v>
+        <v>-110500</v>
       </c>
       <c r="J94" s="3">
-        <v>-117700</v>
+        <v>-110300</v>
       </c>
       <c r="K94" s="3">
         <v>39000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-420700</v>
+        <v>-394200</v>
       </c>
       <c r="E96" s="3">
-        <v>-451000</v>
+        <v>-422600</v>
       </c>
       <c r="F96" s="3">
-        <v>-538000</v>
+        <v>-504100</v>
       </c>
       <c r="G96" s="3">
-        <v>-419900</v>
+        <v>-393500</v>
       </c>
       <c r="H96" s="3">
-        <v>-427600</v>
+        <v>-400600</v>
       </c>
       <c r="I96" s="3">
-        <v>-419400</v>
+        <v>-392900</v>
       </c>
       <c r="J96" s="3">
-        <v>-336700</v>
+        <v>-315500</v>
       </c>
       <c r="K96" s="3">
         <v>-302600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>129700</v>
+        <v>121500</v>
       </c>
       <c r="E100" s="3">
-        <v>-451000</v>
+        <v>-422600</v>
       </c>
       <c r="F100" s="3">
-        <v>-538000</v>
+        <v>-504100</v>
       </c>
       <c r="G100" s="3">
-        <v>-439100</v>
+        <v>-411500</v>
       </c>
       <c r="H100" s="3">
-        <v>-448000</v>
+        <v>-419800</v>
       </c>
       <c r="I100" s="3">
-        <v>-432600</v>
+        <v>-405300</v>
       </c>
       <c r="J100" s="3">
-        <v>-348000</v>
+        <v>-326100</v>
       </c>
       <c r="K100" s="3">
         <v>-170200</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-36500</v>
+        <v>-34200</v>
       </c>
       <c r="E101" s="3">
-        <v>160900</v>
+        <v>150700</v>
       </c>
       <c r="F101" s="3">
-        <v>145400</v>
+        <v>136300</v>
       </c>
       <c r="G101" s="3">
-        <v>-39900</v>
+        <v>-37400</v>
       </c>
       <c r="H101" s="3">
-        <v>-190800</v>
+        <v>-178800</v>
       </c>
       <c r="I101" s="3">
-        <v>258400</v>
+        <v>242100</v>
       </c>
       <c r="J101" s="3">
-        <v>44300</v>
+        <v>41500</v>
       </c>
       <c r="K101" s="3">
         <v>-26900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1037200</v>
+        <v>-971900</v>
       </c>
       <c r="E102" s="3">
-        <v>1848100</v>
+        <v>1731700</v>
       </c>
       <c r="F102" s="3">
-        <v>789700</v>
+        <v>740000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1081900</v>
+        <v>-1013700</v>
       </c>
       <c r="H102" s="3">
-        <v>202000</v>
+        <v>189200</v>
       </c>
       <c r="I102" s="3">
-        <v>594600</v>
+        <v>557100</v>
       </c>
       <c r="J102" s="3">
-        <v>-51400</v>
+        <v>-48200</v>
       </c>
       <c r="K102" s="3">
         <v>537900</v>

--- a/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>BSAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2656500</v>
+        <v>3622200</v>
       </c>
       <c r="E8" s="3">
-        <v>2762300</v>
+        <v>2768100</v>
       </c>
       <c r="F8" s="3">
-        <v>2670700</v>
+        <v>2878400</v>
       </c>
       <c r="G8" s="3">
-        <v>2449600</v>
+        <v>2783000</v>
       </c>
       <c r="H8" s="3">
-        <v>2543100</v>
+        <v>2552500</v>
       </c>
       <c r="I8" s="3">
-        <v>2482300</v>
+        <v>2649900</v>
       </c>
       <c r="J8" s="3">
+        <v>2586600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2650200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2432600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2420400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2600000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-130200</v>
+        <v>-151300</v>
       </c>
       <c r="E15" s="3">
-        <v>-126200</v>
+        <v>-135700</v>
       </c>
       <c r="F15" s="3">
-        <v>-94300</v>
+        <v>-131600</v>
       </c>
       <c r="G15" s="3">
-        <v>-92600</v>
+        <v>-98300</v>
       </c>
       <c r="H15" s="3">
-        <v>-77800</v>
+        <v>-96500</v>
       </c>
       <c r="I15" s="3">
-        <v>-63800</v>
+        <v>-81000</v>
       </c>
       <c r="J15" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="K15" s="3">
         <v>-52600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-79400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-72200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-78600</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1368000</v>
+        <v>1872800</v>
       </c>
       <c r="E17" s="3">
-        <v>1576600</v>
+        <v>1425400</v>
       </c>
       <c r="F17" s="3">
-        <v>1374500</v>
+        <v>1642800</v>
       </c>
       <c r="G17" s="3">
-        <v>1226800</v>
+        <v>1432200</v>
       </c>
       <c r="H17" s="3">
-        <v>1426800</v>
+        <v>1278400</v>
       </c>
       <c r="I17" s="3">
-        <v>1480900</v>
+        <v>1486700</v>
       </c>
       <c r="J17" s="3">
+        <v>1543200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1505100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1506000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1602400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1635500</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1288500</v>
+        <v>1749400</v>
       </c>
       <c r="E18" s="3">
-        <v>1185700</v>
+        <v>1342600</v>
       </c>
       <c r="F18" s="3">
-        <v>1296200</v>
+        <v>1235500</v>
       </c>
       <c r="G18" s="3">
-        <v>1222700</v>
+        <v>1350700</v>
       </c>
       <c r="H18" s="3">
-        <v>1116300</v>
+        <v>1274100</v>
       </c>
       <c r="I18" s="3">
-        <v>1001400</v>
+        <v>1163200</v>
       </c>
       <c r="J18" s="3">
+        <v>1043500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1145000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>926600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>818000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>964600</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-510600</v>
+        <v>-534700</v>
       </c>
       <c r="E20" s="3">
-        <v>-349600</v>
+        <v>-532100</v>
       </c>
       <c r="F20" s="3">
-        <v>-389300</v>
+        <v>-364300</v>
       </c>
       <c r="G20" s="3">
-        <v>-364900</v>
+        <v>-405600</v>
       </c>
       <c r="H20" s="3">
-        <v>-423900</v>
+        <v>-380200</v>
       </c>
       <c r="I20" s="3">
-        <v>-373700</v>
+        <v>-441700</v>
       </c>
       <c r="J20" s="3">
+        <v>-389400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-399000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-226500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-298900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-253300</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>909200</v>
+        <v>1366100</v>
       </c>
       <c r="E21" s="3">
-        <v>963500</v>
+        <v>946300</v>
       </c>
       <c r="F21" s="3">
-        <v>1002100</v>
+        <v>1002800</v>
       </c>
       <c r="G21" s="3">
-        <v>951200</v>
+        <v>1043400</v>
       </c>
       <c r="H21" s="3">
-        <v>770800</v>
+        <v>990400</v>
       </c>
       <c r="I21" s="3">
-        <v>692000</v>
+        <v>802500</v>
       </c>
       <c r="J21" s="3">
+        <v>720500</v>
+      </c>
+      <c r="K21" s="3">
         <v>799000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>780100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>591800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>789900</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>777900</v>
+        <v>1214700</v>
       </c>
       <c r="E23" s="3">
-        <v>836100</v>
+        <v>810600</v>
       </c>
       <c r="F23" s="3">
-        <v>907000</v>
+        <v>871300</v>
       </c>
       <c r="G23" s="3">
-        <v>857800</v>
+        <v>945100</v>
       </c>
       <c r="H23" s="3">
-        <v>692400</v>
+        <v>893900</v>
       </c>
       <c r="I23" s="3">
-        <v>627700</v>
+        <v>721500</v>
       </c>
       <c r="J23" s="3">
+        <v>654000</v>
+      </c>
+      <c r="K23" s="3">
         <v>746100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>519100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>711300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>156000</v>
+        <v>241400</v>
       </c>
       <c r="E24" s="3">
-        <v>178700</v>
+        <v>162600</v>
       </c>
       <c r="F24" s="3">
-        <v>197400</v>
+        <v>186200</v>
       </c>
       <c r="G24" s="3">
-        <v>170900</v>
+        <v>205700</v>
       </c>
       <c r="H24" s="3">
-        <v>127500</v>
+        <v>178100</v>
       </c>
       <c r="I24" s="3">
-        <v>89600</v>
+        <v>132800</v>
       </c>
       <c r="J24" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K24" s="3">
         <v>60700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>122800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>56800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>113500</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>621800</v>
+        <v>973300</v>
       </c>
       <c r="E26" s="3">
-        <v>657400</v>
+        <v>648000</v>
       </c>
       <c r="F26" s="3">
-        <v>709600</v>
+        <v>685100</v>
       </c>
       <c r="G26" s="3">
-        <v>686900</v>
+        <v>739400</v>
       </c>
       <c r="H26" s="3">
-        <v>564900</v>
+        <v>715800</v>
       </c>
       <c r="I26" s="3">
-        <v>538000</v>
+        <v>588600</v>
       </c>
       <c r="J26" s="3">
+        <v>560700</v>
+      </c>
+      <c r="K26" s="3">
         <v>685300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>577300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>462200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>597800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>615800</v>
+        <v>960900</v>
       </c>
       <c r="E27" s="3">
-        <v>655000</v>
+        <v>641600</v>
       </c>
       <c r="F27" s="3">
-        <v>704400</v>
+        <v>682500</v>
       </c>
       <c r="G27" s="3">
-        <v>672100</v>
+        <v>734000</v>
       </c>
       <c r="H27" s="3">
-        <v>562100</v>
+        <v>700400</v>
       </c>
       <c r="I27" s="3">
-        <v>534200</v>
+        <v>585700</v>
       </c>
       <c r="J27" s="3">
+        <v>556600</v>
+      </c>
+      <c r="K27" s="3">
         <v>678200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>574500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>456300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>590500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,20 +1463,23 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1436,15 +1496,18 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>510600</v>
+        <v>534700</v>
       </c>
       <c r="E32" s="3">
-        <v>349600</v>
+        <v>532100</v>
       </c>
       <c r="F32" s="3">
-        <v>389300</v>
+        <v>364300</v>
       </c>
       <c r="G32" s="3">
-        <v>364900</v>
+        <v>405600</v>
       </c>
       <c r="H32" s="3">
-        <v>423900</v>
+        <v>380200</v>
       </c>
       <c r="I32" s="3">
-        <v>373700</v>
+        <v>441700</v>
       </c>
       <c r="J32" s="3">
+        <v>389400</v>
+      </c>
+      <c r="K32" s="3">
         <v>399000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>226500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>298900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>253300</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>615800</v>
+        <v>960900</v>
       </c>
       <c r="E33" s="3">
-        <v>657000</v>
+        <v>641600</v>
       </c>
       <c r="F33" s="3">
-        <v>704400</v>
+        <v>684600</v>
       </c>
       <c r="G33" s="3">
-        <v>672100</v>
+        <v>734000</v>
       </c>
       <c r="H33" s="3">
-        <v>562100</v>
+        <v>700400</v>
       </c>
       <c r="I33" s="3">
-        <v>534200</v>
+        <v>585700</v>
       </c>
       <c r="J33" s="3">
+        <v>556600</v>
+      </c>
+      <c r="K33" s="3">
         <v>678200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>574500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>456300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>590500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>615800</v>
+        <v>960900</v>
       </c>
       <c r="E35" s="3">
-        <v>657000</v>
+        <v>641600</v>
       </c>
       <c r="F35" s="3">
-        <v>704400</v>
+        <v>684600</v>
       </c>
       <c r="G35" s="3">
-        <v>672100</v>
+        <v>734000</v>
       </c>
       <c r="H35" s="3">
-        <v>562100</v>
+        <v>700400</v>
       </c>
       <c r="I35" s="3">
-        <v>534200</v>
+        <v>585700</v>
       </c>
       <c r="J35" s="3">
+        <v>556600</v>
+      </c>
+      <c r="K35" s="3">
         <v>678200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>574500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>456300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>590500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2916300</v>
+        <v>2414800</v>
       </c>
       <c r="E41" s="3">
-        <v>3525000</v>
+        <v>3038800</v>
       </c>
       <c r="F41" s="3">
-        <v>2554600</v>
+        <v>3673100</v>
       </c>
       <c r="G41" s="3">
-        <v>2244100</v>
+        <v>2661900</v>
       </c>
       <c r="H41" s="3">
-        <v>2196200</v>
+        <v>2338400</v>
       </c>
       <c r="I41" s="3">
-        <v>1847300</v>
+        <v>2288400</v>
       </c>
       <c r="J41" s="3">
+        <v>1924900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2561100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2991700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2382200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4642000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11889400</v>
+        <v>14287900</v>
       </c>
       <c r="E42" s="3">
-        <v>11164300</v>
+        <v>12388900</v>
       </c>
       <c r="F42" s="3">
-        <v>4124300</v>
+        <v>11633400</v>
       </c>
       <c r="G42" s="3">
-        <v>3716100</v>
+        <v>4297500</v>
       </c>
       <c r="H42" s="3">
-        <v>4887000</v>
+        <v>3872200</v>
       </c>
       <c r="I42" s="3">
-        <v>5689300</v>
+        <v>5092400</v>
       </c>
       <c r="J42" s="3">
+        <v>5928400</v>
+      </c>
+      <c r="K42" s="3">
         <v>4168300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2339300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>442000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>621400</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>40000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>34200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>29500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K47" s="3">
+        <v>21300</v>
+      </c>
+      <c r="L47" s="3">
+        <v>12600</v>
+      </c>
+      <c r="M47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="N47" s="3">
         <v>12800</v>
       </c>
-      <c r="E47" s="3">
-        <v>12500</v>
-      </c>
-      <c r="F47" s="3">
-        <v>38400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>32800</v>
-      </c>
-      <c r="H47" s="3">
-        <v>28300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>24200</v>
-      </c>
-      <c r="J47" s="3">
-        <v>21300</v>
-      </c>
-      <c r="K47" s="3">
-        <v>12600</v>
-      </c>
-      <c r="L47" s="3">
-        <v>9700</v>
-      </c>
-      <c r="M47" s="3">
-        <v>12800</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>462700</v>
+        <v>464800</v>
       </c>
       <c r="E48" s="3">
-        <v>485900</v>
+        <v>482200</v>
       </c>
       <c r="F48" s="3">
-        <v>301800</v>
+        <v>506300</v>
       </c>
       <c r="G48" s="3">
-        <v>288600</v>
+        <v>314400</v>
       </c>
       <c r="H48" s="3">
-        <v>306300</v>
+        <v>300800</v>
       </c>
       <c r="I48" s="3">
-        <v>286400</v>
+        <v>319100</v>
       </c>
       <c r="J48" s="3">
+        <v>298400</v>
+      </c>
+      <c r="K48" s="3">
         <v>251800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>234300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>207600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>225000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>98200</v>
+        <v>118300</v>
       </c>
       <c r="E49" s="3">
-        <v>87300</v>
+        <v>102300</v>
       </c>
       <c r="F49" s="3">
-        <v>79600</v>
+        <v>91000</v>
       </c>
       <c r="G49" s="3">
-        <v>75200</v>
+        <v>83000</v>
       </c>
       <c r="H49" s="3">
-        <v>69100</v>
+        <v>78400</v>
       </c>
       <c r="I49" s="3">
-        <v>60900</v>
+        <v>72000</v>
       </c>
       <c r="J49" s="3">
+        <v>63400</v>
+      </c>
+      <c r="K49" s="3">
         <v>48800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>86700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>111800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>118700</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>667400</v>
+        <v>942700</v>
       </c>
       <c r="E52" s="3">
-        <v>551600</v>
+        <v>695400</v>
       </c>
       <c r="F52" s="3">
-        <v>456700</v>
+        <v>574800</v>
       </c>
       <c r="G52" s="3">
-        <v>460000</v>
+        <v>475900</v>
       </c>
       <c r="H52" s="3">
-        <v>445500</v>
+        <v>479300</v>
       </c>
       <c r="I52" s="3">
-        <v>397000</v>
+        <v>464200</v>
       </c>
       <c r="J52" s="3">
+        <v>413700</v>
+      </c>
+      <c r="K52" s="3">
         <v>338000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>301600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>232500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200700</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66373500</v>
+        <v>78952100</v>
       </c>
       <c r="E54" s="3">
-        <v>60188100</v>
+        <v>69162300</v>
       </c>
       <c r="F54" s="3">
-        <v>46644900</v>
+        <v>62717000</v>
       </c>
       <c r="G54" s="3">
-        <v>42607100</v>
+        <v>48604700</v>
       </c>
       <c r="H54" s="3">
-        <v>44037900</v>
+        <v>44397300</v>
       </c>
       <c r="I54" s="3">
-        <v>41238400</v>
+        <v>45888200</v>
       </c>
       <c r="J54" s="3">
+        <v>42971100</v>
+      </c>
+      <c r="K54" s="3">
         <v>36335700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35121900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31692700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36263400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,70 +2397,74 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>430300</v>
+        <v>471100</v>
       </c>
       <c r="E57" s="3">
-        <v>235900</v>
+        <v>448400</v>
       </c>
       <c r="F57" s="3">
-        <v>194000</v>
+        <v>245800</v>
       </c>
       <c r="G57" s="3">
-        <v>579200</v>
+        <v>202200</v>
       </c>
       <c r="H57" s="3">
-        <v>343300</v>
+        <v>603500</v>
       </c>
       <c r="I57" s="3">
-        <v>550000</v>
+        <v>357700</v>
       </c>
       <c r="J57" s="3">
+        <v>573100</v>
+      </c>
+      <c r="K57" s="3">
         <v>334700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>359300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>364700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>131500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4611900</v>
+        <v>6119700</v>
       </c>
       <c r="E58" s="3">
-        <v>6027800</v>
+        <v>4805700</v>
       </c>
       <c r="F58" s="3">
-        <v>3478500</v>
+        <v>6281000</v>
       </c>
       <c r="G58" s="3">
-        <v>2982200</v>
+        <v>3624700</v>
       </c>
       <c r="H58" s="3">
-        <v>3955800</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>3107500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4122000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2339,45 +2472,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>32300</v>
+        <v>27200</v>
       </c>
       <c r="E59" s="3">
-        <v>9700</v>
+        <v>33600</v>
       </c>
       <c r="F59" s="3">
-        <v>12000</v>
+        <v>10100</v>
       </c>
       <c r="G59" s="3">
-        <v>9900</v>
+        <v>12500</v>
       </c>
       <c r="H59" s="3">
-        <v>37200</v>
+        <v>10300</v>
       </c>
       <c r="I59" s="3">
-        <v>23100</v>
+        <v>38800</v>
       </c>
       <c r="J59" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>66800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14504300</v>
+        <v>16801200</v>
       </c>
       <c r="E61" s="3">
-        <v>9441800</v>
+        <v>15113700</v>
       </c>
       <c r="F61" s="3">
-        <v>8815400</v>
+        <v>9838500</v>
       </c>
       <c r="G61" s="3">
-        <v>8321700</v>
+        <v>9185800</v>
       </c>
       <c r="H61" s="3">
-        <v>7765000</v>
+        <v>8671300</v>
       </c>
       <c r="I61" s="3">
-        <v>8907400</v>
+        <v>8091200</v>
       </c>
       <c r="J61" s="3">
+        <v>9281600</v>
+      </c>
+      <c r="K61" s="3">
         <v>8594000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9192100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9159000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11518500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>696400</v>
+        <v>1308900</v>
       </c>
       <c r="E62" s="3">
-        <v>520000</v>
+        <v>725600</v>
       </c>
       <c r="F62" s="3">
-        <v>410900</v>
+        <v>541900</v>
       </c>
       <c r="G62" s="3">
-        <v>397500</v>
+        <v>428200</v>
       </c>
       <c r="H62" s="3">
-        <v>376800</v>
+        <v>414200</v>
       </c>
       <c r="I62" s="3">
-        <v>396300</v>
+        <v>392700</v>
       </c>
       <c r="J62" s="3">
+        <v>412900</v>
+      </c>
+      <c r="K62" s="3">
         <v>378700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>339700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>257700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>283500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>62127700</v>
+        <v>74735800</v>
       </c>
       <c r="E66" s="3">
-        <v>56153000</v>
+        <v>64738100</v>
       </c>
       <c r="F66" s="3">
-        <v>42789800</v>
+        <v>58512400</v>
       </c>
       <c r="G66" s="3">
-        <v>38958300</v>
+        <v>44587700</v>
       </c>
       <c r="H66" s="3">
-        <v>40624100</v>
+        <v>40595200</v>
       </c>
       <c r="I66" s="3">
-        <v>37984100</v>
+        <v>42331000</v>
       </c>
       <c r="J66" s="3">
+        <v>39580100</v>
+      </c>
+      <c r="K66" s="3">
         <v>33229900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32098500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28923900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33234200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3218000</v>
+        <v>3833400</v>
       </c>
       <c r="E72" s="3">
-        <v>2984100</v>
+        <v>3353200</v>
       </c>
       <c r="F72" s="3">
-        <v>2781500</v>
+        <v>3109400</v>
       </c>
       <c r="G72" s="3">
-        <v>2590900</v>
+        <v>2898300</v>
       </c>
       <c r="H72" s="3">
-        <v>2345200</v>
+        <v>2699700</v>
       </c>
       <c r="I72" s="3">
-        <v>2192100</v>
+        <v>2443700</v>
       </c>
       <c r="J72" s="3">
+        <v>2284200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2014700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1872400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1632800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1714900</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4245800</v>
+        <v>4216300</v>
       </c>
       <c r="E76" s="3">
-        <v>4035100</v>
+        <v>4424200</v>
       </c>
       <c r="F76" s="3">
-        <v>3855100</v>
+        <v>4204600</v>
       </c>
       <c r="G76" s="3">
-        <v>3648800</v>
+        <v>4017000</v>
       </c>
       <c r="H76" s="3">
-        <v>3413800</v>
+        <v>3802100</v>
       </c>
       <c r="I76" s="3">
-        <v>3254300</v>
+        <v>3557200</v>
       </c>
       <c r="J76" s="3">
+        <v>3391000</v>
+      </c>
+      <c r="K76" s="3">
         <v>3105800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3023400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2768800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3029300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>615800</v>
+        <v>960900</v>
       </c>
       <c r="E81" s="3">
-        <v>657000</v>
+        <v>641600</v>
       </c>
       <c r="F81" s="3">
-        <v>704400</v>
+        <v>684600</v>
       </c>
       <c r="G81" s="3">
-        <v>672100</v>
+        <v>734000</v>
       </c>
       <c r="H81" s="3">
-        <v>562100</v>
+        <v>700400</v>
       </c>
       <c r="I81" s="3">
-        <v>534200</v>
+        <v>585700</v>
       </c>
       <c r="J81" s="3">
+        <v>556600</v>
+      </c>
+      <c r="K81" s="3">
         <v>678200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>574500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>456300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>590500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>130200</v>
+        <v>151300</v>
       </c>
       <c r="E83" s="3">
-        <v>126200</v>
+        <v>135700</v>
       </c>
       <c r="F83" s="3">
-        <v>94300</v>
+        <v>131600</v>
       </c>
       <c r="G83" s="3">
-        <v>92600</v>
+        <v>98300</v>
       </c>
       <c r="H83" s="3">
-        <v>77800</v>
+        <v>96500</v>
       </c>
       <c r="I83" s="3">
-        <v>63800</v>
+        <v>81000</v>
       </c>
       <c r="J83" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K83" s="3">
         <v>52500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>79400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>72200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>78600</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-985600</v>
+        <v>-741400</v>
       </c>
       <c r="E89" s="3">
-        <v>2167100</v>
+        <v>-1027000</v>
       </c>
       <c r="F89" s="3">
-        <v>1216800</v>
+        <v>2258100</v>
       </c>
       <c r="G89" s="3">
-        <v>-477400</v>
+        <v>1267900</v>
       </c>
       <c r="H89" s="3">
-        <v>895200</v>
+        <v>-497500</v>
       </c>
       <c r="I89" s="3">
-        <v>830800</v>
+        <v>932800</v>
       </c>
       <c r="J89" s="3">
+        <v>865800</v>
+      </c>
+      <c r="K89" s="3">
         <v>346700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>696000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1477000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2288600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40800</v>
+        <v>-58600</v>
       </c>
       <c r="E91" s="3">
-        <v>-59900</v>
+        <v>-42500</v>
       </c>
       <c r="F91" s="3">
-        <v>-81300</v>
+        <v>-62500</v>
       </c>
       <c r="G91" s="3">
-        <v>-69900</v>
+        <v>-84700</v>
       </c>
       <c r="H91" s="3">
-        <v>-74200</v>
+        <v>-72900</v>
       </c>
       <c r="I91" s="3">
-        <v>-77500</v>
+        <v>-77300</v>
       </c>
       <c r="J91" s="3">
+        <v>-80700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-70300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-53000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-47000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-39200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-73700</v>
+        <v>-100500</v>
       </c>
       <c r="E94" s="3">
-        <v>-163500</v>
+        <v>-76700</v>
       </c>
       <c r="F94" s="3">
-        <v>-109000</v>
+        <v>-170400</v>
       </c>
       <c r="G94" s="3">
-        <v>-87400</v>
+        <v>-113600</v>
       </c>
       <c r="H94" s="3">
-        <v>-107300</v>
+        <v>-91100</v>
       </c>
       <c r="I94" s="3">
-        <v>-110500</v>
+        <v>-111800</v>
       </c>
       <c r="J94" s="3">
+        <v>-115200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-110300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>39000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-92300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-76600</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-394200</v>
+        <v>-385000</v>
       </c>
       <c r="E96" s="3">
-        <v>-422600</v>
+        <v>-410800</v>
       </c>
       <c r="F96" s="3">
-        <v>-504100</v>
+        <v>-440400</v>
       </c>
       <c r="G96" s="3">
-        <v>-393500</v>
+        <v>-525300</v>
       </c>
       <c r="H96" s="3">
-        <v>-400600</v>
+        <v>-410000</v>
       </c>
       <c r="I96" s="3">
-        <v>-392900</v>
+        <v>-417500</v>
       </c>
       <c r="J96" s="3">
+        <v>-409400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-315500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-302600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-334100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-420900</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>121500</v>
+        <v>295900</v>
       </c>
       <c r="E100" s="3">
-        <v>-422600</v>
+        <v>126600</v>
       </c>
       <c r="F100" s="3">
-        <v>-504100</v>
+        <v>-440400</v>
       </c>
       <c r="G100" s="3">
-        <v>-411500</v>
+        <v>-525300</v>
       </c>
       <c r="H100" s="3">
-        <v>-419800</v>
+        <v>-428800</v>
       </c>
       <c r="I100" s="3">
-        <v>-405300</v>
+        <v>-437500</v>
       </c>
       <c r="J100" s="3">
+        <v>-422300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-326100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-170200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-339500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-425400</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-34200</v>
+        <v>542600</v>
       </c>
       <c r="E101" s="3">
-        <v>150700</v>
+        <v>-35600</v>
       </c>
       <c r="F101" s="3">
-        <v>136300</v>
+        <v>157100</v>
       </c>
       <c r="G101" s="3">
-        <v>-37400</v>
+        <v>142000</v>
       </c>
       <c r="H101" s="3">
-        <v>-178800</v>
+        <v>-38900</v>
       </c>
       <c r="I101" s="3">
-        <v>242100</v>
+        <v>-186300</v>
       </c>
       <c r="J101" s="3">
+        <v>252300</v>
+      </c>
+      <c r="K101" s="3">
         <v>41500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-26900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-104600</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-971900</v>
+        <v>-3400</v>
       </c>
       <c r="E102" s="3">
-        <v>1731700</v>
+        <v>-1012700</v>
       </c>
       <c r="F102" s="3">
-        <v>740000</v>
+        <v>1804400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1013700</v>
+        <v>771000</v>
       </c>
       <c r="H102" s="3">
-        <v>189200</v>
+        <v>-1056300</v>
       </c>
       <c r="I102" s="3">
-        <v>557100</v>
+        <v>197200</v>
       </c>
       <c r="J102" s="3">
+        <v>580500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-48200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>537900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1913500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1682000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3622200</v>
+        <v>3388500</v>
       </c>
       <c r="E8" s="3">
-        <v>2768100</v>
+        <v>2589500</v>
       </c>
       <c r="F8" s="3">
-        <v>2878400</v>
+        <v>2692700</v>
       </c>
       <c r="G8" s="3">
-        <v>2783000</v>
+        <v>2603400</v>
       </c>
       <c r="H8" s="3">
-        <v>2552500</v>
+        <v>2387800</v>
       </c>
       <c r="I8" s="3">
-        <v>2649900</v>
+        <v>2479000</v>
       </c>
       <c r="J8" s="3">
-        <v>2586600</v>
+        <v>2419700</v>
       </c>
       <c r="K8" s="3">
         <v>2650200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-151300</v>
+        <v>-141600</v>
       </c>
       <c r="E15" s="3">
-        <v>-135700</v>
+        <v>-126900</v>
       </c>
       <c r="F15" s="3">
-        <v>-131600</v>
+        <v>-123100</v>
       </c>
       <c r="G15" s="3">
-        <v>-98300</v>
+        <v>-92000</v>
       </c>
       <c r="H15" s="3">
-        <v>-96500</v>
+        <v>-90300</v>
       </c>
       <c r="I15" s="3">
-        <v>-81000</v>
+        <v>-75800</v>
       </c>
       <c r="J15" s="3">
-        <v>-66500</v>
+        <v>-62200</v>
       </c>
       <c r="K15" s="3">
         <v>-52600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1872800</v>
+        <v>1752000</v>
       </c>
       <c r="E17" s="3">
-        <v>1425400</v>
+        <v>1333500</v>
       </c>
       <c r="F17" s="3">
-        <v>1642800</v>
+        <v>1536800</v>
       </c>
       <c r="G17" s="3">
-        <v>1432200</v>
+        <v>1339800</v>
       </c>
       <c r="H17" s="3">
-        <v>1278400</v>
+        <v>1195900</v>
       </c>
       <c r="I17" s="3">
-        <v>1486700</v>
+        <v>1390800</v>
       </c>
       <c r="J17" s="3">
-        <v>1543200</v>
+        <v>1443600</v>
       </c>
       <c r="K17" s="3">
         <v>1505100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1749400</v>
+        <v>1636500</v>
       </c>
       <c r="E18" s="3">
-        <v>1342600</v>
+        <v>1256000</v>
       </c>
       <c r="F18" s="3">
-        <v>1235500</v>
+        <v>1155800</v>
       </c>
       <c r="G18" s="3">
-        <v>1350700</v>
+        <v>1263600</v>
       </c>
       <c r="H18" s="3">
-        <v>1274100</v>
+        <v>1191900</v>
       </c>
       <c r="I18" s="3">
-        <v>1163200</v>
+        <v>1088200</v>
       </c>
       <c r="J18" s="3">
-        <v>1043500</v>
+        <v>976200</v>
       </c>
       <c r="K18" s="3">
         <v>1145000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-534700</v>
+        <v>-500200</v>
       </c>
       <c r="E20" s="3">
-        <v>-532100</v>
+        <v>-497700</v>
       </c>
       <c r="F20" s="3">
+        <v>-340800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-379500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-355700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-413200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-364300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-405600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-380200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-441700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-389400</v>
       </c>
       <c r="K20" s="3">
         <v>-399000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1366100</v>
+        <v>1277900</v>
       </c>
       <c r="E21" s="3">
-        <v>946300</v>
+        <v>885200</v>
       </c>
       <c r="F21" s="3">
-        <v>1002800</v>
+        <v>938100</v>
       </c>
       <c r="G21" s="3">
-        <v>1043400</v>
+        <v>976100</v>
       </c>
       <c r="H21" s="3">
-        <v>990400</v>
+        <v>926500</v>
       </c>
       <c r="I21" s="3">
-        <v>802500</v>
+        <v>750700</v>
       </c>
       <c r="J21" s="3">
-        <v>720500</v>
+        <v>674000</v>
       </c>
       <c r="K21" s="3">
         <v>799000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1214700</v>
+        <v>1136300</v>
       </c>
       <c r="E23" s="3">
-        <v>810600</v>
+        <v>758300</v>
       </c>
       <c r="F23" s="3">
-        <v>871300</v>
+        <v>815100</v>
       </c>
       <c r="G23" s="3">
-        <v>945100</v>
+        <v>884100</v>
       </c>
       <c r="H23" s="3">
-        <v>893900</v>
+        <v>836200</v>
       </c>
       <c r="I23" s="3">
-        <v>721500</v>
+        <v>674900</v>
       </c>
       <c r="J23" s="3">
-        <v>654000</v>
+        <v>611800</v>
       </c>
       <c r="K23" s="3">
         <v>746100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>241400</v>
+        <v>225800</v>
       </c>
       <c r="E24" s="3">
-        <v>162600</v>
+        <v>152100</v>
       </c>
       <c r="F24" s="3">
-        <v>186200</v>
+        <v>174200</v>
       </c>
       <c r="G24" s="3">
-        <v>205700</v>
+        <v>192400</v>
       </c>
       <c r="H24" s="3">
-        <v>178100</v>
+        <v>166600</v>
       </c>
       <c r="I24" s="3">
-        <v>132800</v>
+        <v>124300</v>
       </c>
       <c r="J24" s="3">
-        <v>93400</v>
+        <v>87300</v>
       </c>
       <c r="K24" s="3">
         <v>60700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>973300</v>
+        <v>910500</v>
       </c>
       <c r="E26" s="3">
-        <v>648000</v>
+        <v>606200</v>
       </c>
       <c r="F26" s="3">
-        <v>685100</v>
+        <v>640900</v>
       </c>
       <c r="G26" s="3">
-        <v>739400</v>
+        <v>691700</v>
       </c>
       <c r="H26" s="3">
-        <v>715800</v>
+        <v>669600</v>
       </c>
       <c r="I26" s="3">
-        <v>588600</v>
+        <v>550700</v>
       </c>
       <c r="J26" s="3">
-        <v>560700</v>
+        <v>524500</v>
       </c>
       <c r="K26" s="3">
         <v>685300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>960900</v>
+        <v>899000</v>
       </c>
       <c r="E27" s="3">
-        <v>641600</v>
+        <v>600200</v>
       </c>
       <c r="F27" s="3">
-        <v>682500</v>
+        <v>638500</v>
       </c>
       <c r="G27" s="3">
-        <v>734000</v>
+        <v>686600</v>
       </c>
       <c r="H27" s="3">
-        <v>700400</v>
+        <v>655200</v>
       </c>
       <c r="I27" s="3">
-        <v>585700</v>
+        <v>547900</v>
       </c>
       <c r="J27" s="3">
-        <v>556600</v>
+        <v>520700</v>
       </c>
       <c r="K27" s="3">
         <v>678200</v>
@@ -1479,7 +1479,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>534700</v>
+        <v>500200</v>
       </c>
       <c r="E32" s="3">
-        <v>532100</v>
+        <v>497700</v>
       </c>
       <c r="F32" s="3">
+        <v>340800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>379500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>355700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>413200</v>
+      </c>
+      <c r="J32" s="3">
         <v>364300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>405600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>380200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>441700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>389400</v>
       </c>
       <c r="K32" s="3">
         <v>399000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>960900</v>
+        <v>899000</v>
       </c>
       <c r="E33" s="3">
-        <v>641600</v>
+        <v>600200</v>
       </c>
       <c r="F33" s="3">
-        <v>684600</v>
+        <v>640400</v>
       </c>
       <c r="G33" s="3">
-        <v>734000</v>
+        <v>686600</v>
       </c>
       <c r="H33" s="3">
-        <v>700400</v>
+        <v>655200</v>
       </c>
       <c r="I33" s="3">
-        <v>585700</v>
+        <v>547900</v>
       </c>
       <c r="J33" s="3">
-        <v>556600</v>
+        <v>520700</v>
       </c>
       <c r="K33" s="3">
         <v>678200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>960900</v>
+        <v>899000</v>
       </c>
       <c r="E35" s="3">
-        <v>641600</v>
+        <v>600200</v>
       </c>
       <c r="F35" s="3">
-        <v>684600</v>
+        <v>640400</v>
       </c>
       <c r="G35" s="3">
-        <v>734000</v>
+        <v>686600</v>
       </c>
       <c r="H35" s="3">
-        <v>700400</v>
+        <v>655200</v>
       </c>
       <c r="I35" s="3">
-        <v>585700</v>
+        <v>547900</v>
       </c>
       <c r="J35" s="3">
-        <v>556600</v>
+        <v>520700</v>
       </c>
       <c r="K35" s="3">
         <v>678200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2414800</v>
+        <v>2259000</v>
       </c>
       <c r="E41" s="3">
-        <v>3038800</v>
+        <v>2842800</v>
       </c>
       <c r="F41" s="3">
-        <v>3673100</v>
+        <v>3436100</v>
       </c>
       <c r="G41" s="3">
-        <v>2661900</v>
+        <v>2490200</v>
       </c>
       <c r="H41" s="3">
-        <v>2338400</v>
+        <v>2187500</v>
       </c>
       <c r="I41" s="3">
-        <v>2288400</v>
+        <v>2140800</v>
       </c>
       <c r="J41" s="3">
-        <v>1924900</v>
+        <v>1800700</v>
       </c>
       <c r="K41" s="3">
         <v>2561100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14287900</v>
+        <v>13366100</v>
       </c>
       <c r="E42" s="3">
-        <v>12388900</v>
+        <v>11589600</v>
       </c>
       <c r="F42" s="3">
-        <v>11633400</v>
+        <v>10882800</v>
       </c>
       <c r="G42" s="3">
-        <v>4297500</v>
+        <v>4020300</v>
       </c>
       <c r="H42" s="3">
-        <v>3872200</v>
+        <v>3622400</v>
       </c>
       <c r="I42" s="3">
-        <v>5092400</v>
+        <v>4763800</v>
       </c>
       <c r="J42" s="3">
-        <v>5928400</v>
+        <v>5545900</v>
       </c>
       <c r="K42" s="3">
         <v>4168300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>44600</v>
+        <v>41700</v>
       </c>
       <c r="E47" s="3">
-        <v>13400</v>
+        <v>12500</v>
       </c>
       <c r="F47" s="3">
-        <v>13000</v>
+        <v>12100</v>
       </c>
       <c r="G47" s="3">
-        <v>40000</v>
+        <v>37500</v>
       </c>
       <c r="H47" s="3">
-        <v>34200</v>
+        <v>32000</v>
       </c>
       <c r="I47" s="3">
-        <v>29500</v>
+        <v>27600</v>
       </c>
       <c r="J47" s="3">
-        <v>25200</v>
+        <v>23600</v>
       </c>
       <c r="K47" s="3">
         <v>21300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>464800</v>
+        <v>434800</v>
       </c>
       <c r="E48" s="3">
-        <v>482200</v>
+        <v>451100</v>
       </c>
       <c r="F48" s="3">
-        <v>506300</v>
+        <v>473700</v>
       </c>
       <c r="G48" s="3">
-        <v>314400</v>
+        <v>294200</v>
       </c>
       <c r="H48" s="3">
-        <v>300800</v>
+        <v>281400</v>
       </c>
       <c r="I48" s="3">
-        <v>319100</v>
+        <v>298600</v>
       </c>
       <c r="J48" s="3">
-        <v>298400</v>
+        <v>279200</v>
       </c>
       <c r="K48" s="3">
         <v>251800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>118300</v>
+        <v>110700</v>
       </c>
       <c r="E49" s="3">
-        <v>102300</v>
+        <v>95700</v>
       </c>
       <c r="F49" s="3">
-        <v>91000</v>
+        <v>85100</v>
       </c>
       <c r="G49" s="3">
-        <v>83000</v>
+        <v>77600</v>
       </c>
       <c r="H49" s="3">
-        <v>78400</v>
+        <v>73300</v>
       </c>
       <c r="I49" s="3">
-        <v>72000</v>
+        <v>67400</v>
       </c>
       <c r="J49" s="3">
-        <v>63400</v>
+        <v>59300</v>
       </c>
       <c r="K49" s="3">
         <v>48800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>942700</v>
+        <v>881900</v>
       </c>
       <c r="E52" s="3">
-        <v>695400</v>
+        <v>650600</v>
       </c>
       <c r="F52" s="3">
-        <v>574800</v>
+        <v>537700</v>
       </c>
       <c r="G52" s="3">
-        <v>475900</v>
+        <v>445200</v>
       </c>
       <c r="H52" s="3">
-        <v>479300</v>
+        <v>448400</v>
       </c>
       <c r="I52" s="3">
-        <v>464200</v>
+        <v>434200</v>
       </c>
       <c r="J52" s="3">
-        <v>413700</v>
+        <v>387000</v>
       </c>
       <c r="K52" s="3">
         <v>338000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>78952100</v>
+        <v>73858400</v>
       </c>
       <c r="E54" s="3">
-        <v>69162300</v>
+        <v>64700200</v>
       </c>
       <c r="F54" s="3">
-        <v>62717000</v>
+        <v>58670800</v>
       </c>
       <c r="G54" s="3">
-        <v>48604700</v>
+        <v>45468900</v>
       </c>
       <c r="H54" s="3">
-        <v>44397300</v>
+        <v>41533000</v>
       </c>
       <c r="I54" s="3">
-        <v>45888200</v>
+        <v>42927700</v>
       </c>
       <c r="J54" s="3">
-        <v>42971100</v>
+        <v>40198800</v>
       </c>
       <c r="K54" s="3">
         <v>36335700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>471100</v>
+        <v>440700</v>
       </c>
       <c r="E57" s="3">
-        <v>448400</v>
+        <v>419500</v>
       </c>
       <c r="F57" s="3">
-        <v>245800</v>
+        <v>230000</v>
       </c>
       <c r="G57" s="3">
-        <v>202200</v>
+        <v>189100</v>
       </c>
       <c r="H57" s="3">
-        <v>603500</v>
+        <v>564600</v>
       </c>
       <c r="I57" s="3">
-        <v>357700</v>
+        <v>334600</v>
       </c>
       <c r="J57" s="3">
-        <v>573100</v>
+        <v>536100</v>
       </c>
       <c r="K57" s="3">
         <v>334700</v>
@@ -2443,22 +2443,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6119700</v>
+        <v>5724900</v>
       </c>
       <c r="E58" s="3">
-        <v>4805700</v>
+        <v>4495600</v>
       </c>
       <c r="F58" s="3">
-        <v>6281000</v>
+        <v>5875800</v>
       </c>
       <c r="G58" s="3">
-        <v>3624700</v>
+        <v>3390900</v>
       </c>
       <c r="H58" s="3">
-        <v>3107500</v>
+        <v>2907000</v>
       </c>
       <c r="I58" s="3">
-        <v>4122000</v>
+        <v>3856000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>27200</v>
+        <v>25400</v>
       </c>
       <c r="E59" s="3">
-        <v>33600</v>
+        <v>31400</v>
       </c>
       <c r="F59" s="3">
-        <v>10100</v>
+        <v>9500</v>
       </c>
       <c r="G59" s="3">
-        <v>12500</v>
+        <v>11700</v>
       </c>
       <c r="H59" s="3">
-        <v>10300</v>
+        <v>9700</v>
       </c>
       <c r="I59" s="3">
-        <v>38800</v>
+        <v>36300</v>
       </c>
       <c r="J59" s="3">
-        <v>24100</v>
+        <v>22600</v>
       </c>
       <c r="K59" s="3">
         <v>3300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16801200</v>
+        <v>15717200</v>
       </c>
       <c r="E61" s="3">
-        <v>15113700</v>
+        <v>14138600</v>
       </c>
       <c r="F61" s="3">
-        <v>9838500</v>
+        <v>9203800</v>
       </c>
       <c r="G61" s="3">
-        <v>9185800</v>
+        <v>8593100</v>
       </c>
       <c r="H61" s="3">
-        <v>8671300</v>
+        <v>8111900</v>
       </c>
       <c r="I61" s="3">
-        <v>8091200</v>
+        <v>7569200</v>
       </c>
       <c r="J61" s="3">
-        <v>9281600</v>
+        <v>8682800</v>
       </c>
       <c r="K61" s="3">
         <v>8594000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1308900</v>
+        <v>1224400</v>
       </c>
       <c r="E62" s="3">
-        <v>725600</v>
+        <v>678800</v>
       </c>
       <c r="F62" s="3">
-        <v>541900</v>
+        <v>506900</v>
       </c>
       <c r="G62" s="3">
-        <v>428200</v>
+        <v>400600</v>
       </c>
       <c r="H62" s="3">
-        <v>414200</v>
+        <v>387400</v>
       </c>
       <c r="I62" s="3">
-        <v>392700</v>
+        <v>367300</v>
       </c>
       <c r="J62" s="3">
-        <v>412900</v>
+        <v>386300</v>
       </c>
       <c r="K62" s="3">
         <v>378700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>74735800</v>
+        <v>69914100</v>
       </c>
       <c r="E66" s="3">
-        <v>64738100</v>
+        <v>60561500</v>
       </c>
       <c r="F66" s="3">
-        <v>58512400</v>
+        <v>54737400</v>
       </c>
       <c r="G66" s="3">
-        <v>44587700</v>
+        <v>41711100</v>
       </c>
       <c r="H66" s="3">
-        <v>40595200</v>
+        <v>37976200</v>
       </c>
       <c r="I66" s="3">
-        <v>42331000</v>
+        <v>39600000</v>
       </c>
       <c r="J66" s="3">
-        <v>39580100</v>
+        <v>37026500</v>
       </c>
       <c r="K66" s="3">
         <v>33229900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3833400</v>
+        <v>3586100</v>
       </c>
       <c r="E72" s="3">
-        <v>3353200</v>
+        <v>3136900</v>
       </c>
       <c r="F72" s="3">
-        <v>3109400</v>
+        <v>2908800</v>
       </c>
       <c r="G72" s="3">
-        <v>2898300</v>
+        <v>2711300</v>
       </c>
       <c r="H72" s="3">
-        <v>2699700</v>
+        <v>2525500</v>
       </c>
       <c r="I72" s="3">
-        <v>2443700</v>
+        <v>2286100</v>
       </c>
       <c r="J72" s="3">
-        <v>2284200</v>
+        <v>2136800</v>
       </c>
       <c r="K72" s="3">
         <v>2014700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4216300</v>
+        <v>3944300</v>
       </c>
       <c r="E76" s="3">
-        <v>4424200</v>
+        <v>4138800</v>
       </c>
       <c r="F76" s="3">
-        <v>4204600</v>
+        <v>3933400</v>
       </c>
       <c r="G76" s="3">
-        <v>4017000</v>
+        <v>3757900</v>
       </c>
       <c r="H76" s="3">
-        <v>3802100</v>
+        <v>3556800</v>
       </c>
       <c r="I76" s="3">
-        <v>3557200</v>
+        <v>3327700</v>
       </c>
       <c r="J76" s="3">
-        <v>3391000</v>
+        <v>3172300</v>
       </c>
       <c r="K76" s="3">
         <v>3105800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>960900</v>
+        <v>899000</v>
       </c>
       <c r="E81" s="3">
-        <v>641600</v>
+        <v>600200</v>
       </c>
       <c r="F81" s="3">
-        <v>684600</v>
+        <v>640400</v>
       </c>
       <c r="G81" s="3">
-        <v>734000</v>
+        <v>686600</v>
       </c>
       <c r="H81" s="3">
-        <v>700400</v>
+        <v>655200</v>
       </c>
       <c r="I81" s="3">
-        <v>585700</v>
+        <v>547900</v>
       </c>
       <c r="J81" s="3">
-        <v>556600</v>
+        <v>520700</v>
       </c>
       <c r="K81" s="3">
         <v>678200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>151300</v>
+        <v>141600</v>
       </c>
       <c r="E83" s="3">
-        <v>135700</v>
+        <v>126900</v>
       </c>
       <c r="F83" s="3">
-        <v>131600</v>
+        <v>123100</v>
       </c>
       <c r="G83" s="3">
-        <v>98300</v>
+        <v>92000</v>
       </c>
       <c r="H83" s="3">
-        <v>96500</v>
+        <v>90300</v>
       </c>
       <c r="I83" s="3">
-        <v>81000</v>
+        <v>75800</v>
       </c>
       <c r="J83" s="3">
-        <v>66500</v>
+        <v>62200</v>
       </c>
       <c r="K83" s="3">
         <v>52500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-741400</v>
+        <v>-693600</v>
       </c>
       <c r="E89" s="3">
-        <v>-1027000</v>
+        <v>-960700</v>
       </c>
       <c r="F89" s="3">
-        <v>2258100</v>
+        <v>2112400</v>
       </c>
       <c r="G89" s="3">
-        <v>1267900</v>
+        <v>1186100</v>
       </c>
       <c r="H89" s="3">
-        <v>-497500</v>
+        <v>-465400</v>
       </c>
       <c r="I89" s="3">
-        <v>932800</v>
+        <v>872700</v>
       </c>
       <c r="J89" s="3">
-        <v>865800</v>
+        <v>809900</v>
       </c>
       <c r="K89" s="3">
         <v>346700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-58600</v>
+        <v>-54800</v>
       </c>
       <c r="E91" s="3">
-        <v>-42500</v>
+        <v>-39800</v>
       </c>
       <c r="F91" s="3">
-        <v>-62500</v>
+        <v>-58400</v>
       </c>
       <c r="G91" s="3">
-        <v>-84700</v>
+        <v>-79300</v>
       </c>
       <c r="H91" s="3">
-        <v>-72900</v>
+        <v>-68200</v>
       </c>
       <c r="I91" s="3">
-        <v>-77300</v>
+        <v>-72300</v>
       </c>
       <c r="J91" s="3">
-        <v>-80700</v>
+        <v>-75500</v>
       </c>
       <c r="K91" s="3">
         <v>-70300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100500</v>
+        <v>-94000</v>
       </c>
       <c r="E94" s="3">
-        <v>-76700</v>
+        <v>-71800</v>
       </c>
       <c r="F94" s="3">
-        <v>-170400</v>
+        <v>-159400</v>
       </c>
       <c r="G94" s="3">
-        <v>-113600</v>
+        <v>-106300</v>
       </c>
       <c r="H94" s="3">
-        <v>-91100</v>
+        <v>-85200</v>
       </c>
       <c r="I94" s="3">
-        <v>-111800</v>
+        <v>-104600</v>
       </c>
       <c r="J94" s="3">
-        <v>-115200</v>
+        <v>-107700</v>
       </c>
       <c r="K94" s="3">
         <v>-110300</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-385000</v>
+        <v>-360100</v>
       </c>
       <c r="E96" s="3">
-        <v>-410800</v>
+        <v>-384300</v>
       </c>
       <c r="F96" s="3">
-        <v>-440400</v>
+        <v>-412000</v>
       </c>
       <c r="G96" s="3">
-        <v>-525300</v>
+        <v>-491400</v>
       </c>
       <c r="H96" s="3">
-        <v>-410000</v>
+        <v>-383500</v>
       </c>
       <c r="I96" s="3">
-        <v>-417500</v>
+        <v>-390500</v>
       </c>
       <c r="J96" s="3">
-        <v>-409400</v>
+        <v>-383000</v>
       </c>
       <c r="K96" s="3">
         <v>-315500</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>295900</v>
+        <v>276800</v>
       </c>
       <c r="E100" s="3">
-        <v>126600</v>
+        <v>118400</v>
       </c>
       <c r="F100" s="3">
-        <v>-440400</v>
+        <v>-412000</v>
       </c>
       <c r="G100" s="3">
-        <v>-525300</v>
+        <v>-491400</v>
       </c>
       <c r="H100" s="3">
-        <v>-428800</v>
+        <v>-401100</v>
       </c>
       <c r="I100" s="3">
-        <v>-437500</v>
+        <v>-409200</v>
       </c>
       <c r="J100" s="3">
-        <v>-422300</v>
+        <v>-395100</v>
       </c>
       <c r="K100" s="3">
         <v>-326100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>542600</v>
+        <v>507600</v>
       </c>
       <c r="E101" s="3">
-        <v>-35600</v>
+        <v>-33300</v>
       </c>
       <c r="F101" s="3">
-        <v>157100</v>
+        <v>146900</v>
       </c>
       <c r="G101" s="3">
-        <v>142000</v>
+        <v>132800</v>
       </c>
       <c r="H101" s="3">
-        <v>-38900</v>
+        <v>-36400</v>
       </c>
       <c r="I101" s="3">
-        <v>-186300</v>
+        <v>-174300</v>
       </c>
       <c r="J101" s="3">
-        <v>252300</v>
+        <v>236000</v>
       </c>
       <c r="K101" s="3">
         <v>41500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1012700</v>
+        <v>-947400</v>
       </c>
       <c r="F102" s="3">
-        <v>1804400</v>
+        <v>1688000</v>
       </c>
       <c r="G102" s="3">
-        <v>771000</v>
+        <v>721300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1056300</v>
+        <v>-988200</v>
       </c>
       <c r="I102" s="3">
-        <v>197200</v>
+        <v>184500</v>
       </c>
       <c r="J102" s="3">
-        <v>580500</v>
+        <v>543100</v>
       </c>
       <c r="K102" s="3">
         <v>-48200</v>

--- a/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3388500</v>
+        <v>3242400</v>
       </c>
       <c r="E8" s="3">
-        <v>2589500</v>
+        <v>2477900</v>
       </c>
       <c r="F8" s="3">
-        <v>2692700</v>
+        <v>2576600</v>
       </c>
       <c r="G8" s="3">
-        <v>2603400</v>
+        <v>2491200</v>
       </c>
       <c r="H8" s="3">
-        <v>2387800</v>
+        <v>2284900</v>
       </c>
       <c r="I8" s="3">
-        <v>2479000</v>
+        <v>2372100</v>
       </c>
       <c r="J8" s="3">
-        <v>2419700</v>
+        <v>2315400</v>
       </c>
       <c r="K8" s="3">
         <v>2650200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-141600</v>
+        <v>-135500</v>
       </c>
       <c r="E15" s="3">
-        <v>-126900</v>
+        <v>-121500</v>
       </c>
       <c r="F15" s="3">
-        <v>-123100</v>
+        <v>-117800</v>
       </c>
       <c r="G15" s="3">
-        <v>-92000</v>
+        <v>-88000</v>
       </c>
       <c r="H15" s="3">
-        <v>-90300</v>
+        <v>-86400</v>
       </c>
       <c r="I15" s="3">
-        <v>-75800</v>
+        <v>-72500</v>
       </c>
       <c r="J15" s="3">
-        <v>-62200</v>
+        <v>-59500</v>
       </c>
       <c r="K15" s="3">
         <v>-52600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1752000</v>
+        <v>1676500</v>
       </c>
       <c r="E17" s="3">
-        <v>1333500</v>
+        <v>1276000</v>
       </c>
       <c r="F17" s="3">
-        <v>1536800</v>
+        <v>1470600</v>
       </c>
       <c r="G17" s="3">
-        <v>1339800</v>
+        <v>1282100</v>
       </c>
       <c r="H17" s="3">
-        <v>1195900</v>
+        <v>1144400</v>
       </c>
       <c r="I17" s="3">
-        <v>1390800</v>
+        <v>1330900</v>
       </c>
       <c r="J17" s="3">
-        <v>1443600</v>
+        <v>1381400</v>
       </c>
       <c r="K17" s="3">
         <v>1505100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1636500</v>
+        <v>1566000</v>
       </c>
       <c r="E18" s="3">
-        <v>1256000</v>
+        <v>1201900</v>
       </c>
       <c r="F18" s="3">
-        <v>1155800</v>
+        <v>1106000</v>
       </c>
       <c r="G18" s="3">
-        <v>1263600</v>
+        <v>1209100</v>
       </c>
       <c r="H18" s="3">
-        <v>1191900</v>
+        <v>1140500</v>
       </c>
       <c r="I18" s="3">
-        <v>1088200</v>
+        <v>1041300</v>
       </c>
       <c r="J18" s="3">
-        <v>976200</v>
+        <v>934100</v>
       </c>
       <c r="K18" s="3">
         <v>1145000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-500200</v>
+        <v>-478600</v>
       </c>
       <c r="E20" s="3">
-        <v>-497700</v>
+        <v>-476300</v>
       </c>
       <c r="F20" s="3">
-        <v>-340800</v>
+        <v>-326100</v>
       </c>
       <c r="G20" s="3">
-        <v>-379500</v>
+        <v>-363100</v>
       </c>
       <c r="H20" s="3">
-        <v>-355700</v>
+        <v>-340300</v>
       </c>
       <c r="I20" s="3">
-        <v>-413200</v>
+        <v>-395400</v>
       </c>
       <c r="J20" s="3">
-        <v>-364300</v>
+        <v>-348600</v>
       </c>
       <c r="K20" s="3">
         <v>-399000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1277900</v>
+        <v>1220400</v>
       </c>
       <c r="E21" s="3">
-        <v>885200</v>
+        <v>844900</v>
       </c>
       <c r="F21" s="3">
-        <v>938100</v>
+        <v>895600</v>
       </c>
       <c r="G21" s="3">
-        <v>976100</v>
+        <v>932400</v>
       </c>
       <c r="H21" s="3">
-        <v>926500</v>
+        <v>885000</v>
       </c>
       <c r="I21" s="3">
-        <v>750700</v>
+        <v>717100</v>
       </c>
       <c r="J21" s="3">
-        <v>674000</v>
+        <v>643900</v>
       </c>
       <c r="K21" s="3">
         <v>799000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1136300</v>
+        <v>1087400</v>
       </c>
       <c r="E23" s="3">
-        <v>758300</v>
+        <v>725600</v>
       </c>
       <c r="F23" s="3">
-        <v>815100</v>
+        <v>779900</v>
       </c>
       <c r="G23" s="3">
-        <v>884100</v>
+        <v>846000</v>
       </c>
       <c r="H23" s="3">
-        <v>836200</v>
+        <v>800200</v>
       </c>
       <c r="I23" s="3">
-        <v>674900</v>
+        <v>645800</v>
       </c>
       <c r="J23" s="3">
-        <v>611800</v>
+        <v>585500</v>
       </c>
       <c r="K23" s="3">
         <v>746100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>225800</v>
+        <v>216100</v>
       </c>
       <c r="E24" s="3">
-        <v>152100</v>
+        <v>145500</v>
       </c>
       <c r="F24" s="3">
-        <v>174200</v>
+        <v>166700</v>
       </c>
       <c r="G24" s="3">
-        <v>192400</v>
+        <v>184100</v>
       </c>
       <c r="H24" s="3">
-        <v>166600</v>
+        <v>159400</v>
       </c>
       <c r="I24" s="3">
-        <v>124300</v>
+        <v>118900</v>
       </c>
       <c r="J24" s="3">
-        <v>87300</v>
+        <v>83600</v>
       </c>
       <c r="K24" s="3">
         <v>60700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>910500</v>
+        <v>871300</v>
       </c>
       <c r="E26" s="3">
-        <v>606200</v>
+        <v>580000</v>
       </c>
       <c r="F26" s="3">
-        <v>640900</v>
+        <v>613200</v>
       </c>
       <c r="G26" s="3">
-        <v>691700</v>
+        <v>661900</v>
       </c>
       <c r="H26" s="3">
-        <v>669600</v>
+        <v>640800</v>
       </c>
       <c r="I26" s="3">
-        <v>550700</v>
+        <v>526900</v>
       </c>
       <c r="J26" s="3">
-        <v>524500</v>
+        <v>501900</v>
       </c>
       <c r="K26" s="3">
         <v>685300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>899000</v>
+        <v>860200</v>
       </c>
       <c r="E27" s="3">
-        <v>600200</v>
+        <v>574400</v>
       </c>
       <c r="F27" s="3">
-        <v>638500</v>
+        <v>610900</v>
       </c>
       <c r="G27" s="3">
-        <v>686600</v>
+        <v>657000</v>
       </c>
       <c r="H27" s="3">
-        <v>655200</v>
+        <v>626900</v>
       </c>
       <c r="I27" s="3">
-        <v>547900</v>
+        <v>524300</v>
       </c>
       <c r="J27" s="3">
-        <v>520700</v>
+        <v>498300</v>
       </c>
       <c r="K27" s="3">
         <v>678200</v>
@@ -1479,7 +1479,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>500200</v>
+        <v>478600</v>
       </c>
       <c r="E32" s="3">
-        <v>497700</v>
+        <v>476300</v>
       </c>
       <c r="F32" s="3">
-        <v>340800</v>
+        <v>326100</v>
       </c>
       <c r="G32" s="3">
-        <v>379500</v>
+        <v>363100</v>
       </c>
       <c r="H32" s="3">
-        <v>355700</v>
+        <v>340300</v>
       </c>
       <c r="I32" s="3">
-        <v>413200</v>
+        <v>395400</v>
       </c>
       <c r="J32" s="3">
-        <v>364300</v>
+        <v>348600</v>
       </c>
       <c r="K32" s="3">
         <v>399000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>899000</v>
+        <v>860200</v>
       </c>
       <c r="E33" s="3">
-        <v>600200</v>
+        <v>574400</v>
       </c>
       <c r="F33" s="3">
-        <v>640400</v>
+        <v>612800</v>
       </c>
       <c r="G33" s="3">
-        <v>686600</v>
+        <v>657000</v>
       </c>
       <c r="H33" s="3">
-        <v>655200</v>
+        <v>626900</v>
       </c>
       <c r="I33" s="3">
-        <v>547900</v>
+        <v>524300</v>
       </c>
       <c r="J33" s="3">
-        <v>520700</v>
+        <v>498300</v>
       </c>
       <c r="K33" s="3">
         <v>678200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>899000</v>
+        <v>860200</v>
       </c>
       <c r="E35" s="3">
-        <v>600200</v>
+        <v>574400</v>
       </c>
       <c r="F35" s="3">
-        <v>640400</v>
+        <v>612800</v>
       </c>
       <c r="G35" s="3">
-        <v>686600</v>
+        <v>657000</v>
       </c>
       <c r="H35" s="3">
-        <v>655200</v>
+        <v>626900</v>
       </c>
       <c r="I35" s="3">
-        <v>547900</v>
+        <v>524300</v>
       </c>
       <c r="J35" s="3">
-        <v>520700</v>
+        <v>498300</v>
       </c>
       <c r="K35" s="3">
         <v>678200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2259000</v>
+        <v>2161600</v>
       </c>
       <c r="E41" s="3">
-        <v>2842800</v>
+        <v>2720200</v>
       </c>
       <c r="F41" s="3">
-        <v>3436100</v>
+        <v>3288000</v>
       </c>
       <c r="G41" s="3">
-        <v>2490200</v>
+        <v>2382800</v>
       </c>
       <c r="H41" s="3">
-        <v>2187500</v>
+        <v>2093200</v>
       </c>
       <c r="I41" s="3">
-        <v>2140800</v>
+        <v>2048500</v>
       </c>
       <c r="J41" s="3">
-        <v>1800700</v>
+        <v>1723100</v>
       </c>
       <c r="K41" s="3">
         <v>2561100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13366100</v>
+        <v>12790000</v>
       </c>
       <c r="E42" s="3">
-        <v>11589600</v>
+        <v>11090100</v>
       </c>
       <c r="F42" s="3">
-        <v>10882800</v>
+        <v>10413700</v>
       </c>
       <c r="G42" s="3">
-        <v>4020300</v>
+        <v>3847000</v>
       </c>
       <c r="H42" s="3">
-        <v>3622400</v>
+        <v>3466200</v>
       </c>
       <c r="I42" s="3">
-        <v>4763800</v>
+        <v>4558500</v>
       </c>
       <c r="J42" s="3">
-        <v>5545900</v>
+        <v>5306900</v>
       </c>
       <c r="K42" s="3">
         <v>4168300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41700</v>
+        <v>39900</v>
       </c>
       <c r="E47" s="3">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="F47" s="3">
-        <v>12100</v>
+        <v>11600</v>
       </c>
       <c r="G47" s="3">
-        <v>37500</v>
+        <v>35800</v>
       </c>
       <c r="H47" s="3">
-        <v>32000</v>
+        <v>30600</v>
       </c>
       <c r="I47" s="3">
-        <v>27600</v>
+        <v>26400</v>
       </c>
       <c r="J47" s="3">
-        <v>23600</v>
+        <v>22500</v>
       </c>
       <c r="K47" s="3">
         <v>21300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>434800</v>
+        <v>416000</v>
       </c>
       <c r="E48" s="3">
-        <v>451100</v>
+        <v>431600</v>
       </c>
       <c r="F48" s="3">
-        <v>473700</v>
+        <v>453200</v>
       </c>
       <c r="G48" s="3">
-        <v>294200</v>
+        <v>281500</v>
       </c>
       <c r="H48" s="3">
-        <v>281400</v>
+        <v>269200</v>
       </c>
       <c r="I48" s="3">
-        <v>298600</v>
+        <v>285700</v>
       </c>
       <c r="J48" s="3">
-        <v>279200</v>
+        <v>267100</v>
       </c>
       <c r="K48" s="3">
         <v>251800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>110700</v>
+        <v>105900</v>
       </c>
       <c r="E49" s="3">
-        <v>95700</v>
+        <v>91600</v>
       </c>
       <c r="F49" s="3">
-        <v>85100</v>
+        <v>81500</v>
       </c>
       <c r="G49" s="3">
-        <v>77600</v>
+        <v>74300</v>
       </c>
       <c r="H49" s="3">
-        <v>73300</v>
+        <v>70200</v>
       </c>
       <c r="I49" s="3">
-        <v>67400</v>
+        <v>64500</v>
       </c>
       <c r="J49" s="3">
-        <v>59300</v>
+        <v>56800</v>
       </c>
       <c r="K49" s="3">
         <v>48800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>881900</v>
+        <v>843800</v>
       </c>
       <c r="E52" s="3">
-        <v>650600</v>
+        <v>622500</v>
       </c>
       <c r="F52" s="3">
-        <v>537700</v>
+        <v>514500</v>
       </c>
       <c r="G52" s="3">
-        <v>445200</v>
+        <v>426000</v>
       </c>
       <c r="H52" s="3">
-        <v>448400</v>
+        <v>429000</v>
       </c>
       <c r="I52" s="3">
-        <v>434200</v>
+        <v>415500</v>
       </c>
       <c r="J52" s="3">
-        <v>387000</v>
+        <v>370300</v>
       </c>
       <c r="K52" s="3">
         <v>338000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>73858400</v>
+        <v>70674800</v>
       </c>
       <c r="E54" s="3">
-        <v>64700200</v>
+        <v>61911400</v>
       </c>
       <c r="F54" s="3">
-        <v>58670800</v>
+        <v>56141900</v>
       </c>
       <c r="G54" s="3">
-        <v>45468900</v>
+        <v>43509100</v>
       </c>
       <c r="H54" s="3">
-        <v>41533000</v>
+        <v>39742700</v>
       </c>
       <c r="I54" s="3">
-        <v>42927700</v>
+        <v>41077400</v>
       </c>
       <c r="J54" s="3">
-        <v>40198800</v>
+        <v>38466100</v>
       </c>
       <c r="K54" s="3">
         <v>36335700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>440700</v>
+        <v>421700</v>
       </c>
       <c r="E57" s="3">
-        <v>419500</v>
+        <v>401400</v>
       </c>
       <c r="F57" s="3">
-        <v>230000</v>
+        <v>220100</v>
       </c>
       <c r="G57" s="3">
-        <v>189100</v>
+        <v>181000</v>
       </c>
       <c r="H57" s="3">
-        <v>564600</v>
+        <v>540300</v>
       </c>
       <c r="I57" s="3">
-        <v>334600</v>
+        <v>320200</v>
       </c>
       <c r="J57" s="3">
-        <v>536100</v>
+        <v>513000</v>
       </c>
       <c r="K57" s="3">
         <v>334700</v>
@@ -2443,22 +2443,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5724900</v>
+        <v>5478100</v>
       </c>
       <c r="E58" s="3">
-        <v>4495600</v>
+        <v>4301900</v>
       </c>
       <c r="F58" s="3">
-        <v>5875800</v>
+        <v>5622600</v>
       </c>
       <c r="G58" s="3">
-        <v>3390900</v>
+        <v>3244700</v>
       </c>
       <c r="H58" s="3">
-        <v>2907000</v>
+        <v>2781700</v>
       </c>
       <c r="I58" s="3">
-        <v>3856000</v>
+        <v>3689800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25400</v>
+        <v>24300</v>
       </c>
       <c r="E59" s="3">
-        <v>31400</v>
+        <v>30100</v>
       </c>
       <c r="F59" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="G59" s="3">
-        <v>11700</v>
+        <v>11200</v>
       </c>
       <c r="H59" s="3">
-        <v>9700</v>
+        <v>9200</v>
       </c>
       <c r="I59" s="3">
-        <v>36300</v>
+        <v>34700</v>
       </c>
       <c r="J59" s="3">
-        <v>22600</v>
+        <v>21600</v>
       </c>
       <c r="K59" s="3">
         <v>3300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15717200</v>
+        <v>15039800</v>
       </c>
       <c r="E61" s="3">
-        <v>14138600</v>
+        <v>13529200</v>
       </c>
       <c r="F61" s="3">
-        <v>9203800</v>
+        <v>8807100</v>
       </c>
       <c r="G61" s="3">
-        <v>8593100</v>
+        <v>8222700</v>
       </c>
       <c r="H61" s="3">
-        <v>8111900</v>
+        <v>7762200</v>
       </c>
       <c r="I61" s="3">
-        <v>7569200</v>
+        <v>7243000</v>
       </c>
       <c r="J61" s="3">
-        <v>8682800</v>
+        <v>8308600</v>
       </c>
       <c r="K61" s="3">
         <v>8594000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1224400</v>
+        <v>1171600</v>
       </c>
       <c r="E62" s="3">
-        <v>678800</v>
+        <v>649600</v>
       </c>
       <c r="F62" s="3">
-        <v>506900</v>
+        <v>485100</v>
       </c>
       <c r="G62" s="3">
-        <v>400600</v>
+        <v>383300</v>
       </c>
       <c r="H62" s="3">
-        <v>387400</v>
+        <v>370700</v>
       </c>
       <c r="I62" s="3">
-        <v>367300</v>
+        <v>351500</v>
       </c>
       <c r="J62" s="3">
-        <v>386300</v>
+        <v>369700</v>
       </c>
       <c r="K62" s="3">
         <v>378700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>69914100</v>
+        <v>66900600</v>
       </c>
       <c r="E66" s="3">
-        <v>60561500</v>
+        <v>57951100</v>
       </c>
       <c r="F66" s="3">
-        <v>54737400</v>
+        <v>52378000</v>
       </c>
       <c r="G66" s="3">
-        <v>41711100</v>
+        <v>39913200</v>
       </c>
       <c r="H66" s="3">
-        <v>37976200</v>
+        <v>36339300</v>
       </c>
       <c r="I66" s="3">
-        <v>39600000</v>
+        <v>37893100</v>
       </c>
       <c r="J66" s="3">
-        <v>37026500</v>
+        <v>35430500</v>
       </c>
       <c r="K66" s="3">
         <v>33229900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3586100</v>
+        <v>3431500</v>
       </c>
       <c r="E72" s="3">
-        <v>3136900</v>
+        <v>3001700</v>
       </c>
       <c r="F72" s="3">
-        <v>2908800</v>
+        <v>2783500</v>
       </c>
       <c r="G72" s="3">
-        <v>2711300</v>
+        <v>2594500</v>
       </c>
       <c r="H72" s="3">
-        <v>2525500</v>
+        <v>2416700</v>
       </c>
       <c r="I72" s="3">
-        <v>2286100</v>
+        <v>2187500</v>
       </c>
       <c r="J72" s="3">
-        <v>2136800</v>
+        <v>2044700</v>
       </c>
       <c r="K72" s="3">
         <v>2014700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3944300</v>
+        <v>3774200</v>
       </c>
       <c r="E76" s="3">
-        <v>4138800</v>
+        <v>3960400</v>
       </c>
       <c r="F76" s="3">
-        <v>3933400</v>
+        <v>3763800</v>
       </c>
       <c r="G76" s="3">
-        <v>3757900</v>
+        <v>3595900</v>
       </c>
       <c r="H76" s="3">
-        <v>3556800</v>
+        <v>3403500</v>
       </c>
       <c r="I76" s="3">
-        <v>3327700</v>
+        <v>3184300</v>
       </c>
       <c r="J76" s="3">
-        <v>3172300</v>
+        <v>3035500</v>
       </c>
       <c r="K76" s="3">
         <v>3105800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>899000</v>
+        <v>860200</v>
       </c>
       <c r="E81" s="3">
-        <v>600200</v>
+        <v>574400</v>
       </c>
       <c r="F81" s="3">
-        <v>640400</v>
+        <v>612800</v>
       </c>
       <c r="G81" s="3">
-        <v>686600</v>
+        <v>657000</v>
       </c>
       <c r="H81" s="3">
-        <v>655200</v>
+        <v>626900</v>
       </c>
       <c r="I81" s="3">
-        <v>547900</v>
+        <v>524300</v>
       </c>
       <c r="J81" s="3">
-        <v>520700</v>
+        <v>498300</v>
       </c>
       <c r="K81" s="3">
         <v>678200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>141600</v>
+        <v>135500</v>
       </c>
       <c r="E83" s="3">
-        <v>126900</v>
+        <v>121500</v>
       </c>
       <c r="F83" s="3">
-        <v>123100</v>
+        <v>117800</v>
       </c>
       <c r="G83" s="3">
-        <v>92000</v>
+        <v>88000</v>
       </c>
       <c r="H83" s="3">
-        <v>90300</v>
+        <v>86400</v>
       </c>
       <c r="I83" s="3">
-        <v>75800</v>
+        <v>72500</v>
       </c>
       <c r="J83" s="3">
-        <v>62200</v>
+        <v>59500</v>
       </c>
       <c r="K83" s="3">
         <v>52500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-693600</v>
+        <v>-663700</v>
       </c>
       <c r="E89" s="3">
-        <v>-960700</v>
+        <v>-919300</v>
       </c>
       <c r="F89" s="3">
-        <v>2112400</v>
+        <v>2021400</v>
       </c>
       <c r="G89" s="3">
-        <v>1186100</v>
+        <v>1135000</v>
       </c>
       <c r="H89" s="3">
-        <v>-465400</v>
+        <v>-445300</v>
       </c>
       <c r="I89" s="3">
-        <v>872700</v>
+        <v>835000</v>
       </c>
       <c r="J89" s="3">
-        <v>809900</v>
+        <v>775000</v>
       </c>
       <c r="K89" s="3">
         <v>346700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-54800</v>
+        <v>-52500</v>
       </c>
       <c r="E91" s="3">
-        <v>-39800</v>
+        <v>-38100</v>
       </c>
       <c r="F91" s="3">
-        <v>-58400</v>
+        <v>-55900</v>
       </c>
       <c r="G91" s="3">
-        <v>-79300</v>
+        <v>-75800</v>
       </c>
       <c r="H91" s="3">
-        <v>-68200</v>
+        <v>-65200</v>
       </c>
       <c r="I91" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-72300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-75500</v>
       </c>
       <c r="K91" s="3">
         <v>-70300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-94000</v>
+        <v>-90000</v>
       </c>
       <c r="E94" s="3">
-        <v>-71800</v>
+        <v>-68700</v>
       </c>
       <c r="F94" s="3">
-        <v>-159400</v>
+        <v>-152500</v>
       </c>
       <c r="G94" s="3">
-        <v>-106300</v>
+        <v>-101700</v>
       </c>
       <c r="H94" s="3">
-        <v>-85200</v>
+        <v>-81500</v>
       </c>
       <c r="I94" s="3">
-        <v>-104600</v>
+        <v>-100100</v>
       </c>
       <c r="J94" s="3">
-        <v>-107700</v>
+        <v>-103100</v>
       </c>
       <c r="K94" s="3">
         <v>-110300</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-360100</v>
+        <v>-344600</v>
       </c>
       <c r="E96" s="3">
-        <v>-384300</v>
+        <v>-367700</v>
       </c>
       <c r="F96" s="3">
-        <v>-412000</v>
+        <v>-394200</v>
       </c>
       <c r="G96" s="3">
-        <v>-491400</v>
+        <v>-470200</v>
       </c>
       <c r="H96" s="3">
-        <v>-383500</v>
+        <v>-367000</v>
       </c>
       <c r="I96" s="3">
-        <v>-390500</v>
+        <v>-373700</v>
       </c>
       <c r="J96" s="3">
-        <v>-383000</v>
+        <v>-366500</v>
       </c>
       <c r="K96" s="3">
         <v>-315500</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>276800</v>
+        <v>264900</v>
       </c>
       <c r="E100" s="3">
-        <v>118400</v>
+        <v>113300</v>
       </c>
       <c r="F100" s="3">
-        <v>-412000</v>
+        <v>-394200</v>
       </c>
       <c r="G100" s="3">
-        <v>-491400</v>
+        <v>-470200</v>
       </c>
       <c r="H100" s="3">
-        <v>-401100</v>
+        <v>-383800</v>
       </c>
       <c r="I100" s="3">
-        <v>-409200</v>
+        <v>-391600</v>
       </c>
       <c r="J100" s="3">
-        <v>-395100</v>
+        <v>-378100</v>
       </c>
       <c r="K100" s="3">
         <v>-326100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>507600</v>
+        <v>485700</v>
       </c>
       <c r="E101" s="3">
-        <v>-33300</v>
+        <v>-31900</v>
       </c>
       <c r="F101" s="3">
-        <v>146900</v>
+        <v>140600</v>
       </c>
       <c r="G101" s="3">
-        <v>132800</v>
+        <v>127100</v>
       </c>
       <c r="H101" s="3">
-        <v>-36400</v>
+        <v>-34900</v>
       </c>
       <c r="I101" s="3">
-        <v>-174300</v>
+        <v>-166800</v>
       </c>
       <c r="J101" s="3">
-        <v>236000</v>
+        <v>225800</v>
       </c>
       <c r="K101" s="3">
         <v>41500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="E102" s="3">
-        <v>-947400</v>
+        <v>-906600</v>
       </c>
       <c r="F102" s="3">
-        <v>1688000</v>
+        <v>1615200</v>
       </c>
       <c r="G102" s="3">
-        <v>721300</v>
+        <v>690200</v>
       </c>
       <c r="H102" s="3">
-        <v>-988200</v>
+        <v>-945600</v>
       </c>
       <c r="I102" s="3">
-        <v>184500</v>
+        <v>176500</v>
       </c>
       <c r="J102" s="3">
-        <v>543100</v>
+        <v>519700</v>
       </c>
       <c r="K102" s="3">
         <v>-48200</v>

--- a/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3242400</v>
+        <v>3271600</v>
       </c>
       <c r="E8" s="3">
-        <v>2477900</v>
+        <v>2500200</v>
       </c>
       <c r="F8" s="3">
-        <v>2576600</v>
+        <v>2599800</v>
       </c>
       <c r="G8" s="3">
-        <v>2491200</v>
+        <v>2513600</v>
       </c>
       <c r="H8" s="3">
-        <v>2284900</v>
+        <v>2305500</v>
       </c>
       <c r="I8" s="3">
-        <v>2372100</v>
+        <v>2393500</v>
       </c>
       <c r="J8" s="3">
-        <v>2315400</v>
+        <v>2336300</v>
       </c>
       <c r="K8" s="3">
         <v>2650200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-135500</v>
+        <v>-136700</v>
       </c>
       <c r="E15" s="3">
-        <v>-121500</v>
+        <v>-122600</v>
       </c>
       <c r="F15" s="3">
-        <v>-117800</v>
+        <v>-118800</v>
       </c>
       <c r="G15" s="3">
-        <v>-88000</v>
+        <v>-88800</v>
       </c>
       <c r="H15" s="3">
-        <v>-86400</v>
+        <v>-87200</v>
       </c>
       <c r="I15" s="3">
-        <v>-72500</v>
+        <v>-73200</v>
       </c>
       <c r="J15" s="3">
-        <v>-59500</v>
+        <v>-60000</v>
       </c>
       <c r="K15" s="3">
         <v>-52600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1676500</v>
+        <v>1691600</v>
       </c>
       <c r="E17" s="3">
-        <v>1276000</v>
+        <v>1287500</v>
       </c>
       <c r="F17" s="3">
-        <v>1470600</v>
+        <v>1483800</v>
       </c>
       <c r="G17" s="3">
-        <v>1282100</v>
+        <v>1293600</v>
       </c>
       <c r="H17" s="3">
-        <v>1144400</v>
+        <v>1154700</v>
       </c>
       <c r="I17" s="3">
-        <v>1330900</v>
+        <v>1342800</v>
       </c>
       <c r="J17" s="3">
-        <v>1381400</v>
+        <v>1393800</v>
       </c>
       <c r="K17" s="3">
         <v>1505100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1566000</v>
+        <v>1580100</v>
       </c>
       <c r="E18" s="3">
-        <v>1201900</v>
+        <v>1212700</v>
       </c>
       <c r="F18" s="3">
-        <v>1106000</v>
+        <v>1116000</v>
       </c>
       <c r="G18" s="3">
-        <v>1209100</v>
+        <v>1220000</v>
       </c>
       <c r="H18" s="3">
-        <v>1140500</v>
+        <v>1150800</v>
       </c>
       <c r="I18" s="3">
-        <v>1041300</v>
+        <v>1050600</v>
       </c>
       <c r="J18" s="3">
-        <v>934100</v>
+        <v>942500</v>
       </c>
       <c r="K18" s="3">
         <v>1145000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-478600</v>
+        <v>-482900</v>
       </c>
       <c r="E20" s="3">
-        <v>-476300</v>
+        <v>-480600</v>
       </c>
       <c r="F20" s="3">
-        <v>-326100</v>
+        <v>-329000</v>
       </c>
       <c r="G20" s="3">
-        <v>-363100</v>
+        <v>-366400</v>
       </c>
       <c r="H20" s="3">
-        <v>-340300</v>
+        <v>-343400</v>
       </c>
       <c r="I20" s="3">
-        <v>-395400</v>
+        <v>-399000</v>
       </c>
       <c r="J20" s="3">
-        <v>-348600</v>
+        <v>-351800</v>
       </c>
       <c r="K20" s="3">
         <v>-399000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1220400</v>
+        <v>1231400</v>
       </c>
       <c r="E21" s="3">
-        <v>844900</v>
+        <v>852500</v>
       </c>
       <c r="F21" s="3">
-        <v>895600</v>
+        <v>903700</v>
       </c>
       <c r="G21" s="3">
-        <v>932400</v>
+        <v>940800</v>
       </c>
       <c r="H21" s="3">
-        <v>885000</v>
+        <v>893000</v>
       </c>
       <c r="I21" s="3">
-        <v>717100</v>
+        <v>723600</v>
       </c>
       <c r="J21" s="3">
-        <v>643900</v>
+        <v>649700</v>
       </c>
       <c r="K21" s="3">
         <v>799000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1087400</v>
+        <v>1097200</v>
       </c>
       <c r="E23" s="3">
-        <v>725600</v>
+        <v>732100</v>
       </c>
       <c r="F23" s="3">
-        <v>779900</v>
+        <v>787000</v>
       </c>
       <c r="G23" s="3">
-        <v>846000</v>
+        <v>853600</v>
       </c>
       <c r="H23" s="3">
-        <v>800200</v>
+        <v>807400</v>
       </c>
       <c r="I23" s="3">
-        <v>645800</v>
+        <v>651700</v>
       </c>
       <c r="J23" s="3">
-        <v>585500</v>
+        <v>590700</v>
       </c>
       <c r="K23" s="3">
         <v>746100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>216100</v>
+        <v>218000</v>
       </c>
       <c r="E24" s="3">
-        <v>145500</v>
+        <v>146900</v>
       </c>
       <c r="F24" s="3">
-        <v>166700</v>
+        <v>168200</v>
       </c>
       <c r="G24" s="3">
-        <v>184100</v>
+        <v>185800</v>
       </c>
       <c r="H24" s="3">
-        <v>159400</v>
+        <v>160800</v>
       </c>
       <c r="I24" s="3">
-        <v>118900</v>
+        <v>120000</v>
       </c>
       <c r="J24" s="3">
-        <v>83600</v>
+        <v>84300</v>
       </c>
       <c r="K24" s="3">
         <v>60700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>871300</v>
+        <v>879100</v>
       </c>
       <c r="E26" s="3">
-        <v>580000</v>
+        <v>585300</v>
       </c>
       <c r="F26" s="3">
-        <v>613200</v>
+        <v>618800</v>
       </c>
       <c r="G26" s="3">
-        <v>661900</v>
+        <v>667800</v>
       </c>
       <c r="H26" s="3">
-        <v>640800</v>
+        <v>646500</v>
       </c>
       <c r="I26" s="3">
-        <v>526900</v>
+        <v>531700</v>
       </c>
       <c r="J26" s="3">
-        <v>501900</v>
+        <v>506400</v>
       </c>
       <c r="K26" s="3">
         <v>685300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>860200</v>
+        <v>868000</v>
       </c>
       <c r="E27" s="3">
-        <v>574400</v>
+        <v>579500</v>
       </c>
       <c r="F27" s="3">
-        <v>610900</v>
+        <v>616400</v>
       </c>
       <c r="G27" s="3">
-        <v>657000</v>
+        <v>662900</v>
       </c>
       <c r="H27" s="3">
-        <v>626900</v>
+        <v>632600</v>
       </c>
       <c r="I27" s="3">
-        <v>524300</v>
+        <v>529000</v>
       </c>
       <c r="J27" s="3">
-        <v>498300</v>
+        <v>502700</v>
       </c>
       <c r="K27" s="3">
         <v>678200</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>478600</v>
+        <v>482900</v>
       </c>
       <c r="E32" s="3">
-        <v>476300</v>
+        <v>480600</v>
       </c>
       <c r="F32" s="3">
-        <v>326100</v>
+        <v>329000</v>
       </c>
       <c r="G32" s="3">
-        <v>363100</v>
+        <v>366400</v>
       </c>
       <c r="H32" s="3">
-        <v>340300</v>
+        <v>343400</v>
       </c>
       <c r="I32" s="3">
-        <v>395400</v>
+        <v>399000</v>
       </c>
       <c r="J32" s="3">
-        <v>348600</v>
+        <v>351800</v>
       </c>
       <c r="K32" s="3">
         <v>399000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>860200</v>
+        <v>868000</v>
       </c>
       <c r="E33" s="3">
-        <v>574400</v>
+        <v>579500</v>
       </c>
       <c r="F33" s="3">
-        <v>612800</v>
+        <v>618300</v>
       </c>
       <c r="G33" s="3">
-        <v>657000</v>
+        <v>662900</v>
       </c>
       <c r="H33" s="3">
-        <v>626900</v>
+        <v>632600</v>
       </c>
       <c r="I33" s="3">
-        <v>524300</v>
+        <v>529000</v>
       </c>
       <c r="J33" s="3">
-        <v>498300</v>
+        <v>502700</v>
       </c>
       <c r="K33" s="3">
         <v>678200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>860200</v>
+        <v>868000</v>
       </c>
       <c r="E35" s="3">
-        <v>574400</v>
+        <v>579500</v>
       </c>
       <c r="F35" s="3">
-        <v>612800</v>
+        <v>618300</v>
       </c>
       <c r="G35" s="3">
-        <v>657000</v>
+        <v>662900</v>
       </c>
       <c r="H35" s="3">
-        <v>626900</v>
+        <v>632600</v>
       </c>
       <c r="I35" s="3">
-        <v>524300</v>
+        <v>529000</v>
       </c>
       <c r="J35" s="3">
-        <v>498300</v>
+        <v>502700</v>
       </c>
       <c r="K35" s="3">
         <v>678200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2161600</v>
+        <v>2181100</v>
       </c>
       <c r="E41" s="3">
-        <v>2720200</v>
+        <v>2744800</v>
       </c>
       <c r="F41" s="3">
-        <v>3288000</v>
+        <v>3317600</v>
       </c>
       <c r="G41" s="3">
-        <v>2382800</v>
+        <v>2404300</v>
       </c>
       <c r="H41" s="3">
-        <v>2093200</v>
+        <v>2112100</v>
       </c>
       <c r="I41" s="3">
-        <v>2048500</v>
+        <v>2067000</v>
       </c>
       <c r="J41" s="3">
-        <v>1723100</v>
+        <v>1738600</v>
       </c>
       <c r="K41" s="3">
         <v>2561100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12790000</v>
+        <v>12905200</v>
       </c>
       <c r="E42" s="3">
-        <v>11090100</v>
+        <v>11190000</v>
       </c>
       <c r="F42" s="3">
-        <v>10413700</v>
+        <v>10507600</v>
       </c>
       <c r="G42" s="3">
-        <v>3847000</v>
+        <v>3881700</v>
       </c>
       <c r="H42" s="3">
-        <v>3466200</v>
+        <v>3497500</v>
       </c>
       <c r="I42" s="3">
-        <v>4558500</v>
+        <v>4599600</v>
       </c>
       <c r="J42" s="3">
-        <v>5306900</v>
+        <v>5354700</v>
       </c>
       <c r="K42" s="3">
         <v>4168300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>39900</v>
+        <v>40200</v>
       </c>
       <c r="E47" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="F47" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="G47" s="3">
-        <v>35800</v>
+        <v>36200</v>
       </c>
       <c r="H47" s="3">
-        <v>30600</v>
+        <v>30900</v>
       </c>
       <c r="I47" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="J47" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="K47" s="3">
         <v>21300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>416000</v>
+        <v>419800</v>
       </c>
       <c r="E48" s="3">
-        <v>431600</v>
+        <v>435500</v>
       </c>
       <c r="F48" s="3">
-        <v>453200</v>
+        <v>457300</v>
       </c>
       <c r="G48" s="3">
-        <v>281500</v>
+        <v>284000</v>
       </c>
       <c r="H48" s="3">
-        <v>269200</v>
+        <v>271700</v>
       </c>
       <c r="I48" s="3">
-        <v>285700</v>
+        <v>288300</v>
       </c>
       <c r="J48" s="3">
-        <v>267100</v>
+        <v>269500</v>
       </c>
       <c r="K48" s="3">
         <v>251800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>105900</v>
+        <v>106900</v>
       </c>
       <c r="E49" s="3">
-        <v>91600</v>
+        <v>92400</v>
       </c>
       <c r="F49" s="3">
-        <v>81500</v>
+        <v>82200</v>
       </c>
       <c r="G49" s="3">
-        <v>74300</v>
+        <v>75000</v>
       </c>
       <c r="H49" s="3">
-        <v>70200</v>
+        <v>70800</v>
       </c>
       <c r="I49" s="3">
-        <v>64500</v>
+        <v>65100</v>
       </c>
       <c r="J49" s="3">
-        <v>56800</v>
+        <v>57300</v>
       </c>
       <c r="K49" s="3">
         <v>48800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>843800</v>
+        <v>851400</v>
       </c>
       <c r="E52" s="3">
-        <v>622500</v>
+        <v>628100</v>
       </c>
       <c r="F52" s="3">
-        <v>514500</v>
+        <v>519200</v>
       </c>
       <c r="G52" s="3">
-        <v>426000</v>
+        <v>429800</v>
       </c>
       <c r="H52" s="3">
-        <v>429000</v>
+        <v>432900</v>
       </c>
       <c r="I52" s="3">
-        <v>415500</v>
+        <v>419300</v>
       </c>
       <c r="J52" s="3">
-        <v>370300</v>
+        <v>373600</v>
       </c>
       <c r="K52" s="3">
         <v>338000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>70674800</v>
+        <v>71311500</v>
       </c>
       <c r="E54" s="3">
-        <v>61911400</v>
+        <v>62469200</v>
       </c>
       <c r="F54" s="3">
-        <v>56141900</v>
+        <v>56647600</v>
       </c>
       <c r="G54" s="3">
-        <v>43509100</v>
+        <v>43901000</v>
       </c>
       <c r="H54" s="3">
-        <v>39742700</v>
+        <v>40100800</v>
       </c>
       <c r="I54" s="3">
-        <v>41077400</v>
+        <v>41447400</v>
       </c>
       <c r="J54" s="3">
-        <v>38466100</v>
+        <v>38812600</v>
       </c>
       <c r="K54" s="3">
         <v>36335700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>421700</v>
+        <v>425500</v>
       </c>
       <c r="E57" s="3">
-        <v>401400</v>
+        <v>405000</v>
       </c>
       <c r="F57" s="3">
-        <v>220100</v>
+        <v>222000</v>
       </c>
       <c r="G57" s="3">
-        <v>181000</v>
+        <v>182600</v>
       </c>
       <c r="H57" s="3">
-        <v>540300</v>
+        <v>545100</v>
       </c>
       <c r="I57" s="3">
-        <v>320200</v>
+        <v>323100</v>
       </c>
       <c r="J57" s="3">
-        <v>513000</v>
+        <v>517600</v>
       </c>
       <c r="K57" s="3">
         <v>334700</v>
@@ -2443,22 +2443,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5478100</v>
+        <v>5527500</v>
       </c>
       <c r="E58" s="3">
-        <v>4301900</v>
+        <v>4340600</v>
       </c>
       <c r="F58" s="3">
-        <v>5622600</v>
+        <v>5673200</v>
       </c>
       <c r="G58" s="3">
-        <v>3244700</v>
+        <v>3273900</v>
       </c>
       <c r="H58" s="3">
-        <v>2781700</v>
+        <v>2806800</v>
       </c>
       <c r="I58" s="3">
-        <v>3689800</v>
+        <v>3723100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="E59" s="3">
-        <v>30100</v>
+        <v>30400</v>
       </c>
       <c r="F59" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="G59" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="H59" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="I59" s="3">
-        <v>34700</v>
+        <v>35000</v>
       </c>
       <c r="J59" s="3">
-        <v>21600</v>
+        <v>21800</v>
       </c>
       <c r="K59" s="3">
         <v>3300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15039800</v>
+        <v>15175300</v>
       </c>
       <c r="E61" s="3">
-        <v>13529200</v>
+        <v>13651100</v>
       </c>
       <c r="F61" s="3">
-        <v>8807100</v>
+        <v>8886400</v>
       </c>
       <c r="G61" s="3">
-        <v>8222700</v>
+        <v>8296800</v>
       </c>
       <c r="H61" s="3">
-        <v>7762200</v>
+        <v>7832200</v>
       </c>
       <c r="I61" s="3">
-        <v>7243000</v>
+        <v>7308200</v>
       </c>
       <c r="J61" s="3">
-        <v>8308600</v>
+        <v>8383400</v>
       </c>
       <c r="K61" s="3">
         <v>8594000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1171600</v>
+        <v>1182200</v>
       </c>
       <c r="E62" s="3">
-        <v>649600</v>
+        <v>655400</v>
       </c>
       <c r="F62" s="3">
-        <v>485100</v>
+        <v>489400</v>
       </c>
       <c r="G62" s="3">
-        <v>383300</v>
+        <v>386800</v>
       </c>
       <c r="H62" s="3">
-        <v>370700</v>
+        <v>374100</v>
       </c>
       <c r="I62" s="3">
-        <v>351500</v>
+        <v>354700</v>
       </c>
       <c r="J62" s="3">
-        <v>369700</v>
+        <v>373000</v>
       </c>
       <c r="K62" s="3">
         <v>378700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>66900600</v>
+        <v>67503300</v>
       </c>
       <c r="E66" s="3">
-        <v>57951100</v>
+        <v>58473100</v>
       </c>
       <c r="F66" s="3">
-        <v>52378000</v>
+        <v>52849900</v>
       </c>
       <c r="G66" s="3">
-        <v>39913200</v>
+        <v>40272700</v>
       </c>
       <c r="H66" s="3">
-        <v>36339300</v>
+        <v>36666700</v>
       </c>
       <c r="I66" s="3">
-        <v>37893100</v>
+        <v>38234500</v>
       </c>
       <c r="J66" s="3">
-        <v>35430500</v>
+        <v>35749700</v>
       </c>
       <c r="K66" s="3">
         <v>33229900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3431500</v>
+        <v>3462400</v>
       </c>
       <c r="E72" s="3">
-        <v>3001700</v>
+        <v>3028700</v>
       </c>
       <c r="F72" s="3">
-        <v>2783500</v>
+        <v>2808500</v>
       </c>
       <c r="G72" s="3">
-        <v>2594500</v>
+        <v>2617800</v>
       </c>
       <c r="H72" s="3">
-        <v>2416700</v>
+        <v>2438500</v>
       </c>
       <c r="I72" s="3">
-        <v>2187500</v>
+        <v>2207300</v>
       </c>
       <c r="J72" s="3">
-        <v>2044700</v>
+        <v>2063200</v>
       </c>
       <c r="K72" s="3">
         <v>2014700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3774200</v>
+        <v>3808200</v>
       </c>
       <c r="E76" s="3">
-        <v>3960400</v>
+        <v>3996100</v>
       </c>
       <c r="F76" s="3">
-        <v>3763800</v>
+        <v>3797700</v>
       </c>
       <c r="G76" s="3">
-        <v>3595900</v>
+        <v>3628300</v>
       </c>
       <c r="H76" s="3">
-        <v>3403500</v>
+        <v>3434100</v>
       </c>
       <c r="I76" s="3">
-        <v>3184300</v>
+        <v>3213000</v>
       </c>
       <c r="J76" s="3">
-        <v>3035500</v>
+        <v>3062900</v>
       </c>
       <c r="K76" s="3">
         <v>3105800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>860200</v>
+        <v>868000</v>
       </c>
       <c r="E81" s="3">
-        <v>574400</v>
+        <v>579500</v>
       </c>
       <c r="F81" s="3">
-        <v>612800</v>
+        <v>618300</v>
       </c>
       <c r="G81" s="3">
-        <v>657000</v>
+        <v>662900</v>
       </c>
       <c r="H81" s="3">
-        <v>626900</v>
+        <v>632600</v>
       </c>
       <c r="I81" s="3">
-        <v>524300</v>
+        <v>529000</v>
       </c>
       <c r="J81" s="3">
-        <v>498300</v>
+        <v>502700</v>
       </c>
       <c r="K81" s="3">
         <v>678200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>135500</v>
+        <v>136700</v>
       </c>
       <c r="E83" s="3">
-        <v>121500</v>
+        <v>122600</v>
       </c>
       <c r="F83" s="3">
-        <v>117800</v>
+        <v>118800</v>
       </c>
       <c r="G83" s="3">
-        <v>88000</v>
+        <v>88800</v>
       </c>
       <c r="H83" s="3">
-        <v>86400</v>
+        <v>87200</v>
       </c>
       <c r="I83" s="3">
-        <v>72500</v>
+        <v>73200</v>
       </c>
       <c r="J83" s="3">
-        <v>59500</v>
+        <v>60000</v>
       </c>
       <c r="K83" s="3">
         <v>52500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-663700</v>
+        <v>-669600</v>
       </c>
       <c r="E89" s="3">
-        <v>-919300</v>
+        <v>-927600</v>
       </c>
       <c r="F89" s="3">
-        <v>2021400</v>
+        <v>2039600</v>
       </c>
       <c r="G89" s="3">
-        <v>1135000</v>
+        <v>1145200</v>
       </c>
       <c r="H89" s="3">
-        <v>-445300</v>
+        <v>-449400</v>
       </c>
       <c r="I89" s="3">
-        <v>835000</v>
+        <v>842600</v>
       </c>
       <c r="J89" s="3">
-        <v>775000</v>
+        <v>782000</v>
       </c>
       <c r="K89" s="3">
         <v>346700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-52500</v>
+        <v>-53000</v>
       </c>
       <c r="E91" s="3">
-        <v>-38100</v>
+        <v>-38400</v>
       </c>
       <c r="F91" s="3">
-        <v>-55900</v>
+        <v>-56400</v>
       </c>
       <c r="G91" s="3">
-        <v>-75800</v>
+        <v>-76500</v>
       </c>
       <c r="H91" s="3">
-        <v>-65200</v>
+        <v>-65800</v>
       </c>
       <c r="I91" s="3">
-        <v>-69200</v>
+        <v>-69800</v>
       </c>
       <c r="J91" s="3">
-        <v>-72300</v>
+        <v>-72900</v>
       </c>
       <c r="K91" s="3">
         <v>-70300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-90000</v>
+        <v>-90800</v>
       </c>
       <c r="E94" s="3">
-        <v>-68700</v>
+        <v>-69300</v>
       </c>
       <c r="F94" s="3">
-        <v>-152500</v>
+        <v>-153900</v>
       </c>
       <c r="G94" s="3">
-        <v>-101700</v>
+        <v>-102600</v>
       </c>
       <c r="H94" s="3">
-        <v>-81500</v>
+        <v>-82300</v>
       </c>
       <c r="I94" s="3">
-        <v>-100100</v>
+        <v>-101000</v>
       </c>
       <c r="J94" s="3">
-        <v>-103100</v>
+        <v>-104000</v>
       </c>
       <c r="K94" s="3">
         <v>-110300</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-344600</v>
+        <v>-347700</v>
       </c>
       <c r="E96" s="3">
-        <v>-367700</v>
+        <v>-371000</v>
       </c>
       <c r="F96" s="3">
-        <v>-394200</v>
+        <v>-397800</v>
       </c>
       <c r="G96" s="3">
-        <v>-470200</v>
+        <v>-474400</v>
       </c>
       <c r="H96" s="3">
-        <v>-367000</v>
+        <v>-370300</v>
       </c>
       <c r="I96" s="3">
-        <v>-373700</v>
+        <v>-377100</v>
       </c>
       <c r="J96" s="3">
-        <v>-366500</v>
+        <v>-369800</v>
       </c>
       <c r="K96" s="3">
         <v>-315500</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>264900</v>
+        <v>267300</v>
       </c>
       <c r="E100" s="3">
-        <v>113300</v>
+        <v>114300</v>
       </c>
       <c r="F100" s="3">
-        <v>-394200</v>
+        <v>-397800</v>
       </c>
       <c r="G100" s="3">
-        <v>-470200</v>
+        <v>-474400</v>
       </c>
       <c r="H100" s="3">
-        <v>-383800</v>
+        <v>-387300</v>
       </c>
       <c r="I100" s="3">
-        <v>-391600</v>
+        <v>-395100</v>
       </c>
       <c r="J100" s="3">
-        <v>-378100</v>
+        <v>-381500</v>
       </c>
       <c r="K100" s="3">
         <v>-326100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>485700</v>
+        <v>490100</v>
       </c>
       <c r="E101" s="3">
-        <v>-31900</v>
+        <v>-32200</v>
       </c>
       <c r="F101" s="3">
-        <v>140600</v>
+        <v>141900</v>
       </c>
       <c r="G101" s="3">
-        <v>127100</v>
+        <v>128200</v>
       </c>
       <c r="H101" s="3">
-        <v>-34900</v>
+        <v>-35200</v>
       </c>
       <c r="I101" s="3">
-        <v>-166800</v>
+        <v>-168300</v>
       </c>
       <c r="J101" s="3">
-        <v>225800</v>
+        <v>227800</v>
       </c>
       <c r="K101" s="3">
         <v>41500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E102" s="3">
-        <v>-906600</v>
+        <v>-914700</v>
       </c>
       <c r="F102" s="3">
-        <v>1615200</v>
+        <v>1629800</v>
       </c>
       <c r="G102" s="3">
-        <v>690200</v>
+        <v>696400</v>
       </c>
       <c r="H102" s="3">
-        <v>-945600</v>
+        <v>-954100</v>
       </c>
       <c r="I102" s="3">
-        <v>176500</v>
+        <v>178100</v>
       </c>
       <c r="J102" s="3">
-        <v>519700</v>
+        <v>524300</v>
       </c>
       <c r="K102" s="3">
         <v>-48200</v>

--- a/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>BSAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3271600</v>
+        <v>5149200</v>
       </c>
       <c r="E8" s="3">
-        <v>2500200</v>
+        <v>2976600</v>
       </c>
       <c r="F8" s="3">
-        <v>2599800</v>
+        <v>2812700</v>
       </c>
       <c r="G8" s="3">
-        <v>2513600</v>
+        <v>2924800</v>
       </c>
       <c r="H8" s="3">
-        <v>2305500</v>
+        <v>2827800</v>
       </c>
       <c r="I8" s="3">
-        <v>2393500</v>
+        <v>2593600</v>
       </c>
       <c r="J8" s="3">
+        <v>2692700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2336300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2650200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2432600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2420400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2600000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,48 +986,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-136700</v>
+        <v>-163800</v>
       </c>
       <c r="E15" s="3">
-        <v>-122600</v>
+        <v>-153800</v>
       </c>
       <c r="F15" s="3">
-        <v>-118800</v>
+        <v>-137900</v>
       </c>
       <c r="G15" s="3">
-        <v>-88800</v>
+        <v>-133700</v>
       </c>
       <c r="H15" s="3">
-        <v>-87200</v>
+        <v>-99900</v>
       </c>
       <c r="I15" s="3">
-        <v>-73200</v>
+        <v>-98100</v>
       </c>
       <c r="J15" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-60000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-52600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-79400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-72200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-78600</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1691600</v>
+        <v>3547900</v>
       </c>
       <c r="E17" s="3">
-        <v>1287500</v>
+        <v>1019600</v>
       </c>
       <c r="F17" s="3">
-        <v>1483800</v>
+        <v>1448400</v>
       </c>
       <c r="G17" s="3">
-        <v>1293600</v>
+        <v>1669300</v>
       </c>
       <c r="H17" s="3">
-        <v>1154700</v>
+        <v>1455300</v>
       </c>
       <c r="I17" s="3">
-        <v>1342800</v>
+        <v>1299000</v>
       </c>
       <c r="J17" s="3">
+        <v>1510700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1393800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1505100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1506000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1602400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1635500</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1580100</v>
+        <v>1601300</v>
       </c>
       <c r="E18" s="3">
-        <v>1212700</v>
+        <v>1957000</v>
       </c>
       <c r="F18" s="3">
-        <v>1116000</v>
+        <v>1364300</v>
       </c>
       <c r="G18" s="3">
-        <v>1220000</v>
+        <v>1255500</v>
       </c>
       <c r="H18" s="3">
-        <v>1150800</v>
+        <v>1372500</v>
       </c>
       <c r="I18" s="3">
-        <v>1050600</v>
+        <v>1294600</v>
       </c>
       <c r="J18" s="3">
+        <v>1182000</v>
+      </c>
+      <c r="K18" s="3">
         <v>942500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1145000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>926600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>818000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>964600</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-482900</v>
+        <v>-450500</v>
       </c>
       <c r="E20" s="3">
-        <v>-480600</v>
+        <v>-715800</v>
       </c>
       <c r="F20" s="3">
-        <v>-329000</v>
+        <v>-540700</v>
       </c>
       <c r="G20" s="3">
-        <v>-366400</v>
+        <v>-370100</v>
       </c>
       <c r="H20" s="3">
-        <v>-343400</v>
+        <v>-412200</v>
       </c>
       <c r="I20" s="3">
+        <v>-386300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-448900</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-351800</v>
+      </c>
+      <c r="L20" s="3">
         <v>-399000</v>
       </c>
-      <c r="J20" s="3">
-        <v>-351800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-399000</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-226500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-298900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-253300</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1231400</v>
+        <v>1311900</v>
       </c>
       <c r="E21" s="3">
-        <v>852500</v>
+        <v>1392500</v>
       </c>
       <c r="F21" s="3">
-        <v>903700</v>
+        <v>959300</v>
       </c>
       <c r="G21" s="3">
-        <v>940800</v>
+        <v>1016900</v>
       </c>
       <c r="H21" s="3">
-        <v>893000</v>
+        <v>1058600</v>
       </c>
       <c r="I21" s="3">
-        <v>723600</v>
+        <v>1004800</v>
       </c>
       <c r="J21" s="3">
+        <v>814200</v>
+      </c>
+      <c r="K21" s="3">
         <v>649700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>799000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>780100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>591800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>789900</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1097200</v>
+        <v>1150700</v>
       </c>
       <c r="E23" s="3">
-        <v>732100</v>
+        <v>1241200</v>
       </c>
       <c r="F23" s="3">
-        <v>787000</v>
+        <v>823600</v>
       </c>
       <c r="G23" s="3">
-        <v>853600</v>
+        <v>885300</v>
       </c>
       <c r="H23" s="3">
-        <v>807400</v>
+        <v>960300</v>
       </c>
       <c r="I23" s="3">
-        <v>651700</v>
+        <v>908300</v>
       </c>
       <c r="J23" s="3">
+        <v>733100</v>
+      </c>
+      <c r="K23" s="3">
         <v>590700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>746100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>519100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>711300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>218000</v>
+        <v>112700</v>
       </c>
       <c r="E24" s="3">
-        <v>146900</v>
+        <v>247100</v>
       </c>
       <c r="F24" s="3">
-        <v>168200</v>
+        <v>165200</v>
       </c>
       <c r="G24" s="3">
-        <v>185800</v>
+        <v>189200</v>
       </c>
       <c r="H24" s="3">
-        <v>160800</v>
+        <v>209000</v>
       </c>
       <c r="I24" s="3">
-        <v>120000</v>
+        <v>181000</v>
       </c>
       <c r="J24" s="3">
+        <v>135000</v>
+      </c>
+      <c r="K24" s="3">
         <v>84300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>60700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>122800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>56800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>113500</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>879100</v>
+        <v>1038100</v>
       </c>
       <c r="E26" s="3">
-        <v>585300</v>
+        <v>994000</v>
       </c>
       <c r="F26" s="3">
-        <v>618800</v>
+        <v>658400</v>
       </c>
       <c r="G26" s="3">
-        <v>667800</v>
+        <v>696100</v>
       </c>
       <c r="H26" s="3">
-        <v>646500</v>
+        <v>751300</v>
       </c>
       <c r="I26" s="3">
-        <v>531700</v>
+        <v>727400</v>
       </c>
       <c r="J26" s="3">
+        <v>598100</v>
+      </c>
+      <c r="K26" s="3">
         <v>506400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>685300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>577300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>462200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>597800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>868000</v>
+        <v>1018900</v>
       </c>
       <c r="E27" s="3">
-        <v>579500</v>
+        <v>981500</v>
       </c>
       <c r="F27" s="3">
-        <v>616400</v>
+        <v>652000</v>
       </c>
       <c r="G27" s="3">
-        <v>662900</v>
+        <v>693500</v>
       </c>
       <c r="H27" s="3">
-        <v>632600</v>
+        <v>745800</v>
       </c>
       <c r="I27" s="3">
-        <v>529000</v>
+        <v>711700</v>
       </c>
       <c r="J27" s="3">
+        <v>595200</v>
+      </c>
+      <c r="K27" s="3">
         <v>502700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>678200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>574500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>456300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>590500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,11 +1538,11 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1499,15 +1559,18 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>482900</v>
+        <v>450500</v>
       </c>
       <c r="E32" s="3">
-        <v>480600</v>
+        <v>715800</v>
       </c>
       <c r="F32" s="3">
-        <v>329000</v>
+        <v>540700</v>
       </c>
       <c r="G32" s="3">
-        <v>366400</v>
+        <v>370100</v>
       </c>
       <c r="H32" s="3">
-        <v>343400</v>
+        <v>412200</v>
       </c>
       <c r="I32" s="3">
+        <v>386300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>448900</v>
+      </c>
+      <c r="K32" s="3">
+        <v>351800</v>
+      </c>
+      <c r="L32" s="3">
         <v>399000</v>
       </c>
-      <c r="J32" s="3">
-        <v>351800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>399000</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>226500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>298900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>253300</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>868000</v>
+        <v>1018900</v>
       </c>
       <c r="E33" s="3">
-        <v>579500</v>
+        <v>981500</v>
       </c>
       <c r="F33" s="3">
-        <v>618300</v>
+        <v>652000</v>
       </c>
       <c r="G33" s="3">
-        <v>662900</v>
+        <v>695600</v>
       </c>
       <c r="H33" s="3">
-        <v>632600</v>
+        <v>745800</v>
       </c>
       <c r="I33" s="3">
-        <v>529000</v>
+        <v>711700</v>
       </c>
       <c r="J33" s="3">
+        <v>595200</v>
+      </c>
+      <c r="K33" s="3">
         <v>502700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>678200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>574500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>456300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>590500</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>868000</v>
+        <v>1018900</v>
       </c>
       <c r="E35" s="3">
-        <v>579500</v>
+        <v>981500</v>
       </c>
       <c r="F35" s="3">
-        <v>618300</v>
+        <v>652000</v>
       </c>
       <c r="G35" s="3">
-        <v>662900</v>
+        <v>695600</v>
       </c>
       <c r="H35" s="3">
-        <v>632600</v>
+        <v>745800</v>
       </c>
       <c r="I35" s="3">
-        <v>529000</v>
+        <v>711700</v>
       </c>
       <c r="J35" s="3">
+        <v>595200</v>
+      </c>
+      <c r="K35" s="3">
         <v>502700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>678200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>574500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>456300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>590500</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,86 +1903,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2181100</v>
+        <v>3064400</v>
       </c>
       <c r="E41" s="3">
-        <v>2744800</v>
+        <v>2453700</v>
       </c>
       <c r="F41" s="3">
-        <v>3317600</v>
+        <v>3087800</v>
       </c>
       <c r="G41" s="3">
-        <v>2404300</v>
+        <v>3732300</v>
       </c>
       <c r="H41" s="3">
-        <v>2112100</v>
+        <v>2704800</v>
       </c>
       <c r="I41" s="3">
-        <v>2067000</v>
+        <v>2376100</v>
       </c>
       <c r="J41" s="3">
+        <v>2325300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1738600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2561100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2991700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2382200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4642000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12905200</v>
+        <v>1538100</v>
       </c>
       <c r="E42" s="3">
-        <v>11190000</v>
+        <v>15585700</v>
       </c>
       <c r="F42" s="3">
-        <v>10507600</v>
+        <v>12588700</v>
       </c>
       <c r="G42" s="3">
-        <v>3881700</v>
+        <v>11821000</v>
       </c>
       <c r="H42" s="3">
-        <v>3497500</v>
+        <v>4366900</v>
       </c>
       <c r="I42" s="3">
-        <v>4599600</v>
+        <v>3934700</v>
       </c>
       <c r="J42" s="3">
+        <v>5174500</v>
+      </c>
+      <c r="K42" s="3">
         <v>5354700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4168300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2339300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>442000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>621400</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,126 +2152,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>40200</v>
+        <v>58700</v>
       </c>
       <c r="E47" s="3">
-        <v>12100</v>
+        <v>47500</v>
       </c>
       <c r="F47" s="3">
-        <v>11700</v>
+        <v>13600</v>
       </c>
       <c r="G47" s="3">
-        <v>36200</v>
+        <v>13200</v>
       </c>
       <c r="H47" s="3">
-        <v>30900</v>
+        <v>40700</v>
       </c>
       <c r="I47" s="3">
-        <v>26600</v>
+        <v>34800</v>
       </c>
       <c r="J47" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K47" s="3">
         <v>22700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>21300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12800</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>419800</v>
+        <v>468600</v>
       </c>
       <c r="E48" s="3">
-        <v>435500</v>
+        <v>708300</v>
       </c>
       <c r="F48" s="3">
-        <v>457300</v>
+        <v>490000</v>
       </c>
       <c r="G48" s="3">
-        <v>284000</v>
+        <v>514500</v>
       </c>
       <c r="H48" s="3">
-        <v>271700</v>
+        <v>319500</v>
       </c>
       <c r="I48" s="3">
-        <v>288300</v>
+        <v>305600</v>
       </c>
       <c r="J48" s="3">
+        <v>324300</v>
+      </c>
+      <c r="K48" s="3">
         <v>269500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>251800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>234300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>207600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>225000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>106900</v>
+        <v>135800</v>
       </c>
       <c r="E49" s="3">
-        <v>92400</v>
+        <v>120200</v>
       </c>
       <c r="F49" s="3">
-        <v>82200</v>
+        <v>104000</v>
       </c>
       <c r="G49" s="3">
-        <v>75000</v>
+        <v>92500</v>
       </c>
       <c r="H49" s="3">
-        <v>70800</v>
+        <v>84300</v>
       </c>
       <c r="I49" s="3">
-        <v>65100</v>
+        <v>79700</v>
       </c>
       <c r="J49" s="3">
+        <v>73200</v>
+      </c>
+      <c r="K49" s="3">
         <v>57300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>48800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>86700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>111800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>118700</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>851400</v>
+        <v>435400</v>
       </c>
       <c r="E52" s="3">
-        <v>628100</v>
+        <v>556300</v>
       </c>
       <c r="F52" s="3">
-        <v>519200</v>
+        <v>706600</v>
       </c>
       <c r="G52" s="3">
-        <v>429800</v>
+        <v>584100</v>
       </c>
       <c r="H52" s="3">
-        <v>432900</v>
+        <v>483600</v>
       </c>
       <c r="I52" s="3">
-        <v>419300</v>
+        <v>487000</v>
       </c>
       <c r="J52" s="3">
+        <v>471700</v>
+      </c>
+      <c r="K52" s="3">
         <v>373600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>338000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>301600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>232500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>200700</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>71311500</v>
+        <v>85887400</v>
       </c>
       <c r="E54" s="3">
-        <v>62469200</v>
+        <v>80180200</v>
       </c>
       <c r="F54" s="3">
-        <v>56647600</v>
+        <v>70277900</v>
       </c>
       <c r="G54" s="3">
-        <v>43901000</v>
+        <v>63728600</v>
       </c>
       <c r="H54" s="3">
-        <v>40100800</v>
+        <v>49388700</v>
       </c>
       <c r="I54" s="3">
-        <v>41447400</v>
+        <v>45113400</v>
       </c>
       <c r="J54" s="3">
+        <v>46628400</v>
+      </c>
+      <c r="K54" s="3">
         <v>38812600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36335700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35121900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31692700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36263400</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,76 +2527,80 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>425500</v>
+        <v>1452500</v>
       </c>
       <c r="E57" s="3">
-        <v>405000</v>
+        <v>867100</v>
       </c>
       <c r="F57" s="3">
-        <v>222000</v>
+        <v>455700</v>
       </c>
       <c r="G57" s="3">
-        <v>182600</v>
+        <v>249800</v>
       </c>
       <c r="H57" s="3">
-        <v>545100</v>
+        <v>205400</v>
       </c>
       <c r="I57" s="3">
-        <v>323100</v>
+        <v>613300</v>
       </c>
       <c r="J57" s="3">
+        <v>363500</v>
+      </c>
+      <c r="K57" s="3">
         <v>517600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>334700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>359300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>364700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>131500</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5527500</v>
+        <v>5552900</v>
       </c>
       <c r="E58" s="3">
-        <v>4340600</v>
+        <v>6218400</v>
       </c>
       <c r="F58" s="3">
-        <v>5673200</v>
+        <v>4883200</v>
       </c>
       <c r="G58" s="3">
-        <v>3273900</v>
+        <v>6382400</v>
       </c>
       <c r="H58" s="3">
-        <v>2806800</v>
+        <v>3683200</v>
       </c>
       <c r="I58" s="3">
-        <v>3723100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+        <v>3157600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4188500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2475,48 +2608,54 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24500</v>
+        <v>500000</v>
       </c>
       <c r="E59" s="3">
-        <v>30400</v>
+        <v>342700</v>
       </c>
       <c r="F59" s="3">
-        <v>9100</v>
+        <v>34200</v>
       </c>
       <c r="G59" s="3">
-        <v>11300</v>
+        <v>10300</v>
       </c>
       <c r="H59" s="3">
-        <v>9300</v>
+        <v>12700</v>
       </c>
       <c r="I59" s="3">
-        <v>35000</v>
+        <v>10500</v>
       </c>
       <c r="J59" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K59" s="3">
         <v>21800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>66800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15175300</v>
+        <v>18513300</v>
       </c>
       <c r="E61" s="3">
-        <v>13651100</v>
+        <v>17072200</v>
       </c>
       <c r="F61" s="3">
-        <v>8886400</v>
+        <v>15357400</v>
       </c>
       <c r="G61" s="3">
-        <v>8296800</v>
+        <v>9997200</v>
       </c>
       <c r="H61" s="3">
-        <v>7832200</v>
+        <v>9333900</v>
       </c>
       <c r="I61" s="3">
-        <v>7308200</v>
+        <v>8811200</v>
       </c>
       <c r="J61" s="3">
+        <v>8221700</v>
+      </c>
+      <c r="K61" s="3">
         <v>8383400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8594000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9192100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9159000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11518500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1182200</v>
+        <v>635500</v>
       </c>
       <c r="E62" s="3">
-        <v>655400</v>
+        <v>1583100</v>
       </c>
       <c r="F62" s="3">
-        <v>489400</v>
+        <v>737300</v>
       </c>
       <c r="G62" s="3">
-        <v>386800</v>
+        <v>550600</v>
       </c>
       <c r="H62" s="3">
-        <v>374100</v>
+        <v>435100</v>
       </c>
       <c r="I62" s="3">
-        <v>354700</v>
+        <v>420800</v>
       </c>
       <c r="J62" s="3">
+        <v>399000</v>
+      </c>
+      <c r="K62" s="3">
         <v>373000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>378700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>339700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>257700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>283500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>67503300</v>
+        <v>80685100</v>
       </c>
       <c r="E66" s="3">
-        <v>58473100</v>
+        <v>75600200</v>
       </c>
       <c r="F66" s="3">
-        <v>52849900</v>
+        <v>65782300</v>
       </c>
       <c r="G66" s="3">
-        <v>40272700</v>
+        <v>59456200</v>
       </c>
       <c r="H66" s="3">
-        <v>36666700</v>
+        <v>45306800</v>
       </c>
       <c r="I66" s="3">
-        <v>38234500</v>
+        <v>41250000</v>
       </c>
       <c r="J66" s="3">
+        <v>43013800</v>
+      </c>
+      <c r="K66" s="3">
         <v>35749700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33229900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32098500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28923900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33234200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3462400</v>
+        <v>4289900</v>
       </c>
       <c r="E72" s="3">
-        <v>3028700</v>
+        <v>3903500</v>
       </c>
       <c r="F72" s="3">
-        <v>2808500</v>
+        <v>3407300</v>
       </c>
       <c r="G72" s="3">
-        <v>2617800</v>
+        <v>3159600</v>
       </c>
       <c r="H72" s="3">
-        <v>2438500</v>
+        <v>2945100</v>
       </c>
       <c r="I72" s="3">
-        <v>2207300</v>
+        <v>2743300</v>
       </c>
       <c r="J72" s="3">
+        <v>2483200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2063200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2014700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1872400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1632800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1714900</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3808200</v>
+        <v>5202300</v>
       </c>
       <c r="E76" s="3">
-        <v>3996100</v>
+        <v>4580000</v>
       </c>
       <c r="F76" s="3">
-        <v>3797700</v>
+        <v>4495600</v>
       </c>
       <c r="G76" s="3">
-        <v>3628300</v>
+        <v>4272400</v>
       </c>
       <c r="H76" s="3">
-        <v>3434100</v>
+        <v>4081800</v>
       </c>
       <c r="I76" s="3">
-        <v>3213000</v>
+        <v>3863400</v>
       </c>
       <c r="J76" s="3">
+        <v>3614600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3062900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3105800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3023400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2768800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3029300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>868000</v>
+        <v>1018900</v>
       </c>
       <c r="E81" s="3">
-        <v>579500</v>
+        <v>981500</v>
       </c>
       <c r="F81" s="3">
-        <v>618300</v>
+        <v>652000</v>
       </c>
       <c r="G81" s="3">
-        <v>662900</v>
+        <v>695600</v>
       </c>
       <c r="H81" s="3">
-        <v>632600</v>
+        <v>745800</v>
       </c>
       <c r="I81" s="3">
-        <v>529000</v>
+        <v>711700</v>
       </c>
       <c r="J81" s="3">
+        <v>595200</v>
+      </c>
+      <c r="K81" s="3">
         <v>502700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>678200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>574500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>456300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>590500</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>136700</v>
+        <v>163800</v>
       </c>
       <c r="E83" s="3">
-        <v>122600</v>
+        <v>153800</v>
       </c>
       <c r="F83" s="3">
-        <v>118800</v>
+        <v>137900</v>
       </c>
       <c r="G83" s="3">
-        <v>88800</v>
+        <v>133700</v>
       </c>
       <c r="H83" s="3">
-        <v>87200</v>
+        <v>99900</v>
       </c>
       <c r="I83" s="3">
-        <v>73200</v>
+        <v>98100</v>
       </c>
       <c r="J83" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K83" s="3">
         <v>60000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>52500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>79400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>72200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>78600</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-669600</v>
+        <v>510500</v>
       </c>
       <c r="E89" s="3">
-        <v>-927600</v>
+        <v>-2333600</v>
       </c>
       <c r="F89" s="3">
-        <v>2039600</v>
+        <v>-1043500</v>
       </c>
       <c r="G89" s="3">
-        <v>1145200</v>
+        <v>2294500</v>
       </c>
       <c r="H89" s="3">
-        <v>-449400</v>
+        <v>1288400</v>
       </c>
       <c r="I89" s="3">
-        <v>842600</v>
+        <v>-505500</v>
       </c>
       <c r="J89" s="3">
+        <v>947900</v>
+      </c>
+      <c r="K89" s="3">
         <v>782000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>346700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>696000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1477000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2288600</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-86100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-72900</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="M91" s="3">
         <v>-53000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-38400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-56400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-76500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-65800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-69800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-72900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-70300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-53000</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-47000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-39200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-90800</v>
+        <v>-117900</v>
       </c>
       <c r="E94" s="3">
-        <v>-69300</v>
+        <v>-102100</v>
       </c>
       <c r="F94" s="3">
-        <v>-153900</v>
+        <v>-78000</v>
       </c>
       <c r="G94" s="3">
-        <v>-102600</v>
+        <v>-173100</v>
       </c>
       <c r="H94" s="3">
-        <v>-82300</v>
+        <v>-115400</v>
       </c>
       <c r="I94" s="3">
-        <v>-101000</v>
+        <v>-92600</v>
       </c>
       <c r="J94" s="3">
+        <v>-113700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-104000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-110300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>39000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-92300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-76600</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-347700</v>
+        <v>-585900</v>
       </c>
       <c r="E96" s="3">
-        <v>-371000</v>
+        <v>-391200</v>
       </c>
       <c r="F96" s="3">
-        <v>-397800</v>
+        <v>-417400</v>
       </c>
       <c r="G96" s="3">
-        <v>-474400</v>
+        <v>-447500</v>
       </c>
       <c r="H96" s="3">
-        <v>-370300</v>
+        <v>-533700</v>
       </c>
       <c r="I96" s="3">
-        <v>-377100</v>
+        <v>-416600</v>
       </c>
       <c r="J96" s="3">
+        <v>-424200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-369800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-315500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-302600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-334100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-420900</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>267300</v>
+        <v>-1448300</v>
       </c>
       <c r="E100" s="3">
-        <v>114300</v>
+        <v>1881000</v>
       </c>
       <c r="F100" s="3">
-        <v>-397800</v>
+        <v>128600</v>
       </c>
       <c r="G100" s="3">
-        <v>-474400</v>
+        <v>-447500</v>
       </c>
       <c r="H100" s="3">
-        <v>-387300</v>
+        <v>-533700</v>
       </c>
       <c r="I100" s="3">
-        <v>-395100</v>
+        <v>-435700</v>
       </c>
       <c r="J100" s="3">
+        <v>-444500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-381500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-326100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-170200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-339500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-425400</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>490100</v>
+        <v>32600</v>
       </c>
       <c r="E101" s="3">
-        <v>-32200</v>
+        <v>551300</v>
       </c>
       <c r="F101" s="3">
-        <v>141900</v>
+        <v>-36200</v>
       </c>
       <c r="G101" s="3">
-        <v>128200</v>
+        <v>159600</v>
       </c>
       <c r="H101" s="3">
-        <v>-35200</v>
+        <v>144300</v>
       </c>
       <c r="I101" s="3">
-        <v>-168300</v>
+        <v>-39600</v>
       </c>
       <c r="J101" s="3">
+        <v>-189300</v>
+      </c>
+      <c r="K101" s="3">
         <v>227800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>41500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-26900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-104600</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3100</v>
+        <v>-1023100</v>
       </c>
       <c r="E102" s="3">
-        <v>-914700</v>
+        <v>-3400</v>
       </c>
       <c r="F102" s="3">
-        <v>1629800</v>
+        <v>-1029100</v>
       </c>
       <c r="G102" s="3">
-        <v>696400</v>
+        <v>1833500</v>
       </c>
       <c r="H102" s="3">
-        <v>-954100</v>
+        <v>783500</v>
       </c>
       <c r="I102" s="3">
-        <v>178100</v>
+        <v>-1073300</v>
       </c>
       <c r="J102" s="3">
+        <v>200400</v>
+      </c>
+      <c r="K102" s="3">
         <v>524300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-48200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>537900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1913500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1682000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1311900</v>
+        <v>1314500</v>
       </c>
       <c r="E21" s="3">
-        <v>1392500</v>
+        <v>1394900</v>
       </c>
       <c r="F21" s="3">
-        <v>959300</v>
+        <v>961500</v>
       </c>
       <c r="G21" s="3">
-        <v>1016900</v>
+        <v>1019000</v>
       </c>
       <c r="H21" s="3">
-        <v>1058600</v>
+        <v>1060200</v>
       </c>
       <c r="I21" s="3">
-        <v>1004800</v>
+        <v>1006400</v>
       </c>
       <c r="J21" s="3">
-        <v>814200</v>
+        <v>815500</v>
       </c>
       <c r="K21" s="3">
         <v>649700</v>

--- a/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5149200</v>
+        <v>4781400</v>
       </c>
       <c r="E8" s="3">
-        <v>2976600</v>
+        <v>2764000</v>
       </c>
       <c r="F8" s="3">
-        <v>2812700</v>
+        <v>2611800</v>
       </c>
       <c r="G8" s="3">
-        <v>2924800</v>
+        <v>2715900</v>
       </c>
       <c r="H8" s="3">
-        <v>2827800</v>
+        <v>2625900</v>
       </c>
       <c r="I8" s="3">
-        <v>2593600</v>
+        <v>2408400</v>
       </c>
       <c r="J8" s="3">
-        <v>2692700</v>
+        <v>2500300</v>
       </c>
       <c r="K8" s="3">
         <v>2336300</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-163800</v>
+        <v>-152100</v>
       </c>
       <c r="E15" s="3">
-        <v>-153800</v>
+        <v>-142800</v>
       </c>
       <c r="F15" s="3">
-        <v>-137900</v>
+        <v>-128000</v>
       </c>
       <c r="G15" s="3">
-        <v>-133700</v>
+        <v>-124100</v>
       </c>
       <c r="H15" s="3">
-        <v>-99900</v>
+        <v>-92800</v>
       </c>
       <c r="I15" s="3">
-        <v>-98100</v>
+        <v>-91100</v>
       </c>
       <c r="J15" s="3">
-        <v>-82400</v>
+        <v>-76500</v>
       </c>
       <c r="K15" s="3">
         <v>-60000</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3547900</v>
+        <v>3294500</v>
       </c>
       <c r="E17" s="3">
-        <v>1019600</v>
+        <v>946800</v>
       </c>
       <c r="F17" s="3">
-        <v>1448400</v>
+        <v>1345000</v>
       </c>
       <c r="G17" s="3">
-        <v>1669300</v>
+        <v>1550100</v>
       </c>
       <c r="H17" s="3">
-        <v>1455300</v>
+        <v>1351400</v>
       </c>
       <c r="I17" s="3">
-        <v>1299000</v>
+        <v>1206200</v>
       </c>
       <c r="J17" s="3">
-        <v>1510700</v>
+        <v>1402800</v>
       </c>
       <c r="K17" s="3">
         <v>1393800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1601300</v>
+        <v>1486900</v>
       </c>
       <c r="E18" s="3">
-        <v>1957000</v>
+        <v>1817200</v>
       </c>
       <c r="F18" s="3">
-        <v>1364300</v>
+        <v>1266800</v>
       </c>
       <c r="G18" s="3">
-        <v>1255500</v>
+        <v>1165800</v>
       </c>
       <c r="H18" s="3">
-        <v>1372500</v>
+        <v>1274500</v>
       </c>
       <c r="I18" s="3">
-        <v>1294600</v>
+        <v>1202200</v>
       </c>
       <c r="J18" s="3">
-        <v>1182000</v>
+        <v>1097600</v>
       </c>
       <c r="K18" s="3">
         <v>942500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-450500</v>
+        <v>-418400</v>
       </c>
       <c r="E20" s="3">
-        <v>-715800</v>
+        <v>-664700</v>
       </c>
       <c r="F20" s="3">
-        <v>-540700</v>
+        <v>-502000</v>
       </c>
       <c r="G20" s="3">
-        <v>-370100</v>
+        <v>-343700</v>
       </c>
       <c r="H20" s="3">
-        <v>-412200</v>
+        <v>-382700</v>
       </c>
       <c r="I20" s="3">
-        <v>-386300</v>
+        <v>-358700</v>
       </c>
       <c r="J20" s="3">
-        <v>-448900</v>
+        <v>-416800</v>
       </c>
       <c r="K20" s="3">
         <v>-351800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1314500</v>
+        <v>1220600</v>
       </c>
       <c r="E21" s="3">
-        <v>1394900</v>
+        <v>1295300</v>
       </c>
       <c r="F21" s="3">
-        <v>961500</v>
+        <v>892800</v>
       </c>
       <c r="G21" s="3">
-        <v>1019000</v>
+        <v>946200</v>
       </c>
       <c r="H21" s="3">
-        <v>1060200</v>
+        <v>984500</v>
       </c>
       <c r="I21" s="3">
-        <v>1006400</v>
+        <v>934500</v>
       </c>
       <c r="J21" s="3">
-        <v>815500</v>
+        <v>757200</v>
       </c>
       <c r="K21" s="3">
         <v>649700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1150700</v>
+        <v>1068500</v>
       </c>
       <c r="E23" s="3">
-        <v>1241200</v>
+        <v>1152500</v>
       </c>
       <c r="F23" s="3">
-        <v>823600</v>
+        <v>764800</v>
       </c>
       <c r="G23" s="3">
-        <v>885300</v>
+        <v>822100</v>
       </c>
       <c r="H23" s="3">
-        <v>960300</v>
+        <v>891700</v>
       </c>
       <c r="I23" s="3">
-        <v>908300</v>
+        <v>843400</v>
       </c>
       <c r="J23" s="3">
-        <v>733100</v>
+        <v>680700</v>
       </c>
       <c r="K23" s="3">
         <v>590700</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>112700</v>
+        <v>104600</v>
       </c>
       <c r="E24" s="3">
-        <v>247100</v>
+        <v>229500</v>
       </c>
       <c r="F24" s="3">
-        <v>165200</v>
+        <v>153400</v>
       </c>
       <c r="G24" s="3">
-        <v>189200</v>
+        <v>175700</v>
       </c>
       <c r="H24" s="3">
-        <v>209000</v>
+        <v>194100</v>
       </c>
       <c r="I24" s="3">
-        <v>181000</v>
+        <v>168000</v>
       </c>
       <c r="J24" s="3">
-        <v>135000</v>
+        <v>125300</v>
       </c>
       <c r="K24" s="3">
         <v>84300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1038100</v>
+        <v>963900</v>
       </c>
       <c r="E26" s="3">
-        <v>994000</v>
+        <v>923000</v>
       </c>
       <c r="F26" s="3">
-        <v>658400</v>
+        <v>611400</v>
       </c>
       <c r="G26" s="3">
-        <v>696100</v>
+        <v>646400</v>
       </c>
       <c r="H26" s="3">
-        <v>751300</v>
+        <v>697600</v>
       </c>
       <c r="I26" s="3">
-        <v>727400</v>
+        <v>675400</v>
       </c>
       <c r="J26" s="3">
-        <v>598100</v>
+        <v>555400</v>
       </c>
       <c r="K26" s="3">
         <v>506400</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1018900</v>
+        <v>946100</v>
       </c>
       <c r="E27" s="3">
-        <v>981500</v>
+        <v>911400</v>
       </c>
       <c r="F27" s="3">
-        <v>652000</v>
+        <v>605400</v>
       </c>
       <c r="G27" s="3">
-        <v>693500</v>
+        <v>644000</v>
       </c>
       <c r="H27" s="3">
-        <v>745800</v>
+        <v>692500</v>
       </c>
       <c r="I27" s="3">
-        <v>711700</v>
+        <v>660800</v>
       </c>
       <c r="J27" s="3">
-        <v>595200</v>
+        <v>552700</v>
       </c>
       <c r="K27" s="3">
         <v>502700</v>
@@ -1542,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>450500</v>
+        <v>418400</v>
       </c>
       <c r="E32" s="3">
-        <v>715800</v>
+        <v>664700</v>
       </c>
       <c r="F32" s="3">
-        <v>540700</v>
+        <v>502000</v>
       </c>
       <c r="G32" s="3">
-        <v>370100</v>
+        <v>343700</v>
       </c>
       <c r="H32" s="3">
-        <v>412200</v>
+        <v>382700</v>
       </c>
       <c r="I32" s="3">
-        <v>386300</v>
+        <v>358700</v>
       </c>
       <c r="J32" s="3">
-        <v>448900</v>
+        <v>416800</v>
       </c>
       <c r="K32" s="3">
         <v>351800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1018900</v>
+        <v>946100</v>
       </c>
       <c r="E33" s="3">
-        <v>981500</v>
+        <v>911400</v>
       </c>
       <c r="F33" s="3">
-        <v>652000</v>
+        <v>605400</v>
       </c>
       <c r="G33" s="3">
-        <v>695600</v>
+        <v>645900</v>
       </c>
       <c r="H33" s="3">
-        <v>745800</v>
+        <v>692500</v>
       </c>
       <c r="I33" s="3">
-        <v>711700</v>
+        <v>660800</v>
       </c>
       <c r="J33" s="3">
-        <v>595200</v>
+        <v>552700</v>
       </c>
       <c r="K33" s="3">
         <v>502700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1018900</v>
+        <v>946100</v>
       </c>
       <c r="E35" s="3">
-        <v>981500</v>
+        <v>911400</v>
       </c>
       <c r="F35" s="3">
-        <v>652000</v>
+        <v>605400</v>
       </c>
       <c r="G35" s="3">
-        <v>695600</v>
+        <v>645900</v>
       </c>
       <c r="H35" s="3">
-        <v>745800</v>
+        <v>692500</v>
       </c>
       <c r="I35" s="3">
-        <v>711700</v>
+        <v>660800</v>
       </c>
       <c r="J35" s="3">
-        <v>595200</v>
+        <v>552700</v>
       </c>
       <c r="K35" s="3">
         <v>502700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3064400</v>
+        <v>2845500</v>
       </c>
       <c r="E41" s="3">
-        <v>2453700</v>
+        <v>2278500</v>
       </c>
       <c r="F41" s="3">
-        <v>3087800</v>
+        <v>2867300</v>
       </c>
       <c r="G41" s="3">
-        <v>3732300</v>
+        <v>3465700</v>
       </c>
       <c r="H41" s="3">
-        <v>2704800</v>
+        <v>2511600</v>
       </c>
       <c r="I41" s="3">
-        <v>2376100</v>
+        <v>2206400</v>
       </c>
       <c r="J41" s="3">
-        <v>2325300</v>
+        <v>2159200</v>
       </c>
       <c r="K41" s="3">
         <v>1738600</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1538100</v>
+        <v>1428200</v>
       </c>
       <c r="E42" s="3">
-        <v>15585700</v>
+        <v>14472500</v>
       </c>
       <c r="F42" s="3">
-        <v>12588700</v>
+        <v>11689500</v>
       </c>
       <c r="G42" s="3">
-        <v>11821000</v>
+        <v>10976700</v>
       </c>
       <c r="H42" s="3">
-        <v>4366900</v>
+        <v>4054900</v>
       </c>
       <c r="I42" s="3">
-        <v>3934700</v>
+        <v>3653600</v>
       </c>
       <c r="J42" s="3">
-        <v>5174500</v>
+        <v>4804900</v>
       </c>
       <c r="K42" s="3">
         <v>5354700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>58700</v>
+        <v>54500</v>
       </c>
       <c r="E47" s="3">
-        <v>47500</v>
+        <v>44100</v>
       </c>
       <c r="F47" s="3">
-        <v>13600</v>
+        <v>12600</v>
       </c>
       <c r="G47" s="3">
-        <v>13200</v>
+        <v>12200</v>
       </c>
       <c r="H47" s="3">
-        <v>40700</v>
+        <v>37800</v>
       </c>
       <c r="I47" s="3">
-        <v>34800</v>
+        <v>32300</v>
       </c>
       <c r="J47" s="3">
-        <v>30000</v>
+        <v>27800</v>
       </c>
       <c r="K47" s="3">
         <v>22700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>468600</v>
+        <v>435100</v>
       </c>
       <c r="E48" s="3">
-        <v>708300</v>
+        <v>657700</v>
       </c>
       <c r="F48" s="3">
-        <v>490000</v>
+        <v>455000</v>
       </c>
       <c r="G48" s="3">
-        <v>514500</v>
+        <v>477700</v>
       </c>
       <c r="H48" s="3">
-        <v>319500</v>
+        <v>296700</v>
       </c>
       <c r="I48" s="3">
-        <v>305600</v>
+        <v>283800</v>
       </c>
       <c r="J48" s="3">
-        <v>324300</v>
+        <v>301100</v>
       </c>
       <c r="K48" s="3">
         <v>269500</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>135800</v>
+        <v>126100</v>
       </c>
       <c r="E49" s="3">
-        <v>120200</v>
+        <v>111600</v>
       </c>
       <c r="F49" s="3">
-        <v>104000</v>
+        <v>96600</v>
       </c>
       <c r="G49" s="3">
-        <v>92500</v>
+        <v>85900</v>
       </c>
       <c r="H49" s="3">
-        <v>84300</v>
+        <v>78300</v>
       </c>
       <c r="I49" s="3">
-        <v>79700</v>
+        <v>74000</v>
       </c>
       <c r="J49" s="3">
-        <v>73200</v>
+        <v>68000</v>
       </c>
       <c r="K49" s="3">
         <v>57300</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>435400</v>
+        <v>404300</v>
       </c>
       <c r="E52" s="3">
-        <v>556300</v>
+        <v>516500</v>
       </c>
       <c r="F52" s="3">
-        <v>706600</v>
+        <v>656200</v>
       </c>
       <c r="G52" s="3">
-        <v>584100</v>
+        <v>542300</v>
       </c>
       <c r="H52" s="3">
-        <v>483600</v>
+        <v>449000</v>
       </c>
       <c r="I52" s="3">
-        <v>487000</v>
+        <v>452200</v>
       </c>
       <c r="J52" s="3">
-        <v>471700</v>
+        <v>438000</v>
       </c>
       <c r="K52" s="3">
         <v>373600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>85887400</v>
+        <v>79752600</v>
       </c>
       <c r="E54" s="3">
-        <v>80180200</v>
+        <v>74453000</v>
       </c>
       <c r="F54" s="3">
-        <v>70277900</v>
+        <v>65258000</v>
       </c>
       <c r="G54" s="3">
-        <v>63728600</v>
+        <v>59176500</v>
       </c>
       <c r="H54" s="3">
-        <v>49388700</v>
+        <v>45860900</v>
       </c>
       <c r="I54" s="3">
-        <v>45113400</v>
+        <v>41891000</v>
       </c>
       <c r="J54" s="3">
-        <v>46628400</v>
+        <v>43297800</v>
       </c>
       <c r="K54" s="3">
         <v>38812600</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1452500</v>
+        <v>1348700</v>
       </c>
       <c r="E57" s="3">
-        <v>867100</v>
+        <v>805100</v>
       </c>
       <c r="F57" s="3">
-        <v>455700</v>
+        <v>423100</v>
       </c>
       <c r="G57" s="3">
-        <v>249800</v>
+        <v>232000</v>
       </c>
       <c r="H57" s="3">
-        <v>205400</v>
+        <v>190800</v>
       </c>
       <c r="I57" s="3">
-        <v>613300</v>
+        <v>569500</v>
       </c>
       <c r="J57" s="3">
-        <v>363500</v>
+        <v>337500</v>
       </c>
       <c r="K57" s="3">
         <v>517600</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5552900</v>
+        <v>5156300</v>
       </c>
       <c r="E58" s="3">
-        <v>6218400</v>
+        <v>5774200</v>
       </c>
       <c r="F58" s="3">
-        <v>4883200</v>
+        <v>4534400</v>
       </c>
       <c r="G58" s="3">
-        <v>6382400</v>
+        <v>5926500</v>
       </c>
       <c r="H58" s="3">
-        <v>3683200</v>
+        <v>3420100</v>
       </c>
       <c r="I58" s="3">
-        <v>3157600</v>
+        <v>2932100</v>
       </c>
       <c r="J58" s="3">
-        <v>4188500</v>
+        <v>3889300</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500000</v>
+        <v>464300</v>
       </c>
       <c r="E59" s="3">
-        <v>342700</v>
+        <v>318300</v>
       </c>
       <c r="F59" s="3">
-        <v>34200</v>
+        <v>31700</v>
       </c>
       <c r="G59" s="3">
-        <v>10300</v>
+        <v>9500</v>
       </c>
       <c r="H59" s="3">
-        <v>12700</v>
+        <v>11800</v>
       </c>
       <c r="I59" s="3">
-        <v>10500</v>
+        <v>9700</v>
       </c>
       <c r="J59" s="3">
-        <v>39400</v>
+        <v>36600</v>
       </c>
       <c r="K59" s="3">
         <v>21800</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18513300</v>
+        <v>17191000</v>
       </c>
       <c r="E61" s="3">
-        <v>17072200</v>
+        <v>15852700</v>
       </c>
       <c r="F61" s="3">
-        <v>15357400</v>
+        <v>14260500</v>
       </c>
       <c r="G61" s="3">
-        <v>9997200</v>
+        <v>9283100</v>
       </c>
       <c r="H61" s="3">
-        <v>9333900</v>
+        <v>8667200</v>
       </c>
       <c r="I61" s="3">
-        <v>8811200</v>
+        <v>8181800</v>
       </c>
       <c r="J61" s="3">
-        <v>8221700</v>
+        <v>7634500</v>
       </c>
       <c r="K61" s="3">
         <v>8383400</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>635500</v>
+        <v>590100</v>
       </c>
       <c r="E62" s="3">
-        <v>1583100</v>
+        <v>1470000</v>
       </c>
       <c r="F62" s="3">
-        <v>737300</v>
+        <v>684700</v>
       </c>
       <c r="G62" s="3">
-        <v>550600</v>
+        <v>511300</v>
       </c>
       <c r="H62" s="3">
-        <v>435100</v>
+        <v>404000</v>
       </c>
       <c r="I62" s="3">
-        <v>420800</v>
+        <v>390800</v>
       </c>
       <c r="J62" s="3">
-        <v>399000</v>
+        <v>370500</v>
       </c>
       <c r="K62" s="3">
         <v>373000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>80685100</v>
+        <v>74921900</v>
       </c>
       <c r="E66" s="3">
-        <v>75600200</v>
+        <v>70200200</v>
       </c>
       <c r="F66" s="3">
-        <v>65782300</v>
+        <v>61083500</v>
       </c>
       <c r="G66" s="3">
-        <v>59456200</v>
+        <v>55209300</v>
       </c>
       <c r="H66" s="3">
-        <v>45306800</v>
+        <v>42070600</v>
       </c>
       <c r="I66" s="3">
-        <v>41250000</v>
+        <v>38303600</v>
       </c>
       <c r="J66" s="3">
-        <v>43013800</v>
+        <v>39941400</v>
       </c>
       <c r="K66" s="3">
         <v>35749700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4289900</v>
+        <v>3983400</v>
       </c>
       <c r="E72" s="3">
-        <v>3903500</v>
+        <v>3624600</v>
       </c>
       <c r="F72" s="3">
-        <v>3407300</v>
+        <v>3163900</v>
       </c>
       <c r="G72" s="3">
-        <v>3159600</v>
+        <v>2933900</v>
       </c>
       <c r="H72" s="3">
-        <v>2945100</v>
+        <v>2734700</v>
       </c>
       <c r="I72" s="3">
-        <v>2743300</v>
+        <v>2547300</v>
       </c>
       <c r="J72" s="3">
-        <v>2483200</v>
+        <v>2305800</v>
       </c>
       <c r="K72" s="3">
         <v>2063200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5202300</v>
+        <v>4830700</v>
       </c>
       <c r="E76" s="3">
-        <v>4580000</v>
+        <v>4252900</v>
       </c>
       <c r="F76" s="3">
-        <v>4495600</v>
+        <v>4174500</v>
       </c>
       <c r="G76" s="3">
-        <v>4272400</v>
+        <v>3967300</v>
       </c>
       <c r="H76" s="3">
-        <v>4081800</v>
+        <v>3790300</v>
       </c>
       <c r="I76" s="3">
-        <v>3863400</v>
+        <v>3587400</v>
       </c>
       <c r="J76" s="3">
-        <v>3614600</v>
+        <v>3356400</v>
       </c>
       <c r="K76" s="3">
         <v>3062900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1018900</v>
+        <v>946100</v>
       </c>
       <c r="E81" s="3">
-        <v>981500</v>
+        <v>911400</v>
       </c>
       <c r="F81" s="3">
-        <v>652000</v>
+        <v>605400</v>
       </c>
       <c r="G81" s="3">
-        <v>695600</v>
+        <v>645900</v>
       </c>
       <c r="H81" s="3">
-        <v>745800</v>
+        <v>692500</v>
       </c>
       <c r="I81" s="3">
-        <v>711700</v>
+        <v>660800</v>
       </c>
       <c r="J81" s="3">
-        <v>595200</v>
+        <v>552700</v>
       </c>
       <c r="K81" s="3">
         <v>502700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>163800</v>
+        <v>152100</v>
       </c>
       <c r="E83" s="3">
-        <v>153800</v>
+        <v>142800</v>
       </c>
       <c r="F83" s="3">
-        <v>137900</v>
+        <v>128000</v>
       </c>
       <c r="G83" s="3">
-        <v>133700</v>
+        <v>124100</v>
       </c>
       <c r="H83" s="3">
-        <v>99900</v>
+        <v>92800</v>
       </c>
       <c r="I83" s="3">
-        <v>98100</v>
+        <v>91100</v>
       </c>
       <c r="J83" s="3">
-        <v>82400</v>
+        <v>76500</v>
       </c>
       <c r="K83" s="3">
         <v>60000</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>510500</v>
+        <v>474000</v>
       </c>
       <c r="E89" s="3">
-        <v>-2333600</v>
+        <v>-2166900</v>
       </c>
       <c r="F89" s="3">
-        <v>-1043500</v>
+        <v>-969000</v>
       </c>
       <c r="G89" s="3">
-        <v>2294500</v>
+        <v>2130600</v>
       </c>
       <c r="H89" s="3">
-        <v>1288400</v>
+        <v>1196400</v>
       </c>
       <c r="I89" s="3">
-        <v>-505500</v>
+        <v>-469400</v>
       </c>
       <c r="J89" s="3">
-        <v>947900</v>
+        <v>880200</v>
       </c>
       <c r="K89" s="3">
         <v>782000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-54800</v>
+        <v>-50900</v>
       </c>
       <c r="E91" s="3">
-        <v>-59600</v>
+        <v>-55300</v>
       </c>
       <c r="F91" s="3">
-        <v>-43200</v>
+        <v>-40100</v>
       </c>
       <c r="G91" s="3">
-        <v>-63500</v>
+        <v>-58900</v>
       </c>
       <c r="H91" s="3">
-        <v>-86100</v>
+        <v>-79900</v>
       </c>
       <c r="I91" s="3">
-        <v>-74100</v>
+        <v>-68800</v>
       </c>
       <c r="J91" s="3">
-        <v>-78600</v>
+        <v>-73000</v>
       </c>
       <c r="K91" s="3">
         <v>-72900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-117900</v>
+        <v>-109500</v>
       </c>
       <c r="E94" s="3">
-        <v>-102100</v>
+        <v>-94800</v>
       </c>
       <c r="F94" s="3">
-        <v>-78000</v>
+        <v>-72400</v>
       </c>
       <c r="G94" s="3">
-        <v>-173100</v>
+        <v>-160800</v>
       </c>
       <c r="H94" s="3">
-        <v>-115400</v>
+        <v>-107200</v>
       </c>
       <c r="I94" s="3">
-        <v>-92600</v>
+        <v>-85900</v>
       </c>
       <c r="J94" s="3">
-        <v>-113700</v>
+        <v>-105500</v>
       </c>
       <c r="K94" s="3">
         <v>-104000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-585900</v>
+        <v>-544000</v>
       </c>
       <c r="E96" s="3">
-        <v>-391200</v>
+        <v>-363200</v>
       </c>
       <c r="F96" s="3">
-        <v>-417400</v>
+        <v>-387600</v>
       </c>
       <c r="G96" s="3">
-        <v>-447500</v>
+        <v>-415500</v>
       </c>
       <c r="H96" s="3">
-        <v>-533700</v>
+        <v>-495600</v>
       </c>
       <c r="I96" s="3">
-        <v>-416600</v>
+        <v>-386900</v>
       </c>
       <c r="J96" s="3">
-        <v>-424200</v>
+        <v>-393900</v>
       </c>
       <c r="K96" s="3">
         <v>-369800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1448300</v>
+        <v>-1344900</v>
       </c>
       <c r="E100" s="3">
-        <v>1881000</v>
+        <v>1746600</v>
       </c>
       <c r="F100" s="3">
-        <v>128600</v>
+        <v>119400</v>
       </c>
       <c r="G100" s="3">
-        <v>-447500</v>
+        <v>-415500</v>
       </c>
       <c r="H100" s="3">
-        <v>-533700</v>
+        <v>-495600</v>
       </c>
       <c r="I100" s="3">
-        <v>-435700</v>
+        <v>-404600</v>
       </c>
       <c r="J100" s="3">
-        <v>-444500</v>
+        <v>-412800</v>
       </c>
       <c r="K100" s="3">
         <v>-381500</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>32600</v>
+        <v>30300</v>
       </c>
       <c r="E101" s="3">
-        <v>551300</v>
+        <v>511900</v>
       </c>
       <c r="F101" s="3">
-        <v>-36200</v>
+        <v>-33600</v>
       </c>
       <c r="G101" s="3">
-        <v>159600</v>
+        <v>148200</v>
       </c>
       <c r="H101" s="3">
-        <v>144300</v>
+        <v>134000</v>
       </c>
       <c r="I101" s="3">
-        <v>-39600</v>
+        <v>-36700</v>
       </c>
       <c r="J101" s="3">
-        <v>-189300</v>
+        <v>-175800</v>
       </c>
       <c r="K101" s="3">
         <v>227800</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1023100</v>
+        <v>-950100</v>
       </c>
       <c r="E102" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1029100</v>
+        <v>-955600</v>
       </c>
       <c r="G102" s="3">
-        <v>1833500</v>
+        <v>1702600</v>
       </c>
       <c r="H102" s="3">
-        <v>783500</v>
+        <v>727500</v>
       </c>
       <c r="I102" s="3">
-        <v>-1073300</v>
+        <v>-996700</v>
       </c>
       <c r="J102" s="3">
-        <v>200400</v>
+        <v>186100</v>
       </c>
       <c r="K102" s="3">
         <v>524300</v>

--- a/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BSAC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4781400</v>
+        <v>4617900</v>
       </c>
       <c r="E8" s="3">
-        <v>2764000</v>
+        <v>2669500</v>
       </c>
       <c r="F8" s="3">
-        <v>2611800</v>
+        <v>2522500</v>
       </c>
       <c r="G8" s="3">
-        <v>2715900</v>
+        <v>2623000</v>
       </c>
       <c r="H8" s="3">
-        <v>2625900</v>
+        <v>2536100</v>
       </c>
       <c r="I8" s="3">
-        <v>2408400</v>
+        <v>2326000</v>
       </c>
       <c r="J8" s="3">
-        <v>2500300</v>
+        <v>2414900</v>
       </c>
       <c r="K8" s="3">
         <v>2336300</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-152100</v>
+        <v>-146900</v>
       </c>
       <c r="E15" s="3">
-        <v>-142800</v>
+        <v>-137900</v>
       </c>
       <c r="F15" s="3">
-        <v>-128000</v>
+        <v>-123700</v>
       </c>
       <c r="G15" s="3">
-        <v>-124100</v>
+        <v>-119900</v>
       </c>
       <c r="H15" s="3">
-        <v>-92800</v>
+        <v>-89600</v>
       </c>
       <c r="I15" s="3">
-        <v>-91100</v>
+        <v>-87900</v>
       </c>
       <c r="J15" s="3">
-        <v>-76500</v>
+        <v>-73900</v>
       </c>
       <c r="K15" s="3">
         <v>-60000</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3294500</v>
+        <v>3181900</v>
       </c>
       <c r="E17" s="3">
-        <v>946800</v>
+        <v>914400</v>
       </c>
       <c r="F17" s="3">
-        <v>1345000</v>
+        <v>1299000</v>
       </c>
       <c r="G17" s="3">
-        <v>1550100</v>
+        <v>1497100</v>
       </c>
       <c r="H17" s="3">
-        <v>1351400</v>
+        <v>1305200</v>
       </c>
       <c r="I17" s="3">
-        <v>1206200</v>
+        <v>1165000</v>
       </c>
       <c r="J17" s="3">
-        <v>1402800</v>
+        <v>1354800</v>
       </c>
       <c r="K17" s="3">
         <v>1393800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1486900</v>
+        <v>1436100</v>
       </c>
       <c r="E18" s="3">
-        <v>1817200</v>
+        <v>1755100</v>
       </c>
       <c r="F18" s="3">
-        <v>1266800</v>
+        <v>1223500</v>
       </c>
       <c r="G18" s="3">
-        <v>1165800</v>
+        <v>1125900</v>
       </c>
       <c r="H18" s="3">
-        <v>1274500</v>
+        <v>1230900</v>
       </c>
       <c r="I18" s="3">
-        <v>1202200</v>
+        <v>1161100</v>
       </c>
       <c r="J18" s="3">
-        <v>1097600</v>
+        <v>1060000</v>
       </c>
       <c r="K18" s="3">
         <v>942500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-418400</v>
+        <v>-404100</v>
       </c>
       <c r="E20" s="3">
-        <v>-664700</v>
+        <v>-642000</v>
       </c>
       <c r="F20" s="3">
-        <v>-502000</v>
+        <v>-484900</v>
       </c>
       <c r="G20" s="3">
-        <v>-343700</v>
+        <v>-331900</v>
       </c>
       <c r="H20" s="3">
-        <v>-382700</v>
+        <v>-369700</v>
       </c>
       <c r="I20" s="3">
-        <v>-358700</v>
+        <v>-346500</v>
       </c>
       <c r="J20" s="3">
-        <v>-416800</v>
+        <v>-402600</v>
       </c>
       <c r="K20" s="3">
         <v>-351800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1220600</v>
+        <v>1178900</v>
       </c>
       <c r="E21" s="3">
-        <v>1295300</v>
+        <v>1251000</v>
       </c>
       <c r="F21" s="3">
-        <v>892800</v>
+        <v>862300</v>
       </c>
       <c r="G21" s="3">
-        <v>946200</v>
+        <v>913900</v>
       </c>
       <c r="H21" s="3">
-        <v>984500</v>
+        <v>950800</v>
       </c>
       <c r="I21" s="3">
-        <v>934500</v>
+        <v>902500</v>
       </c>
       <c r="J21" s="3">
-        <v>757200</v>
+        <v>731300</v>
       </c>
       <c r="K21" s="3">
         <v>649700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1068500</v>
+        <v>1032000</v>
       </c>
       <c r="E23" s="3">
-        <v>1152500</v>
+        <v>1113100</v>
       </c>
       <c r="F23" s="3">
-        <v>764800</v>
+        <v>738700</v>
       </c>
       <c r="G23" s="3">
-        <v>822100</v>
+        <v>794000</v>
       </c>
       <c r="H23" s="3">
-        <v>891700</v>
+        <v>861200</v>
       </c>
       <c r="I23" s="3">
-        <v>843400</v>
+        <v>814600</v>
       </c>
       <c r="J23" s="3">
-        <v>680700</v>
+        <v>657500</v>
       </c>
       <c r="K23" s="3">
         <v>590700</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>104600</v>
+        <v>101100</v>
       </c>
       <c r="E24" s="3">
-        <v>229500</v>
+        <v>221600</v>
       </c>
       <c r="F24" s="3">
-        <v>153400</v>
+        <v>148200</v>
       </c>
       <c r="G24" s="3">
-        <v>175700</v>
+        <v>169700</v>
       </c>
       <c r="H24" s="3">
-        <v>194100</v>
+        <v>187500</v>
       </c>
       <c r="I24" s="3">
-        <v>168000</v>
+        <v>162300</v>
       </c>
       <c r="J24" s="3">
-        <v>125300</v>
+        <v>121000</v>
       </c>
       <c r="K24" s="3">
         <v>84300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>963900</v>
+        <v>931000</v>
       </c>
       <c r="E26" s="3">
-        <v>923000</v>
+        <v>891500</v>
       </c>
       <c r="F26" s="3">
-        <v>611400</v>
+        <v>590500</v>
       </c>
       <c r="G26" s="3">
-        <v>646400</v>
+        <v>624300</v>
       </c>
       <c r="H26" s="3">
-        <v>697600</v>
+        <v>673800</v>
       </c>
       <c r="I26" s="3">
-        <v>675400</v>
+        <v>652300</v>
       </c>
       <c r="J26" s="3">
-        <v>555400</v>
+        <v>536400</v>
       </c>
       <c r="K26" s="3">
         <v>506400</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>946100</v>
+        <v>913800</v>
       </c>
       <c r="E27" s="3">
-        <v>911400</v>
+        <v>880200</v>
       </c>
       <c r="F27" s="3">
-        <v>605400</v>
+        <v>584700</v>
       </c>
       <c r="G27" s="3">
-        <v>644000</v>
+        <v>621900</v>
       </c>
       <c r="H27" s="3">
-        <v>692500</v>
+        <v>668800</v>
       </c>
       <c r="I27" s="3">
-        <v>660800</v>
+        <v>638200</v>
       </c>
       <c r="J27" s="3">
-        <v>552700</v>
+        <v>533800</v>
       </c>
       <c r="K27" s="3">
         <v>502700</v>
@@ -1542,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>418400</v>
+        <v>404100</v>
       </c>
       <c r="E32" s="3">
-        <v>664700</v>
+        <v>642000</v>
       </c>
       <c r="F32" s="3">
-        <v>502000</v>
+        <v>484900</v>
       </c>
       <c r="G32" s="3">
-        <v>343700</v>
+        <v>331900</v>
       </c>
       <c r="H32" s="3">
-        <v>382700</v>
+        <v>369700</v>
       </c>
       <c r="I32" s="3">
-        <v>358700</v>
+        <v>346500</v>
       </c>
       <c r="J32" s="3">
-        <v>416800</v>
+        <v>402600</v>
       </c>
       <c r="K32" s="3">
         <v>351800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>946100</v>
+        <v>913800</v>
       </c>
       <c r="E33" s="3">
-        <v>911400</v>
+        <v>880200</v>
       </c>
       <c r="F33" s="3">
-        <v>605400</v>
+        <v>584700</v>
       </c>
       <c r="G33" s="3">
-        <v>645900</v>
+        <v>623900</v>
       </c>
       <c r="H33" s="3">
-        <v>692500</v>
+        <v>668800</v>
       </c>
       <c r="I33" s="3">
-        <v>660800</v>
+        <v>638200</v>
       </c>
       <c r="J33" s="3">
-        <v>552700</v>
+        <v>533800</v>
       </c>
       <c r="K33" s="3">
         <v>502700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>946100</v>
+        <v>913800</v>
       </c>
       <c r="E35" s="3">
-        <v>911400</v>
+        <v>880200</v>
       </c>
       <c r="F35" s="3">
-        <v>605400</v>
+        <v>584700</v>
       </c>
       <c r="G35" s="3">
-        <v>645900</v>
+        <v>623900</v>
       </c>
       <c r="H35" s="3">
-        <v>692500</v>
+        <v>668800</v>
       </c>
       <c r="I35" s="3">
-        <v>660800</v>
+        <v>638200</v>
       </c>
       <c r="J35" s="3">
-        <v>552700</v>
+        <v>533800</v>
       </c>
       <c r="K35" s="3">
         <v>502700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2845500</v>
+        <v>2748300</v>
       </c>
       <c r="E41" s="3">
-        <v>2278500</v>
+        <v>2200600</v>
       </c>
       <c r="F41" s="3">
-        <v>2867300</v>
+        <v>2769300</v>
       </c>
       <c r="G41" s="3">
-        <v>3465700</v>
+        <v>3347200</v>
       </c>
       <c r="H41" s="3">
-        <v>2511600</v>
+        <v>2425800</v>
       </c>
       <c r="I41" s="3">
-        <v>2206400</v>
+        <v>2130900</v>
       </c>
       <c r="J41" s="3">
-        <v>2159200</v>
+        <v>2085400</v>
       </c>
       <c r="K41" s="3">
         <v>1738600</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1428200</v>
+        <v>1379400</v>
       </c>
       <c r="E42" s="3">
-        <v>14472500</v>
+        <v>13977700</v>
       </c>
       <c r="F42" s="3">
-        <v>11689500</v>
+        <v>11289900</v>
       </c>
       <c r="G42" s="3">
-        <v>10976700</v>
+        <v>10601400</v>
       </c>
       <c r="H42" s="3">
-        <v>4054900</v>
+        <v>3916300</v>
       </c>
       <c r="I42" s="3">
-        <v>3653600</v>
+        <v>3528700</v>
       </c>
       <c r="J42" s="3">
-        <v>4804900</v>
+        <v>4640600</v>
       </c>
       <c r="K42" s="3">
         <v>5354700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>54500</v>
+        <v>52600</v>
       </c>
       <c r="E47" s="3">
-        <v>44100</v>
+        <v>42600</v>
       </c>
       <c r="F47" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="G47" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="H47" s="3">
-        <v>37800</v>
+        <v>36500</v>
       </c>
       <c r="I47" s="3">
-        <v>32300</v>
+        <v>31200</v>
       </c>
       <c r="J47" s="3">
-        <v>27800</v>
+        <v>26900</v>
       </c>
       <c r="K47" s="3">
         <v>22700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>435100</v>
+        <v>420200</v>
       </c>
       <c r="E48" s="3">
-        <v>657700</v>
+        <v>635200</v>
       </c>
       <c r="F48" s="3">
-        <v>455000</v>
+        <v>439400</v>
       </c>
       <c r="G48" s="3">
-        <v>477700</v>
+        <v>461400</v>
       </c>
       <c r="H48" s="3">
-        <v>296700</v>
+        <v>286600</v>
       </c>
       <c r="I48" s="3">
-        <v>283800</v>
+        <v>274100</v>
       </c>
       <c r="J48" s="3">
-        <v>301100</v>
+        <v>290800</v>
       </c>
       <c r="K48" s="3">
         <v>269500</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>126100</v>
+        <v>121800</v>
       </c>
       <c r="E49" s="3">
-        <v>111600</v>
+        <v>107800</v>
       </c>
       <c r="F49" s="3">
-        <v>96600</v>
+        <v>93300</v>
       </c>
       <c r="G49" s="3">
-        <v>85900</v>
+        <v>82900</v>
       </c>
       <c r="H49" s="3">
-        <v>78300</v>
+        <v>75600</v>
       </c>
       <c r="I49" s="3">
-        <v>74000</v>
+        <v>71400</v>
       </c>
       <c r="J49" s="3">
-        <v>68000</v>
+        <v>65600</v>
       </c>
       <c r="K49" s="3">
         <v>57300</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>404300</v>
+        <v>390500</v>
       </c>
       <c r="E52" s="3">
-        <v>516500</v>
+        <v>498900</v>
       </c>
       <c r="F52" s="3">
-        <v>656200</v>
+        <v>633700</v>
       </c>
       <c r="G52" s="3">
-        <v>542300</v>
+        <v>523800</v>
       </c>
       <c r="H52" s="3">
-        <v>449000</v>
+        <v>433700</v>
       </c>
       <c r="I52" s="3">
-        <v>452200</v>
+        <v>436800</v>
       </c>
       <c r="J52" s="3">
-        <v>438000</v>
+        <v>423000</v>
       </c>
       <c r="K52" s="3">
         <v>373600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79752600</v>
+        <v>77026000</v>
       </c>
       <c r="E54" s="3">
-        <v>74453000</v>
+        <v>71907600</v>
       </c>
       <c r="F54" s="3">
-        <v>65258000</v>
+        <v>63027000</v>
       </c>
       <c r="G54" s="3">
-        <v>59176500</v>
+        <v>57153400</v>
       </c>
       <c r="H54" s="3">
-        <v>45860900</v>
+        <v>44293000</v>
       </c>
       <c r="I54" s="3">
-        <v>41891000</v>
+        <v>40458800</v>
       </c>
       <c r="J54" s="3">
-        <v>43297800</v>
+        <v>41817500</v>
       </c>
       <c r="K54" s="3">
         <v>38812600</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1348700</v>
+        <v>1302600</v>
       </c>
       <c r="E57" s="3">
-        <v>805100</v>
+        <v>777600</v>
       </c>
       <c r="F57" s="3">
-        <v>423100</v>
+        <v>408600</v>
       </c>
       <c r="G57" s="3">
-        <v>232000</v>
+        <v>224000</v>
       </c>
       <c r="H57" s="3">
-        <v>190800</v>
+        <v>184200</v>
       </c>
       <c r="I57" s="3">
-        <v>569500</v>
+        <v>550000</v>
       </c>
       <c r="J57" s="3">
-        <v>337500</v>
+        <v>326000</v>
       </c>
       <c r="K57" s="3">
         <v>517600</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5156300</v>
+        <v>4980000</v>
       </c>
       <c r="E58" s="3">
-        <v>5774200</v>
+        <v>5576800</v>
       </c>
       <c r="F58" s="3">
-        <v>4534400</v>
+        <v>4379400</v>
       </c>
       <c r="G58" s="3">
-        <v>5926500</v>
+        <v>5723900</v>
       </c>
       <c r="H58" s="3">
-        <v>3420100</v>
+        <v>3303200</v>
       </c>
       <c r="I58" s="3">
-        <v>2932100</v>
+        <v>2831800</v>
       </c>
       <c r="J58" s="3">
-        <v>3889300</v>
+        <v>3756300</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>464300</v>
+        <v>448400</v>
       </c>
       <c r="E59" s="3">
-        <v>318300</v>
+        <v>307400</v>
       </c>
       <c r="F59" s="3">
-        <v>31700</v>
+        <v>30600</v>
       </c>
       <c r="G59" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="H59" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="I59" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="J59" s="3">
-        <v>36600</v>
+        <v>35300</v>
       </c>
       <c r="K59" s="3">
         <v>21800</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17191000</v>
+        <v>16603200</v>
       </c>
       <c r="E61" s="3">
-        <v>15852700</v>
+        <v>15310800</v>
       </c>
       <c r="F61" s="3">
-        <v>14260500</v>
+        <v>13772900</v>
       </c>
       <c r="G61" s="3">
-        <v>9283100</v>
+        <v>8965800</v>
       </c>
       <c r="H61" s="3">
-        <v>8667200</v>
+        <v>8370900</v>
       </c>
       <c r="I61" s="3">
-        <v>8181800</v>
+        <v>7902100</v>
       </c>
       <c r="J61" s="3">
-        <v>7634500</v>
+        <v>7373500</v>
       </c>
       <c r="K61" s="3">
         <v>8383400</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>590100</v>
+        <v>569900</v>
       </c>
       <c r="E62" s="3">
-        <v>1470000</v>
+        <v>1419800</v>
       </c>
       <c r="F62" s="3">
-        <v>684700</v>
+        <v>661300</v>
       </c>
       <c r="G62" s="3">
-        <v>511300</v>
+        <v>493800</v>
       </c>
       <c r="H62" s="3">
-        <v>404000</v>
+        <v>390200</v>
       </c>
       <c r="I62" s="3">
-        <v>390800</v>
+        <v>377400</v>
       </c>
       <c r="J62" s="3">
-        <v>370500</v>
+        <v>357800</v>
       </c>
       <c r="K62" s="3">
         <v>373000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>74921900</v>
+        <v>72360400</v>
       </c>
       <c r="E66" s="3">
-        <v>70200200</v>
+        <v>67800200</v>
       </c>
       <c r="F66" s="3">
-        <v>61083500</v>
+        <v>58995200</v>
       </c>
       <c r="G66" s="3">
-        <v>55209300</v>
+        <v>53321800</v>
       </c>
       <c r="H66" s="3">
-        <v>42070600</v>
+        <v>40632300</v>
       </c>
       <c r="I66" s="3">
-        <v>38303600</v>
+        <v>36994100</v>
       </c>
       <c r="J66" s="3">
-        <v>39941400</v>
+        <v>38575900</v>
       </c>
       <c r="K66" s="3">
         <v>35749700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3983400</v>
+        <v>3847300</v>
       </c>
       <c r="E72" s="3">
-        <v>3624600</v>
+        <v>3500700</v>
       </c>
       <c r="F72" s="3">
-        <v>3163900</v>
+        <v>3055700</v>
       </c>
       <c r="G72" s="3">
-        <v>2933900</v>
+        <v>2833600</v>
       </c>
       <c r="H72" s="3">
-        <v>2734700</v>
+        <v>2641200</v>
       </c>
       <c r="I72" s="3">
-        <v>2547300</v>
+        <v>2460200</v>
       </c>
       <c r="J72" s="3">
-        <v>2305800</v>
+        <v>2227000</v>
       </c>
       <c r="K72" s="3">
         <v>2063200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4830700</v>
+        <v>4665600</v>
       </c>
       <c r="E76" s="3">
-        <v>4252900</v>
+        <v>4107500</v>
       </c>
       <c r="F76" s="3">
-        <v>4174500</v>
+        <v>4031700</v>
       </c>
       <c r="G76" s="3">
-        <v>3967300</v>
+        <v>3831600</v>
       </c>
       <c r="H76" s="3">
-        <v>3790300</v>
+        <v>3660700</v>
       </c>
       <c r="I76" s="3">
-        <v>3587400</v>
+        <v>3464800</v>
       </c>
       <c r="J76" s="3">
-        <v>3356400</v>
+        <v>3241600</v>
       </c>
       <c r="K76" s="3">
         <v>3062900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>946100</v>
+        <v>913800</v>
       </c>
       <c r="E81" s="3">
-        <v>911400</v>
+        <v>880200</v>
       </c>
       <c r="F81" s="3">
-        <v>605400</v>
+        <v>584700</v>
       </c>
       <c r="G81" s="3">
-        <v>645900</v>
+        <v>623900</v>
       </c>
       <c r="H81" s="3">
-        <v>692500</v>
+        <v>668800</v>
       </c>
       <c r="I81" s="3">
-        <v>660800</v>
+        <v>638200</v>
       </c>
       <c r="J81" s="3">
-        <v>552700</v>
+        <v>533800</v>
       </c>
       <c r="K81" s="3">
         <v>502700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>152100</v>
+        <v>146900</v>
       </c>
       <c r="E83" s="3">
-        <v>142800</v>
+        <v>137900</v>
       </c>
       <c r="F83" s="3">
-        <v>128000</v>
+        <v>123700</v>
       </c>
       <c r="G83" s="3">
-        <v>124100</v>
+        <v>119900</v>
       </c>
       <c r="H83" s="3">
-        <v>92800</v>
+        <v>89600</v>
       </c>
       <c r="I83" s="3">
-        <v>91100</v>
+        <v>87900</v>
       </c>
       <c r="J83" s="3">
-        <v>76500</v>
+        <v>73900</v>
       </c>
       <c r="K83" s="3">
         <v>60000</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>474000</v>
+        <v>457800</v>
       </c>
       <c r="E89" s="3">
-        <v>-2166900</v>
+        <v>-2092800</v>
       </c>
       <c r="F89" s="3">
-        <v>-969000</v>
+        <v>-935900</v>
       </c>
       <c r="G89" s="3">
-        <v>2130600</v>
+        <v>2057800</v>
       </c>
       <c r="H89" s="3">
-        <v>1196400</v>
+        <v>1155400</v>
       </c>
       <c r="I89" s="3">
-        <v>-469400</v>
+        <v>-453400</v>
       </c>
       <c r="J89" s="3">
-        <v>880200</v>
+        <v>850100</v>
       </c>
       <c r="K89" s="3">
         <v>782000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-50900</v>
+        <v>-49200</v>
       </c>
       <c r="E91" s="3">
-        <v>-55300</v>
+        <v>-53400</v>
       </c>
       <c r="F91" s="3">
-        <v>-40100</v>
+        <v>-38700</v>
       </c>
       <c r="G91" s="3">
-        <v>-58900</v>
+        <v>-56900</v>
       </c>
       <c r="H91" s="3">
-        <v>-79900</v>
+        <v>-77200</v>
       </c>
       <c r="I91" s="3">
-        <v>-68800</v>
+        <v>-66400</v>
       </c>
       <c r="J91" s="3">
-        <v>-73000</v>
+        <v>-70500</v>
       </c>
       <c r="K91" s="3">
         <v>-72900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-109500</v>
+        <v>-105800</v>
       </c>
       <c r="E94" s="3">
-        <v>-94800</v>
+        <v>-91600</v>
       </c>
       <c r="F94" s="3">
-        <v>-72400</v>
+        <v>-69900</v>
       </c>
       <c r="G94" s="3">
-        <v>-160800</v>
+        <v>-155300</v>
       </c>
       <c r="H94" s="3">
-        <v>-107200</v>
+        <v>-103500</v>
       </c>
       <c r="I94" s="3">
-        <v>-85900</v>
+        <v>-83000</v>
       </c>
       <c r="J94" s="3">
-        <v>-105500</v>
+        <v>-101900</v>
       </c>
       <c r="K94" s="3">
         <v>-104000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-544000</v>
+        <v>-525400</v>
       </c>
       <c r="E96" s="3">
-        <v>-363200</v>
+        <v>-350800</v>
       </c>
       <c r="F96" s="3">
-        <v>-387600</v>
+        <v>-374300</v>
       </c>
       <c r="G96" s="3">
-        <v>-415500</v>
+        <v>-401300</v>
       </c>
       <c r="H96" s="3">
-        <v>-495600</v>
+        <v>-478700</v>
       </c>
       <c r="I96" s="3">
-        <v>-386900</v>
+        <v>-373600</v>
       </c>
       <c r="J96" s="3">
-        <v>-393900</v>
+        <v>-380400</v>
       </c>
       <c r="K96" s="3">
         <v>-369800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1344900</v>
+        <v>-1298900</v>
       </c>
       <c r="E100" s="3">
-        <v>1746600</v>
+        <v>1686900</v>
       </c>
       <c r="F100" s="3">
-        <v>119400</v>
+        <v>115400</v>
       </c>
       <c r="G100" s="3">
-        <v>-415500</v>
+        <v>-401300</v>
       </c>
       <c r="H100" s="3">
-        <v>-495600</v>
+        <v>-478700</v>
       </c>
       <c r="I100" s="3">
-        <v>-404600</v>
+        <v>-390700</v>
       </c>
       <c r="J100" s="3">
-        <v>-412800</v>
+        <v>-398700</v>
       </c>
       <c r="K100" s="3">
         <v>-381500</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>30300</v>
+        <v>29300</v>
       </c>
       <c r="E101" s="3">
-        <v>511900</v>
+        <v>494400</v>
       </c>
       <c r="F101" s="3">
-        <v>-33600</v>
+        <v>-32400</v>
       </c>
       <c r="G101" s="3">
-        <v>148200</v>
+        <v>143100</v>
       </c>
       <c r="H101" s="3">
-        <v>134000</v>
+        <v>129400</v>
       </c>
       <c r="I101" s="3">
-        <v>-36700</v>
+        <v>-35500</v>
       </c>
       <c r="J101" s="3">
-        <v>-175800</v>
+        <v>-169800</v>
       </c>
       <c r="K101" s="3">
         <v>227800</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-950100</v>
+        <v>-917600</v>
       </c>
       <c r="E102" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="F102" s="3">
-        <v>-955600</v>
+        <v>-922900</v>
       </c>
       <c r="G102" s="3">
-        <v>1702600</v>
+        <v>1644400</v>
       </c>
       <c r="H102" s="3">
-        <v>727500</v>
+        <v>702600</v>
       </c>
       <c r="I102" s="3">
-        <v>-996700</v>
+        <v>-962600</v>
       </c>
       <c r="J102" s="3">
-        <v>186100</v>
+        <v>179700</v>
       </c>
       <c r="K102" s="3">
         <v>524300</v>
